--- a/app/tabela_ensaio.xlsx
+++ b/app/tabela_ensaio.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B297"/>
+  <dimension ref="A1:B267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,7 +811,6 @@
           <t xml:space="preserve">LÂMPADAS DE FILAMENTO PARA VEÍCULOS AUTOMOTIVOS </t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -828,12 +827,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BUZINAS</t>
+          <t xml:space="preserve">BUZINAS </t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Ensaios para determinação do consumo ABNT NBR 7014/2017 - item 3.3.1   Ensaios de isolação elétrica ABNT NBR 7014/2017 - item 3.3.3   AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS ELÉTRICOS &amp; MAGNÉTICOS   BUZINAS</t>
         </is>
       </c>
     </row>
@@ -845,67 +844,62 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ensaios para determinação do consumo ABNT NBR 7014/2017 - item 3.3.1   Ensaios de isolação elétrica ABNT NBR 7014/2017 - item 3.3.3   AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS ELÉTRICOS &amp; MAGNÉTICOS   BUZINAS</t>
+          <t>Ensaio de impermeabilidade ABNT NBR 7014/2017 - item 3.3.8   Ensaios de operação contínua ABNT NBR 7014/2017 - item 3.3.7  PEÇAS AUTOMOTIVAS</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BUZINAS</t>
+          <t>PEÇAS AUTOMOTIVAS</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Emissão de perturbação eletromagnética conduzida ABNT NBR 15754 / 2017 – Item 4.5.1  CISPR 25:2016 – Item 6.3 CISPR 25:2021 - Item 6.3  ABNT NBR IEC/CISPR 25:2010 – Item 6.2  CISPR 16-2-1:2014 ADM1 – Item 7.3.3    Emissão de perturbação eletromagnética radiada ABNT NBR 15754 / 2017 – Item 4.5.1  CISPR 25:2016 – Item 6.6 CISPR 25:2021 - Item 6.2 ABNT NBR IEC/CISPR 25:2010 – Item 6.5  IEC 61000-4-20:2010  BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">BUZINAS </t>
+          <t>BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ensaio de impermeabilidade ABNT NBR 7014/2017 - item 3.3.8   Ensaios de operação contínua ABNT NBR 7014/2017 - item 3.3.7  PEÇAS AUTOMOTIVAS</t>
+          <t xml:space="preserve"> Capacidade real no regime de 20h, Cr,20 ABNT NBR 15940/2019 – item 8.2  Reserva de capacidade real, RCr ABNT NBR 15940/2019 – item 8.3  Corrente de partida à frio, CCA ABNT NBR 15940/2019 – item 8.4  Consumo de água ABNT NBR 15940/2019 – item 8.5  BATERIA CHUMBO-ÁCIDO PARA MOTOCICLETAS  TRICICLOS E QUADRICICLOS</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PEÇAS AUTOMOTIVAS</t>
+          <t>BATERIA CHUMBO-ÁCIDO PARA MOTOCICLETAS  TRICICLOS E QUADRICICLOS</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Emissão de perturbação eletromagnética conduzida ABNT NBR 15754 / 2017 – Item 4.5.1  CISPR 25:2016 – Item 6.3 CISPR 25:2021 - Item 6.3  ABNT NBR IEC/CISPR 25:2010 – Item 6.2  CISPR 16-2-1:2014 ADM1 – Item 7.3.3    Emissão de perturbação eletromagnética radiada ABNT NBR 15754 / 2017 – Item 4.5.1  CISPR 25:2016 – Item 6.6 CISPR 25:2021 - Item 6.2 ABNT NBR IEC/CISPR 25:2010 – Item 6.5  IEC 61000-4-20:2010  BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
+          <t xml:space="preserve">  Capacidade real em regime de 10 h (C10) ABNT NBR 15941/2019 – item 7.3  Corrente de Partida a frio (CCA)   ABNT NBR 15941/2019 – item 7.4  AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS ELÉTRICOS &amp; MAGNÉTICOS E ENSAIOS MECÂNICOS  BOMBAS ELÉTRICAS DE COMBUSTÍVEIS PARA MOTORES DO CICLO OTTO</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Capacidade real no regime de 20h, Cr,20 ABNT NBR 15940/2019 – item 8.2  Reserva de capacidade real, RCr ABNT NBR 15940/2019 – item 8.3  Corrente de partida à frio, CCA ABNT NBR 15940/2019 – item 8.4  Consumo de água ABNT NBR 15940/2019 – item 8.5  BATERIA CHUMBO-ÁCIDO PARA MOTOCICLETAS  TRICICLOS E QUADRICICLOS</t>
+          <t>BOMBAS ELÉTRICAS DE COMBUSTÍVEIS PARA MOTORES DO CICLO OTTO</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BATERIA CHUMBO-ÁCIDO PARA MOTOCICLETAS  TRICICLOS E QUADRICICLOS</t>
+          <t>BOMBAS ELÉTRICAS DE COMBUSTÍVEIS PARA MOTORES DO CICLO OTTO</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Capacidade real em regime de 10 h (C10) ABNT NBR 15941/2019 – item 7.3  Corrente de Partida a frio (CCA)   ABNT NBR 15941/2019 – item 7.4  AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS ELÉTRICOS &amp; MAGNÉTICOS E ENSAIOS MECÂNICOS  BOMBAS ELÉTRICAS DE COMBUSTÍVEIS PARA MOTORES DO CICLO OTTO</t>
+          <t xml:space="preserve"> Operação a Seco ABNT NBR 15754 / 2017 – item 4.3.2   Processo de amaciamento ABNT NBR 15754 / 2017 – item 4.2.2   Curva característica de fornecimento de combustível ABNT NBR 15754 / 2017 – item 4.2.3   Durabilidade de longa duração em combustível de aplicação ABNT NBR 15754 / 2017 – item 4.3.1.1  Durabilidade acelerado em combustível agressivo ABNT NBR 15754 / 2017 – item 4.3.1.2  Comportamento de reação da válvula de retenção ABNT NBR 15754 / 2017 – item 4.2.6.2  Estanqueidade da válvula de retenção ABNT NBR 15754 / 2017 – item 4.2.6.3  Proteção contra vazamento ABNT NBR 15754 / 2017 – item 4.2.6.4  Resistência ao desgaste (durabilidade com impurezas) ABNT NBR 15754 / 2017 – item 4.3.7   Ensaio de variação de temperatura ABNT NBR 15754 / 2017 – item 4.3.6.2  Ensaio de partida após inchamento ABNT NBR 15754 / 2017 – item 4.3.9  BOMBAS ELÉTRICAS DE COMBUSTÍVEIS PARA MOTORES DO CICLO OTTO</t>
         </is>
       </c>
     </row>
@@ -915,7 +909,6 @@
           <t>BOMBAS ELÉTRICAS DE COMBUSTÍVEIS PARA MOTORES DO CICLO OTTO</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -925,1113 +918,1072 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Operação a Seco ABNT NBR 15754 / 2017 – item 4.3.2   Processo de amaciamento ABNT NBR 15754 / 2017 – item 4.2.2   Curva característica de fornecimento de combustível ABNT NBR 15754 / 2017 – item 4.2.3   Durabilidade de longa duração em combustível de aplicação ABNT NBR 15754 / 2017 – item 4.3.1.1  Durabilidade acelerado em combustível agressivo ABNT NBR 15754 / 2017 – item 4.3.1.2  Comportamento de reação da válvula de retenção ABNT NBR 15754 / 2017 – item 4.2.6.2  Estanqueidade da válvula de retenção ABNT NBR 15754 / 2017 – item 4.2.6.3  Proteção contra vazamento ABNT NBR 15754 / 2017 – item 4.2.6.4  Resistência ao desgaste (durabilidade com impurezas) ABNT NBR 15754 / 2017 – item 4.3.7   Ensaio de variação de temperatura ABNT NBR 15754 / 2017 – item 4.3.6.2  Ensaio de partida após inchamento ABNT NBR 15754 / 2017 – item 4.3.9  BOMBAS ELÉTRICAS DE COMBUSTÍVEIS PARA MOTORES DO CICLO OTTO</t>
+          <t xml:space="preserve"> Resistência à vibração ABNT NBR 15754 / 2017 – item 4.4.1   Resistência ao impacto ABNT NBR 15754 / 2017 – item 4.4.2   Medição de vibração da bomba e pulsação da pressão do combustível ABNT NBR 15754 / 2017 – item 4.5.2  LÂMPADAS DE FILAMENTO PARA VEÍCULOS AUTOMOTIVOS </t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BOMBAS ELÉTRICAS DE COMBUSTÍVEIS PARA MOTORES DO CICLO OTTO</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
+          <t xml:space="preserve">LÂMPADAS DE FILAMENTO PARA VEÍCULOS AUTOMOTIVOS </t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BOMBAS ELÉTRICAS DE COMBUSTÍVEIS PARA MOTORES DO CICLO OTTO</t>
+          <t xml:space="preserve">LÂMPADAS DE FILAMENTO PARA VEÍCULOS AUTOMOTIVOS </t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resistência à vibração ABNT NBR 15754 / 2017 – item 4.4.1   Resistência ao impacto ABNT NBR 15754 / 2017 – item 4.4.2   Medição de vibração da bomba e pulsação da pressão do combustível ABNT NBR 15754 / 2017 – item 4.5.2  LÂMPADAS DE FILAMENTO PARA VEÍCULOS AUTOMOTIVOS </t>
+          <t>Resistência à vibração e choque  IEC 60810 / 2017 – Item 4.6 e Anexo B IEC 60810:2022 - Item 4.6 e Anexo B BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">LÂMPADAS DE FILAMENTO PARA VEÍCULOS AUTOMOTIVOS </t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
+          <t>BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Ensaio de resistência à vibração  ABNT NBR 15940/2019 – item 8.6  AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS ELÉTRICOS &amp; MAGNÉTICOS E ENSAIO ACÚSTICO, DE VIBRAÇÃO &amp; CHOQUE   BATERIA CHUMBO-ÁCIDO PARA MOTOCICLETAS  TRICICLOS E QUADRICICLOS</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">LÂMPADAS DE FILAMENTO PARA VEÍCULOS AUTOMOTIVOS </t>
+          <t>BATERIA CHUMBO-ÁCIDO PARA MOTOCICLETAS  TRICICLOS E QUADRICICLOS</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Resistência à vibração e choque  IEC 60810 / 2017 – Item 4.6 e Anexo B IEC 60810:2022 - Item 4.6 e Anexo B BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
+          <t xml:space="preserve"> Ensaio de resistência à vibração ABNT NBR 15941/2019 – item 7.5 AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    LÂMPADAS DE FILAMENTO PARA VEÍCULOS AUTOMOTIVOS </t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Ensaio de resistência à vibração  ABNT NBR 15940/2019 – item 8.6  AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS ELÉTRICOS &amp; MAGNÉTICOS E ENSAIO ACÚSTICO, DE VIBRAÇÃO &amp; CHOQUE   BATERIA CHUMBO-ÁCIDO PARA MOTOCICLETAS  TRICICLOS E QUADRICICLOS</t>
+          <t xml:space="preserve">LÂMPADAS DE FILAMENTO PARA VEÍCULOS AUTOMOTIVOS </t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BATERIA CHUMBO-ÁCIDO PARA MOTOCICLETAS  TRICICLOS E QUADRICICLOS</t>
+          <t xml:space="preserve">LÂMPADAS DE FILAMENTO PARA VEÍCULOS AUTOMOTIVOS </t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ensaio de resistência à vibração ABNT NBR 15941/2019 – item 7.5 AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    LÂMPADAS DE FILAMENTO PARA VEÍCULOS AUTOMOTIVOS </t>
+          <t xml:space="preserve">Dimensional ABNT NBR IEC 60809 / 1997 – Item 2.5 e Seção 4 IEC 60809:2021 - Itens 4.5 e 8, Anexo D e Anexo E ABNT NBR IEC 60983 / 2002 – Item 2.5 IEC 60983 / 2005 – Item 2.5  Dimensional da base da lâmpada ABNT NBR IEC 60061 / 1998 - Parte1 IEC 60061 / 2005 – Parte1 IEC 60061 / 2019 – Parte1  Resistência à torção IEC 60810 / 2017 – Item 4.2 IEC 60810:2022, Item 4.2 ABNT NBR IEC 60983 / 2002 – Itens 2.4.4 e 2.5 IEC 60983 / 2005 – Itens 2.4.4 e 2.5  Resistência do Bulbo (Compressão) IEC 60810 / 2017 – Item 4.7 e Anexo C IEC 60810:2022 – Item 4.7 e Anexo C AMORTECEDORES DA SUSPENSÃO </t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">LÂMPADAS DE FILAMENTO PARA VEÍCULOS AUTOMOTIVOS </t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr"/>
+          <t xml:space="preserve">AMORTECEDORES DA SUSPENSÃO </t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ensaio de Durabilidade em Amortecedores ABNT NBR 13308 / 2014 - Item 4  Ensaio de Resistência à Tração do Conjunto Amortecedor ABNT NBR 13308 / 2014 – Item 5  Ensaio de Resistência da Fixação do Assento de Mola ABNT NBR 13308 / 2014 – Item 6  Ensaio de Resistência à Corrosão de Pintura ABNT NBR 13308 / 2014 – Item 7  Ensaio de Homologação de Haste de Amortecedor ABNT NBR 13308 / 2014 – Item 8  Ensaio de Verificação de Bloqueio Hidráulica ABNT NBR 13308 / 2014 – Item 9     AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    CINTOS DE SEGURANÇA PARA VEÍCULOS RODOVIÁRIOS </t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">LÂMPADAS DE FILAMENTO PARA VEÍCULOS AUTOMOTIVOS </t>
+          <t xml:space="preserve">CINTOS DE SEGURANÇA PARA VEÍCULOS RODOVIÁRIOS </t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dimensional ABNT NBR IEC 60809 / 1997 – Item 2.5 e Seção 4 IEC 60809:2021 - Itens 4.5 e 8, Anexo D e Anexo E ABNT NBR IEC 60983 / 2002 – Item 2.5 IEC 60983 / 2005 – Item 2.5  Dimensional da base da lâmpada ABNT NBR IEC 60061 / 1998 - Parte1 IEC 60061 / 2005 – Parte1 IEC 60061 / 2019 – Parte1  Resistência à torção IEC 60810 / 2017 – Item 4.2 IEC 60810:2022, Item 4.2 ABNT NBR IEC 60983 / 2002 – Itens 2.4.4 e 2.5 IEC 60983 / 2005 – Itens 2.4.4 e 2.5  Resistência do Bulbo (Compressão) IEC 60810 / 2017 – Item 4.7 e Anexo C IEC 60810:2022 – Item 4.7 e Anexo C AMORTECEDORES DA SUSPENSÃO </t>
+          <t xml:space="preserve">Ensaio de tração da ancoragem de cintos de segurança para veículos rodoviários - até 50 kN ABNT NBR 6091 / 2015 - Item 7 Resolução Contran n.º 445 de 25 de junho de 2013 - Anexo V – Item 3.1.2 e Item 3.2.2 Resolução Contran n.º 416 de 09 de agosto de 2012 - Anexo V – Item 3.1.2 e Item 3.2.2 Resolução Contran 939 de 28 de março de 2022  Resolução Contran 959 de 25 de maio de 2022 SEGURANÇA PARA VEÍCULOS DE TRANSPORTE PÚBLICO COLETIVO DE PASSAGEIROS E TRANSPORTE DE PASSAGEIROS TIPOS MICRO-ÔNIBUS E ÔNIBUS, CATEGORIAS M2 e M3 </t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMORTECEDORES DA SUSPENSÃO </t>
+          <t xml:space="preserve">SEGURANÇA PARA VEÍCULOS DE TRANSPORTE PÚBLICO COLETIVO DE PASSAGEIROS E TRANSPORTE DE PASSAGEIROS TIPOS MICRO-ÔNIBUS E ÔNIBUS, CATEGORIAS M2 e M3 </t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensaio de Durabilidade em Amortecedores ABNT NBR 13308 / 2014 - Item 4  Ensaio de Resistência à Tração do Conjunto Amortecedor ABNT NBR 13308 / 2014 – Item 5  Ensaio de Resistência da Fixação do Assento de Mola ABNT NBR 13308 / 2014 – Item 6  Ensaio de Resistência à Corrosão de Pintura ABNT NBR 13308 / 2014 – Item 7  Ensaio de Homologação de Haste de Amortecedor ABNT NBR 13308 / 2014 – Item 8  Ensaio de Verificação de Bloqueio Hidráulica ABNT NBR 13308 / 2014 – Item 9     AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    CINTOS DE SEGURANÇA PARA VEÍCULOS RODOVIÁRIOS </t>
+          <t>Ensaio de Resistência das Ancoragens de um Veículo – Até 50 kN Resolução Contran n.º 445 de 25 de junho de 2013 - Anexo IV – Apêndice 2 Resolução Contran n.º 416 de 09 de agosto de 2012 - Anexo IV – Apêndice 2 Resolução Contran 939 de 28 de março de 2022  Resolução Contran 959 de 25 de maio de 2022  Ensaio de Deformação do Encosto – Até 50kN Resolução Contran n.º 445 de 25 de junho de 2013 - Anexo IV – Apêndice 5  Resolução Contran n.º 416 de 09 de agosto de 2012 - Anexo IV – Apêndice 5 Resolução Contran 939 de 28 de março de 2022  Resolução Contran 959 de 25 de maio de 2022  Estabilidade e Sistema de Retenção da Cadeira de Rodas e Seu Usuário Resolução Contran n.º 445 de 25 de junho de 20 13 - Anexo VI  Resolução Contran n.º 416 de 09 de agosto de 2012 - Anexo VI  Resolução Contran 939 de 28 de março de 2022  Resolução Contran 959 de 25 de maio de 2022         AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">CINTOS DE SEGURANÇA PARA VEÍCULOS RODOVIÁRIOS </t>
+          <t xml:space="preserve">TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS </t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensaio de tração da ancoragem de cintos de segurança para veículos rodoviários - até 50 kN ABNT NBR 6091 / 2015 - Item 7 Resolução Contran n.º 445 de 25 de junho de 2013 - Anexo V – Item 3.1.2 e Item 3.2.2 Resolução Contran n.º 416 de 09 de agosto de 2012 - Anexo V – Item 3.1.2 e Item 3.2.2 Resolução Contran 939 de 28 de março de 2022  Resolução Contran 959 de 25 de maio de 2022 SEGURANÇA PARA VEÍCULOS DE TRANSPORTE PÚBLICO COLETIVO DE PASSAGEIROS E TRANSPORTE DE PASSAGEIROS TIPOS MICRO-ÔNIBUS E ÔNIBUS, CATEGORIAS M2 e M3 </t>
+          <t>Acoplamento cônico ABNT NBR 16130 / 2012 – Item 6.1.5  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.5  Carga de deformação do pino esférico do conjunto terminal de direção ABNT NBR 16130 / 2012 – Item 6.1.6  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.6  Ensaio de impacto do pino esférico do conjunto terminal de direção ABNT NBR 16130 / 2012 – Item 6.1.7  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.7  Integridade do material ABNT NBR 16130 / 2012 – Itens 6.1.1 e 6.2.1 ABNT NBR NM 334 / 2012 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.1 e 6.2.1  Ensaios estáticos ABNT NBR 16130 / 2012 – Item 6.3 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.3  Ensaio de Dureza Brinell ABNT NBR ISO 6506-1:2019 ABNT NBR ISO 6506-4:2019 ABNT NBR 16130:2012  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.2.3  Ensaio de Tamanho de Grão ABNT NBR 11568:2016 ABNT NBR 16130:2012  ASTM E3:2011 (REAPROVADA 2017)  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.2.3  Ensaio de Endurecimento Superficial da Pista de Deslizamento do Pino Esférico ABNT NBR ISO 6507-4:2019 ABNT NBR 16130:2012  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.2.3  Ensaio de Tempera por Indução da Carcaça ABNT NBR ISO 6507-4:2019  Ensaio de Profundidade de Dureza ABNT NBR ISO 6507-4:2019 ABNT NBR 16130:2012  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6 .2.3  Ensaio de Processo de Formação de Rosca externa  ABNT NBR 16130:2012  ASTM E3:2011 (Reaprovada 2017)  ASTM E407:2007 (Reaprovada  2015)e1 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.2.2 AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">SEGURANÇA PARA VEÍCULOS DE TRANSPORTE PÚBLICO COLETIVO DE PASSAGEIROS E TRANSPORTE DE PASSAGEIROS TIPOS MICRO-ÔNIBUS E ÔNIBUS, CATEGORIAS M2 e M3 </t>
+          <t xml:space="preserve">TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS </t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ensaio de Resistência das Ancoragens de um Veículo – Até 50 kN Resolução Contran n.º 445 de 25 de junho de 2013 - Anexo IV – Apêndice 2 Resolução Contran n.º 416 de 09 de agosto de 2012 - Anexo IV – Apêndice 2 Resolução Contran 939 de 28 de março de 2022  Resolução Contran 959 de 25 de maio de 2022  Ensaio de Deformação do Encosto – Até 50kN Resolução Contran n.º 445 de 25 de junho de 2013 - Anexo IV – Apêndice 5  Resolução Contran n.º 416 de 09 de agosto de 2012 - Anexo IV – Apêndice 5 Resolução Contran 939 de 28 de março de 2022  Resolução Contran 959 de 25 de maio de 2022  Estabilidade e Sistema de Retenção da Cadeira de Rodas e Seu Usuário Resolução Contran n.º 445 de 25 de junho de 20 13 - Anexo VI  Resolução Contran n.º 416 de 09 de agosto de 2012 - Anexo VI  Resolução Contran 939 de 28 de março de 2022  Resolução Contran 959 de 25 de maio de 2022         AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS</t>
+          <t>Ensaio de Avaliação Metalográfica  ABNT NBR 16130:2012 ASTM E3:2011 (REAPROVADA 2017)  ASTM E407:2007 (Reaprovada 2015)e1 ABNT NBR 11568: 2016 ABNT NBR NM 136:2000 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.4.2  Ensaio de Dureza Superficial ABNT NBR ISO 6507-4:2019 ABNT NBR 16130:2012 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.4.2.1 TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS</t>
+          <t xml:space="preserve">TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS </t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Ensaio de Descarbonetação Superficial ABNT NBR 16130:2012 ABNT NBR 11299:2011 ASTM E3:2011 (Reaprovada 2017)  ASTM E407:2007 (Reaprovada  2015)e1 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.1  Rugosidade superficial ABNT NBR 16130:2012 ABNT NBR ISO 4288:2008 ABNT NBR ISO 4287:2002 ANSI/ASME B46.1:1985 ISO 21920-2:2021 ISO 13565-1: 1996 ISO 13565-2:1996/Cor 1:1998 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.2  Ensaios Dimensionais ISO 1101 / 2017 BS EN ISO 286-1 / 2010 ISO 286-2 / 2013 ABNT NBR 6409 / 1997  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.5        AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    ARRUELA DE ENCOSTO</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS </t>
+          <t>ARRUELA DE ENCOSTO</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Acoplamento cônico ABNT NBR 16130 / 2012 – Item 6.1.5  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.5  Carga de deformação do pino esférico do conjunto terminal de direção ABNT NBR 16130 / 2012 – Item 6.1.6  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.6  Ensaio de impacto do pino esférico do conjunto terminal de direção ABNT NBR 16130 / 2012 – Item 6.1.7  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.7  Integridade do material ABNT NBR 16130 / 2012 – Itens 6.1.1 e 6.2.1 ABNT NBR NM 334 / 2012 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.1 e 6.2.1  Ensaios estáticos ABNT NBR 16130 / 2012 – Item 6.3 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.3  Ensaio de Dureza Brinell ABNT NBR ISO 6506-1:2019 ABNT NBR ISO 6506-4:2019 ABNT NBR 16130:2012  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.2.3  Ensaio de Tamanho de Grão ABNT NBR 11568:2016 ABNT NBR 16130:2012  ASTM E3:2011 (REAPROVADA 2017)  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.2.3  Ensaio de Endurecimento Superficial da Pista de Deslizamento do Pino Esférico ABNT NBR ISO 6507-4:2019 ABNT NBR 16130:2012  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.2.3  Ensaio de Tempera por Indução da Carcaça ABNT NBR ISO 6507-4:2019  Ensaio de Profundidade de Dureza ABNT NBR ISO 6507-4:2019 ABNT NBR 16130:2012  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6 .2.3  Ensaio de Processo de Formação de Rosca externa  ABNT NBR 16130:2012  ASTM E3:2011 (Reaprovada 2017)  ASTM E407:2007 (Reaprovada  2015)e1 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.2.2 AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS</t>
+          <t xml:space="preserve">  Ensaios Dimensionais  NBR ISO 6525: 1999 ABNT NBR ISO 6525:2021 NBR ISO 6526: 1999  ABNT NBR ISO 12301:2011 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F  Ensaios de Dureza  ABNT NBR ISO 12301:2011  ABNT NBR ISO 4384-2:2011 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F BRONZINAS PLANAS </t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS</t>
+          <t xml:space="preserve">BRONZINAS PLANAS </t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">FLANGEADAS </t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS </t>
+          <t xml:space="preserve">BRONZINAS PLANAS FLANGEADAS </t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ensaio de Avaliação Metalográfica  ABNT NBR 16130:2012 ASTM E3:2011 (REAPROVADA 2017)  ASTM E407:2007 (Reaprovada 2015)e1 ABNT NBR 11568: 2016 ABNT NBR NM 136:2000 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.4.2  Ensaio de Dureza Superficial ABNT NBR ISO 6507-4:2019 ABNT NBR 16130:2012 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.4.2.1 TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS</t>
+          <t xml:space="preserve"> Ensaios Dimensionais  ABNT NBR ISO 12301:2011 ABNT NBR ISO 3548- 2:2022 ABNT NBR ISO 3548-3:2013 ABNT NBR 16127:2015 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F  Rugosidade Superficial  ABNT NBR ISO 12301:2011  ISO 1302: 2002 ISO 21920-1:2021 ABNT NBR ISO 4287: 2002 ABNT NBR ISO 4288: 2008 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F BRONZINAS PLANAS </t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS</t>
+          <t xml:space="preserve">BRONZINAS PLANAS </t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Ensaios Dimensionais  ABNT NBR ISO 12301:2011 ABNT NBR 16127: 2015 ABNT NBR ISO 3548-3:2013 ABNT NBR ISO 3548- 2:2022 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F  Rugosidade Superficial ABNT NBR ISO 12301:2011  ISO 1302: 2002 ISO 21920-1:2021 ABNT NBR ISO 4287: 2002 ABNT NBR ISO 4288: 2008 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F  Dureza do Material das Costas – Material Metálico Multicamadas ABNT NBR ISO 12301:2011  ABNT NBR ISO 4384-2:2011  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F  AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE ENSAIOS MECÂNICOS    BUCHA</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS </t>
+          <t>BUCHA</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ensaio de Descarbonetação Superficial ABNT NBR 16130:2012 ABNT NBR 11299:2011 ASTM E3:2011 (Reaprovada 2017)  ASTM E407:2007 (Reaprovada  2015)e1 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.1  Rugosidade superficial ABNT NBR 16130:2012 ABNT NBR ISO 4288:2008 ABNT NBR ISO 4287:2002 ANSI/ASME B46.1:1985 ISO 21920-2:2021 ISO 13565-1: 1996 ISO 13565-2:1996/Cor 1:1998 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.2  Ensaios Dimensionais ISO 1101 / 2017 BS EN ISO 286-1 / 2010 ISO 286-2 / 2013 ABNT NBR 6409 / 1997  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.5        AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    ARRUELA DE ENCOSTO</t>
+          <t xml:space="preserve"> Ensaios Dimensionais ABNT NBR ISO 12301:2011  ABNT NBR ISO 3547- 7:2022 ABNT NBR ISO 3547- 5:2021 ABNT NBR ISO 3547-1:2021 ABNT NBR ISO 4379:2010 ABNT NBR ISO 4379:2021 ABNT NBR ISO 6506-1:2019 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F  Rugosidade Superficial  ABNT NBR ISO 12301:2011 ISO 1302:2002 ABNT NBR ISO 4287:2002 ABNT NBR ISO 4288:2008 ABNT NBR ISO 3547- 1:2021 ISO 21920-1:2021 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F  Ensaios de Dureza ABNT NBR ISO 12301:2011  ABNT NBR ISO 6506-1:2019 ABNT NBR ISO 4384-2:2011 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F ANÉIS DE PISTÃO </t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ARRUELA DE ENCOSTO</t>
+          <t xml:space="preserve">ANÉIS DE PISTÃO </t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Ensaios Dimensionais  NBR ISO 6525: 1999 ABNT NBR ISO 6525:2021 NBR ISO 6526: 1999  ABNT NBR ISO 12301:2011 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F  Ensaios de Dureza  ABNT NBR ISO 12301:2011  ABNT NBR ISO 4384-2:2011 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F BRONZINAS PLANAS </t>
+          <t xml:space="preserve">Ensaios Dimensionais ABNT NBR ISO 6621-2:2009 ABNT NBR ISO 6621-4:2016 ABNT NBR ISO 6621-5:2014 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico E  Rugosidade Superficial ABNT NBR ISO 6621:2:2009 ABNT NBR ISO 6621-4:2016 ABNT NBR ISO 4287:2002 ABNT NBR ISO 4288:2008 Portaria Inmetro Nº 145:2022, de 28/03/2022, Anexo Específico E  Perda de Força Tangencial sob Efeitos de Temperatura ABNT NBR ISO 6621-2:2009 ABNT NBR ISO 6621-5:2014 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico E  Ensaio de Inspeção Visual ABNT NBR ISO 6621-5:2014 ABNT NBR ISO 6621-2:2009 ABNT NBR ISO 6621-4:2016 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico E  AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE ENSAIOS MECÂNICOS    ANÉIS DE PISTÃO </t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">BRONZINAS PLANAS </t>
+          <t xml:space="preserve">ANÉIS DE PISTÃO </t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve">FLANGEADAS </t>
+          <t xml:space="preserve">Profundidade da Camada Nitretada ABNT NBR ISO 6621-2:2009 ABNT NBR ISO 6621-4:2016 ABNT NBR NM ISO 6507-1:2008 ABNT NBR ISO 6507-1:2019 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico  PISTÕES DE LIGA LEVE DE ALUMÍNIO </t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">BRONZINAS PLANAS FLANGEADAS </t>
+          <t xml:space="preserve">PISTÕES DE LIGA LEVE DE ALUMÍNIO </t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ensaios Dimensionais  ABNT NBR ISO 12301:2011 ABNT NBR ISO 3548- 2:2022 ABNT NBR ISO 3548-3:2013 ABNT NBR 16127:2015 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F  Rugosidade Superficial  ABNT NBR ISO 12301:2011  ISO 1302: 2002 ISO 21920-1:2021 ABNT NBR ISO 4287: 2002 ABNT NBR ISO 4288: 2008 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F BRONZINAS PLANAS </t>
+          <t xml:space="preserve">Ensaios Dimensionais ABNT NBR 15905:2017 ABNT NBR 15934:2017 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D   Ensaios de Inspeção Visual ABNT NBR 15905:2017 ABNT NBR 15934:2017 ABNT NBR ISO 6506- 1:2019 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D  Ensaio de Verificação da Rastreabilidade ABNT NBR 15934:2017 ABNT NBR 15905:2017  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D PISTÕES DE LIGA LEVE DE ALUMÍNIO </t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">BRONZINAS PLANAS </t>
+          <t xml:space="preserve">PISTÕES DE LIGA LEVE DE ALUMÍNIO </t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ensaios Dimensionais  ABNT NBR ISO 12301:2011 ABNT NBR 16127: 2015 ABNT NBR ISO 3548-3:2013 ABNT NBR ISO 3548- 2:2022 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F  Rugosidade Superficial ABNT NBR ISO 12301:2011  ISO 1302: 2002 ISO 21920-1:2021 ABNT NBR ISO 4287: 2002 ABNT NBR ISO 4288: 2008 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F  Dureza do Material das Costas – Material Metálico Multicamadas ABNT NBR ISO 12301:2011  ABNT NBR ISO 4384-2:2011  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F  AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE ENSAIOS MECÂNICOS    BUCHA</t>
+          <t>Ensaios de Dureza ABNT NBR 15934:2017 ABNT NBR ISO 6506-1:2019  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D  Ligação Metalúrgica do Porta Anel   ABNT NBR 15934:2017  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D ANÉIS TRAVA</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BUCHA</t>
+          <t>ANÉIS TRAVA</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ensaios Dimensionais ABNT NBR ISO 12301:2011  ABNT NBR ISO 3547- 7:2022 ABNT NBR ISO 3547- 5:2021 ABNT NBR ISO 3547-1:2021 ABNT NBR ISO 4379:2010 ABNT NBR ISO 4379:2021 ABNT NBR ISO 6506-1:2019 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F  Rugosidade Superficial  ABNT NBR ISO 12301:2011 ISO 1302:2002 ABNT NBR ISO 4287:2002 ABNT NBR ISO 4288:2008 ABNT NBR ISO 3547- 1:2021 ISO 21920-1:2021 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F  Ensaios de Dureza ABNT NBR ISO 12301:2011  ABNT NBR ISO 6506-1:2019 ABNT NBR ISO 4384-2:2011 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F ANÉIS DE PISTÃO </t>
+          <t xml:space="preserve"> Ensaios Dimensionais  ABNT NBR 16100:2013 ABNT NBR 15933: 2013 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D   Ensaio de Funcionalidade ABNT NBR 16100:2013 ABNT NBR 15933: 2013  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D  MÁQUINAS E EQUIPAMENTOS  ENSAIOS ELÉTRICOS &amp; MAGNÉTICOS   ANÉIS TRAVA</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANÉIS DE PISTÃO </t>
+          <t>ANÉIS TRAVA</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensaios Dimensionais ABNT NBR ISO 6621-2:2009 ABNT NBR ISO 6621-4:2016 ABNT NBR ISO 6621-5:2014 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico E  Rugosidade Superficial ABNT NBR ISO 6621:2:2009 ABNT NBR ISO 6621-4:2016 ABNT NBR ISO 4287:2002 ABNT NBR ISO 4288:2008 Portaria Inmetro Nº 145:2022, de 28/03/2022, Anexo Específico E  Perda de Força Tangencial sob Efeitos de Temperatura ABNT NBR ISO 6621-2:2009 ABNT NBR ISO 6621-5:2014 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico E  Ensaio de Inspeção Visual ABNT NBR ISO 6621-5:2014 ABNT NBR ISO 6621-2:2009 ABNT NBR ISO 6621-4:2016 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico E  AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE ENSAIOS MECÂNICOS    ANÉIS DE PISTÃO </t>
+          <t xml:space="preserve"> Tenacidade ABNT NBR 16100:2013 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D PINOS DE PISTÃO</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANÉIS DE PISTÃO </t>
+          <t>PINOS DE PISTÃO</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Profundidade da Camada Nitretada ABNT NBR ISO 6621-2:2009 ABNT NBR ISO 6621-4:2016 ABNT NBR NM ISO 6507-1:2008 ABNT NBR ISO 6507-1:2019 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico  PISTÕES DE LIGA LEVE DE ALUMÍNIO </t>
+          <t xml:space="preserve"> Profundidade de Camada Cimentada ou Nitretada ABNT NBR ISO 18669-1:2014 ABNT NBR ISO 18669-2:2010 (Versão corrigida 2012) ISO 2639:2002 ISO 18203:2016, exceto item 8.2 e Anexo B Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D  Ensaios Dimensionais ABNT NBR ISO 18669-1:2014 ABNT NBR ISO 18669-2:2010 (Versão corrigida 2012) ISO 1101:2017 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D  MÁQUINAS E EQUIPAMENTOS  ENSAIOS ELÉTRICOS &amp; MAGNÉTICOS   PINOS DE PISTÃO</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">PISTÕES DE LIGA LEVE DE ALUMÍNIO </t>
+          <t>PINOS DE PISTÃO</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensaios Dimensionais ABNT NBR 15905:2017 ABNT NBR 15934:2017 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D   Ensaios de Inspeção Visual ABNT NBR 15905:2017 ABNT NBR 15934:2017 ABNT NBR ISO 6506- 1:2019 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D  Ensaio de Verificação da Rastreabilidade ABNT NBR 15934:2017 ABNT NBR 15905:2017  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D PISTÕES DE LIGA LEVE DE ALUMÍNIO </t>
+          <t xml:space="preserve"> Ensaio de Dureza ABNT NBR ISO 6506-4:2019 ABNT NBR ISO 6506-1:2019 ABNT NBR NM ISO 6508-1:2008 ABNT NBR ISO 6508-1:2019 ABNT NBR ISO 18669-1:2014 ABNT NBR ISO 18669-2:2010 (Versão corrigida 2012) Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D  Defeitos do Material  ABNT NBR ISO 18669-1:2014 ABNT NBR ISO 18669-2:2010 (Versão corrigida 2012) ISO 9934-1:2016 ISO 9934-2:2015 ISO 16810:2012 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D  Ensaios de Inspeção Visual ABNT NBR ISO 18669-1:2014 ABNT NBR ISO 18669-2:2010 (Versão corrigida 2012) Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D   AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    PINOS DE PISTÃO</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">PISTÕES DE LIGA LEVE DE ALUMÍNIO </t>
+          <t>PINOS DE PISTÃO</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Ensaios de Dureza ABNT NBR 15934:2017 ABNT NBR ISO 6506-1:2019  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D  Ligação Metalúrgica do Porta Anel   ABNT NBR 15934:2017  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D ANÉIS TRAVA</t>
+          <t xml:space="preserve"> Rugosidade Superficial ABNT NBR ISO 18669-1:2014 ABNT NBR ISO 18669-2:2010 (Versão corrigida 2012) ABNT NBR ISO 4287:2002 ABNT NBR ISO 4288:2008 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D RAIOS E NIPLES DE BICICLETA</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ANÉIS TRAVA</t>
+          <t>RAIOS E NIPLES DE BICICLETA</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ensaios Dimensionais  ABNT NBR 16100:2013 ABNT NBR 15933: 2013 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D   Ensaio de Funcionalidade ABNT NBR 16100:2013 ABNT NBR 15933: 2013  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D  MÁQUINAS E EQUIPAMENTOS  ENSAIOS ELÉTRICOS &amp; MAGNÉTICOS   ANÉIS TRAVA</t>
+          <t xml:space="preserve"> Dimensões de raios de bicicleta ABNT NBR 8023 / 2013  Determinação da resistência à fadiga de raios de bicicleta - até 35 kN ABNT NBR 8024 / 2013  Dimensões de niple de bicicleta ABNT NBR 8691 / 2013  Determinação da resistência à tração de raio e niple de bicicleta - até 100 kN ABNT NBR 8692 / 2013 MATERIAL DE ATRITO PARA FREIO </t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ANÉIS TRAVA</t>
+          <t xml:space="preserve">MATERIAL DE ATRITO PARA FREIO </t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tenacidade ABNT NBR 16100:2013 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D PINOS DE PISTÃO</t>
+          <t>Ensaio de compressibilidade – até 470 kN ABNT NBR ISO 6310 / 2016 ISO 6310 / 2009 ABNT NBR 9301 / 1986 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo III, Item 5.4 e 5.6 (Requisitos)  Ensaio de cisalhamento – até 470kN ISO 6312 / 2010 ABNT NBR 5537 / 2002 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo III, Item 5.3 e 5.6 (Requisitos)  Ensaio de verificação de estabilidade de raio, dilatação e o crescimento ABNT NBR 5505 / 2019  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo III, Item 5.5 e 5.6 (Requisitos) CORRENTE DE TRANSMISSÃO</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PINOS DE PISTÃO</t>
+          <t>CORRENTE DE TRANSMISSÃO</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Profundidade de Camada Cimentada ou Nitretada ABNT NBR ISO 18669-1:2014 ABNT NBR ISO 18669-2:2010 (Versão corrigida 2012) ISO 2639:2002 ISO 18203:2016, exceto item 8.2 e Anexo B Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D  Ensaios Dimensionais ABNT NBR ISO 18669-1:2014 ABNT NBR ISO 18669-2:2010 (Versão corrigida 2012) ISO 1101:2017 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D  MÁQUINAS E EQUIPAMENTOS  ENSAIOS ELÉTRICOS &amp; MAGNÉTICOS   PINOS DE PISTÃO</t>
+          <t xml:space="preserve"> Ensaio dimensional ISO 10190 / 2008 ABNT NBR 16427 / 2016 item 4.2 ABNT NBR 16427:2022 item 4.2  Ensaio de Proteção da corrente de transmissão ABNT NBR 16427:2016 - item 4.1.5  ABNT NBR 16427:2022 - item 4.1.5   Ensaio de resistência a tração - até 100 kN ISO 10190 / 2008 ABNT NBR 16427 / 2016 item 5.3.1  ABNT NBR 16427:2022 Item 5.3.1   AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    CORRENTE DE TRANSMISSÃO</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PINOS DE PISTÃO</t>
+          <t>CORRENTE DE TRANSMISSÃO</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ensaio de Dureza ABNT NBR ISO 6506-4:2019 ABNT NBR ISO 6506-1:2019 ABNT NBR NM ISO 6508-1:2008 ABNT NBR ISO 6508-1:2019 ABNT NBR ISO 18669-1:2014 ABNT NBR ISO 18669-2:2010 (Versão corrigida 2012) Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D  Defeitos do Material  ABNT NBR ISO 18669-1:2014 ABNT NBR ISO 18669-2:2010 (Versão corrigida 2012) ISO 9934-1:2016 ISO 9934-2:2015 ISO 16810:2012 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D  Ensaios de Inspeção Visual ABNT NBR ISO 18669-1:2014 ABNT NBR ISO 18669-2:2010 (Versão corrigida 2012) Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D   AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    PINOS DE PISTÃO</t>
+          <t xml:space="preserve"> Ensaio de fadiga – Conformidade e caracterização ISO 15654 / 2015   Ensaio de Exatidão de Comprimento ISO 10190/2008   Ensaio de medição de comprimento ABNT NBR 16427 / 2016 item 5.2 ABNT NBR 16427:2022 Item 5.2  Ensaio de fadiga – Até 35 kN ABNT NBR 16427 / 2016 item 5.3.2  ABNT NBR 16427:2022 Item 5.3.2   Ensaio de durabilidade ABNT NBR 16427 / 2016 item 8.4 ABNT NBR 16427:2022 item 8.4 AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    COROA</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PINOS DE PISTÃO</t>
+          <t>COROA</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rugosidade Superficial ABNT NBR ISO 18669-1:2014 ABNT NBR ISO 18669-2:2010 (Versão corrigida 2012) ABNT NBR ISO 4287:2002 ABNT NBR ISO 4288:2008 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D RAIOS E NIPLES DE BICICLETA</t>
+          <t xml:space="preserve"> Ensaio dimensional ISO 10190 / 2008 ABNT NBR 16427/2016 item 7.2 ABNT NBR 16427:2022 item 7.2  Ensaio de dimensões do perfil da lateral do dente ABNT NBR 16427 / 2016 item 7.3 ABNT NBR 16427:2022 item 7.3  Ensaio de medição do diâmetro do cubo e furos de fixação da coroa ABNT NBR 16427 / 2016 item 7.4 ABNT NBR 16427:2022 item 7.4  Ensaio de durabilidade ABNT NBR 16427 / 2016 item 8.4 ABNT NBR 16427:2022 item 8.4 PINHÃO </t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>RAIOS E NIPLES DE BICICLETA</t>
+          <t xml:space="preserve">PINHÃO </t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dimensões de raios de bicicleta ABNT NBR 8023 / 2013  Determinação da resistência à fadiga de raios de bicicleta - até 35 kN ABNT NBR 8024 / 2013  Dimensões de niple de bicicleta ABNT NBR 8691 / 2013  Determinação da resistência à tração de raio e niple de bicicleta - até 100 kN ABNT NBR 8692 / 2013 MATERIAL DE ATRITO PARA FREIO </t>
+          <t xml:space="preserve">Ensaio dimensional ISO 10190 / 2008 ABNT NBR 16427 / 2016 item 7.2 ABNT NBR 16427:2022 item 7.2  Ensaio de dimensões do perfil da lateral do dente ABNT NBR 16427 / 2016 item 7.3 ABNT NBR 16427:2022 item 7.3  Ensaio de medição de forma e tolerância para furo central do pinhão ABNT NBR 16427 / 2016 item 7.5 ABNT NBR 16427:2022 item 7.5  Ensaio de durabilidade ABNT NBR 16427 / 2016 item 8.4 ABNT NBR 16427:2022 item 8.4 ESCAPAMENTO </t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve">MATERIAL DE ATRITO PARA FREIO </t>
+          <t xml:space="preserve">ESCAPAMENTO </t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ensaio de compressibilidade – até 470 kN ABNT NBR ISO 6310 / 2016 ISO 6310 / 2009 ABNT NBR 9301 / 1986 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo III, Item 5.4 e 5.6 (Requisitos)  Ensaio de cisalhamento – até 470kN ISO 6312 / 2010 ABNT NBR 5537 / 2002 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo III, Item 5.3 e 5.6 (Requisitos)  Ensaio de verificação de estabilidade de raio, dilatação e o crescimento ABNT NBR 5505 / 2019  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo III, Item 5.5 e 5.6 (Requisitos) CORRENTE DE TRANSMISSÃO</t>
+          <t>Ensaio Dimensional e condições de acabamento Portaria Inmetro nº 71:2022, de 22 de fevereiro de 2022, Anexo D   AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CORRENTE DE TRANSMISSÃO</t>
+          <t>BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ensaio dimensional ISO 10190 / 2008 ABNT NBR 16427 / 2016 item 4.2 ABNT NBR 16427:2022 item 4.2  Ensaio de Proteção da corrente de transmissão ABNT NBR 16427:2016 - item 4.1.5  ABNT NBR 16427:2022 - item 4.1.5   Ensaio de resistência a tração - até 100 kN ISO 10190 / 2008 ABNT NBR 16427 / 2016 item 5.3.1  ABNT NBR 16427:2022 Item 5.3.1   AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    CORRENTE DE TRANSMISSÃO</t>
+          <t xml:space="preserve"> Inspeção Visual Externa e Peso ABNT NBR 15940/2019 – item 8.1 ABNT NBR 15914/2018 Item 5 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo I – itens 5.1 e 5.2 ABNT NBR 15914:2018 Item 5   BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CORRENTE DE TRANSMISSÃO</t>
+          <t>BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ensaio de fadiga – Conformidade e caracterização ISO 15654 / 2015   Ensaio de Exatidão de Comprimento ISO 10190/2008   Ensaio de medição de comprimento ABNT NBR 16427 / 2016 item 5.2 ABNT NBR 16427:2022 Item 5.2  Ensaio de fadiga – Até 35 kN ABNT NBR 16427 / 2016 item 5.3.2  ABNT NBR 16427:2022 Item 5.3.2   Ensaio de durabilidade ABNT NBR 16427 / 2016 item 8.4 ABNT NBR 16427:2022 item 8.4 AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    COROA</t>
+          <t xml:space="preserve">   Retenção do Eletrólito ABNT NBR 15940/2019 – item 8.7  Estanqueidade  ABNT NBR 15940/2019 item 8.8   BATERIA CHUMBO-ÁCIDO PARA MOTOCICLETAS  TRICICLOS E QUADRICICLOS</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>COROA</t>
+          <t>BATERIA CHUMBO-ÁCIDO PARA MOTOCICLETAS  TRICICLOS E QUADRICICLOS</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ensaio dimensional ISO 10190 / 2008 ABNT NBR 16427/2016 item 7.2 ABNT NBR 16427:2022 item 7.2  Ensaio de dimensões do perfil da lateral do dente ABNT NBR 16427 / 2016 item 7.3 ABNT NBR 16427:2022 item 7.3  Ensaio de medição do diâmetro do cubo e furos de fixação da coroa ABNT NBR 16427 / 2016 item 7.4 ABNT NBR 16427:2022 item 7.4  Ensaio de durabilidade ABNT NBR 16427 / 2016 item 8.4 ABNT NBR 16427:2022 item 8.4 PINHÃO </t>
+          <t xml:space="preserve"> Inspeção Visual Externa ABNT NBR 15941/2019 item 7.1 ABNT NBR 15916/2018  Inspeção de Peso  Anexo da Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo I, item 5.2     Estanqueidade (obrigatório somente baterias ventiladas) ABNT NBR 15941/2019 – item 6.3.2                 AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS QUÍMICOS   CORRENTES, COROA</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve">PINHÃO </t>
+          <t>COROA</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensaio dimensional ISO 10190 / 2008 ABNT NBR 16427 / 2016 item 7.2 ABNT NBR 16427:2022 item 7.2  Ensaio de dimensões do perfil da lateral do dente ABNT NBR 16427 / 2016 item 7.3 ABNT NBR 16427:2022 item 7.3  Ensaio de medição de forma e tolerância para furo central do pinhão ABNT NBR 16427 / 2016 item 7.5 ABNT NBR 16427:2022 item 7.5  Ensaio de durabilidade ABNT NBR 16427 / 2016 item 8.4 ABNT NBR 16427:2022 item 8.4 ESCAPAMENTO </t>
+          <t xml:space="preserve">S E PINHÃO </t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve">ESCAPAMENTO </t>
+          <t xml:space="preserve">PINHÃO </t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Ensaio Dimensional e condições de acabamento Portaria Inmetro nº 71:2022, de 22 de fevereiro de 2022, Anexo D   AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
+          <t xml:space="preserve">DE MOTOCICLETAS MOTONETAS, CICLOMOTORES, TRICICLOS E QUADRICICLOS </t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
+          <t xml:space="preserve">CORRENTES, COROAS E PINHÃO DE MOTOCICLETAS MOTONETAS, CICLOMOTORES, TRICICLOS E QUADRICICLOS </t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inspeção Visual Externa e Peso ABNT NBR 15940/2019 – item 8.1 ABNT NBR 15914/2018 Item 5 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo I – itens 5.1 e 5.2 ABNT NBR 15914:2018 Item 5   BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
+          <t xml:space="preserve"> Ensaio de corrosão por exposição à névoa salina  ABNT NBR 16427 / 2016 item 8.3 ABNT NBR 16427:2022 item 8.3 ABNT NBR 8094 / 1983 ABNT NBR 17088:2023 ARRUELA DE ENCOSTO</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
+          <t>ARRUELA DE ENCOSTO</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Retenção do Eletrólito ABNT NBR 15940/2019 – item 8.7  Estanqueidade  ABNT NBR 15940/2019 item 8.8   BATERIA CHUMBO-ÁCIDO PARA MOTOCICLETAS  TRICICLOS E QUADRICICLOS</t>
+          <t>/ BUCHA</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BATERIA CHUMBO-ÁCIDO PARA MOTOCICLETAS  TRICICLOS E QUADRICICLOS</t>
+          <t>BUCHA</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inspeção Visual Externa ABNT NBR 15941/2019 item 7.1 ABNT NBR 15916/2018  Inspeção de Peso  Anexo da Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo I, item 5.2     Estanqueidade (obrigatório somente baterias ventiladas) ABNT NBR 15941/2019 – item 6.3.2                 AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS QUÍMICOS   CORRENTES, COROA</t>
+          <t xml:space="preserve"> / BRONZINA DE PAREDE FINA/ PISTÕES DE LIGA LEVE DE ALUMÍNIO </t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>COROA</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">S E PINHÃO </t>
+          <t xml:space="preserve">PISTÕES DE LIGA LEVE DE ALUMÍNIO </t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve">PINHÃO </t>
+          <t xml:space="preserve">ARRUELA DE ENCOSTO/ BUCHA / BRONZINA DE PAREDE FINA/ PISTÕES DE LIGA LEVE DE ALUMÍNIO </t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve">DE MOTOCICLETAS MOTONETAS, CICLOMOTORES, TRICICLOS E QUADRICICLOS </t>
+          <t>Ensaio de Composição Química ABNT NBR ISO 12301:2011  ABNT NBR 15905:2017 ABNT NBR 15934:2017 ABNT NBR ISO 18669-1:2014 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D e Anexo Específico F TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORRENTES, COROAS E PINHÃO DE MOTOCICLETAS MOTONETAS, CICLOMOTORES, TRICICLOS E QUADRICICLOS </t>
+          <t xml:space="preserve">TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS </t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ensaio de corrosão por exposição à névoa salina  ABNT NBR 16427 / 2016 item 8.3 ABNT NBR 16427:2022 item 8.3 ABNT NBR 8094 / 1983 ABNT NBR 17088:2023 ARRUELA DE ENCOSTO</t>
+          <t>Ensaio de Composição Química  ABNT NBR 16130:2012 ABNT NBR NM 87:2000 Errata 2:2004 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico I BUZINAS</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ARRUELA DE ENCOSTO</t>
+          <t xml:space="preserve">BUZINAS </t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>/ BUCHA</t>
+          <t>Ensaios de corrosão para verificar comportamento elétrico ABNT NBR 7014:2017 Item 3.3.9  Ensaios de corrosão para verificar acabamento externo ABNT NBR 7014:2017 Item 3.3.10 BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BUCHA</t>
+          <t>BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> / BRONZINA DE PAREDE FINA/ PISTÕES DE LIGA LEVE DE ALUMÍNIO </t>
+          <t xml:space="preserve">  Teor de cádmio e mercúrio RES. CONAMA n° 401/2008  AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS QUÍMICOS   BATERIA CHUMBO-ÁCIDO PARA MOTOCICLETAS  TRICICLOS E QUADRICICLOS</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve">PISTÕES DE LIGA LEVE DE ALUMÍNIO </t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr"/>
+          <t>BATERIA CHUMBO-ÁCIDO PARA MOTOCICLETAS  TRICICLOS E QUADRICICLOS</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Teor de cádmio e mercúrio RES. CONAMA n° 401/2008  RODA DE LIGA DE ALUMINIO PARA AUTOMÓVEIS COMERCIAIS LEVES E UTILITÁRIOS ESPORTIVOS </t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve">ARRUELA DE ENCOSTO/ BUCHA / BRONZINA DE PAREDE FINA/ PISTÕES DE LIGA LEVE DE ALUMÍNIO </t>
+          <t xml:space="preserve">RODA DE LIGA DE ALUMINIO PARA AUTOMÓVEIS COMERCIAIS LEVES E UTILITÁRIOS ESPORTIVOS </t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Ensaio de Composição Química ABNT NBR ISO 12301:2011  ABNT NBR 15905:2017 ABNT NBR 15934:2017 ABNT NBR ISO 18669-1:2014 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D e Anexo Específico F TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS</t>
+          <t xml:space="preserve">  Ensaio de Composição Química ABNT NBR 6752:2020 Item – 4.1.4 e 4.2.4  AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS TÉRMICOS   BUZINAS</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS</t>
+          <t xml:space="preserve">BUZINAS </t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Faixa de temperatura de funcionamento ABNT NBR 7014:2017 Item 3.3.4  Ensaios de ciclos térmicos ABNT NBR 7014:2017 Item 3.3.5  Ensaios de exposição térmica ABNT NBR 7014:2017 Item 3.3.6 AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIO ACÚSTICO, DE VIBRAÇÃO &amp; CHOQUE   BUZINAS</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve">TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS </t>
+          <t xml:space="preserve">BUZINAS </t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Ensaio de Composição Química  ABNT NBR 16130:2012 ABNT NBR NM 87:2000 Errata 2:2004 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico I BUZINAS</t>
+          <t xml:space="preserve">Ensaios para determinação da frequência  ABNT NBR 7014/2017 item 3.3.2  ABNT NBR 5536/2011 - item 5.1 a 5.5  Ensaio de Durabilidade ABNT NBR 5535/2011 ABNT NBR 5536/2011 - item 5.6 Ensaios de vibração  ABNT NBR 7014/2017 item 3.3.11 ABNT NBR 5536/2011 item 5.1 a 5.5       ELETRODOMÉSTICOS E SIMILARES  ENSAIOS TÉRMICOS   EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BUZINAS</t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">Ensaio de resistência ao calor  ABNT NBR NM 60335-1:2010 ABNT NBR IEC 60695-2-10:2015 ABNT NBR IEC 60695-2-11:2016 ABNT NBR IEC 60695-2- 12:2022 ABNT NBR IEC 60695-2- 13:2022ABNT NBR IEC 60695-10-2:2020 ABNT NBR IEC 60695- 11-5:2006 ABNT NBR IEC 60695- 11-5:2020 ABNT NBR 16641:2018 – item 6.7 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.2.7   Portaria 215 de 6 de junho de 2024   MOTORES EQUIPAMENTOS E MATERIAIS ELÉTRICOS  ENSAIO ACÚSTICO, DE VIBRAÇÃO E CHOQUE   LUMINÁRIAS </t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">BUZINAS </t>
+          <t xml:space="preserve">LUMINÁRIAS </t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Ensaios de corrosão para verificar comportamento elétrico ABNT NBR 7014:2017 Item 3.3.9  Ensaios de corrosão para verificar acabamento externo ABNT NBR 7014:2017 Item 3.3.10 BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
+          <t xml:space="preserve">Resistência à vibração ABNT NBR IEC 60598-1 / 2010 – Item 4.20 MOTORES EQUIPAMENTOS E MATERIAIS ELÉTRICOS  ENSAIOS ELÉTRICOS &amp; MAGNÉTICOS   BATERIA ESTACIONÁRIA ALCALINA, NÍQUEL-CÁDMIO E CHUMBO-ÁCIDA PARA USO FOTOVOLTAICO </t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
+          <t xml:space="preserve">BATERIA ESTACIONÁRIA ALCALINA, NÍQUEL-CÁDMIO E CHUMBO-ÁCIDA PARA USO FOTOVOLTAICO </t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Teor de cádmio e mercúrio RES. CONAMA n° 401/2008  AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS QUÍMICOS   BATERIA CHUMBO-ÁCIDO PARA MOTOCICLETAS  TRICICLOS E QUADRICICLOS</t>
+          <t>Ensaio de capacidade Portaria INMETRO nº 004/2011 – ANEXO IV – ITEM 1  Ensaio de durabilidade Portaria INMETRO nº 004/2011 – ANEXO IV – ITEM 2  Ensaio de retenção de carga (Autodescarga) Portaria INMETRO nº 004/2011 – ANEXO IV – ITEM 3 Portaria Inmetro nº 140 de 21 de março de 2022 – Anexo B do anexo específico C, item 6  Ensaio de regeneração da capacidade Portaria INMETRO nº 004/2011 – ANEXO IV – ITEM 4 Portaria Inmetro nº 140 de 21 de março de 2022 – Anexo B do anexo específico C, item 7  Ensaio de eficiência de carga / descarga Portaria INMETRO nº 004/2011 – anexo IV – item 5 MÁQUINAS E EQUIPAMENTOS  ENSAIOS MECÂNICOS   INVÓLUCROS DE EQUIPAMENTOS</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BATERIA CHUMBO-ÁCIDO PARA MOTOCICLETAS  TRICICLOS E QUADRICICLOS</t>
+          <t>INVÓLUCROS DE EQUIPAMENTOS</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Teor de cádmio e mercúrio RES. CONAMA n° 401/2008  RODA DE LIGA DE ALUMINIO PARA AUTOMÓVEIS COMERCIAIS LEVES E UTILITÁRIOS ESPORTIVOS </t>
+          <t xml:space="preserve"> Grau de proteção ABNT NBR IEC 60529 / 2017 ABNT NBR IEC 60598-1 / 2010 – Seção 9  Proteção contra impactos mecânicos externos ABNT NBR IEC 62262 / 2015 EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve">RODA DE LIGA DE ALUMINIO PARA AUTOMÓVEIS COMERCIAIS LEVES E UTILITÁRIOS ESPORTIVOS </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Ensaio de Composição Química ABNT NBR 6752:2020 Item – 4.1.4 e 4.2.4  AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS TÉRMICOS   BUZINAS</t>
+          <t xml:space="preserve">– COLETOR SOLAR </t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BUZINAS</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">BUZINAS </t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Faixa de temperatura de funcionamento ABNT NBR 7014:2017 Item 3.3.4  Ensaios de ciclos térmicos ABNT NBR 7014:2017 Item 3.3.5  Ensaios de exposição térmica ABNT NBR 7014:2017 Item 3.3.6 AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIO ACÚSTICO, DE VIBRAÇÃO &amp; CHOQUE   BUZINAS</t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BUZINAS</t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">Ensaio de pressão interna ABNT NBR 15747-2/2009 item 5.2-1 Portaria Inmetro Nº 420:2021 de 04 de outubro de 2021, ite ns 4.1.2 e 4.1.3 ABNT NBR 15747-1:2009  Ensaio de pressão interna para canais de fluidos ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Ensaio de penetração de chuva ABNT NBR 15747-2/2009 item 5.7 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.7  ABNT NBR 15747-1:2009 ABNT NBR 17003:2021  Portaria 215 de 6 de junho de 2024  MÁQUINAS E EQUIPAMENTOS  ENSAIOS MECÂNICOS   EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve">BUZINAS </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensaios para determinação da frequência  ABNT NBR 7014/2017 item 3.3.2  ABNT NBR 5536/2011 - item 5.1 a 5.5  Ensaio de Durabilidade ABNT NBR 5535/2011 ABNT NBR 5536/2011 - item 5.6 Ensaios de vibração  ABNT NBR 7014/2017 item 3.3.11 ABNT NBR 5536/2011 item 5.1 a 5.5       ELETRODOMÉSTICOS E SIMILARES  ENSAIOS TÉRMICOS   EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t xml:space="preserve">– COLETOR SOLAR </t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ensaio de resistência ao calor  ABNT NBR NM 60335-1:2010 ABNT NBR IEC 60695-2-10:2015 ABNT NBR IEC 60695-2-11:2016 ABNT NBR IEC 60695-2- 12:2022 ABNT NBR IEC 60695-2- 13:2022ABNT NBR IEC 60695-10-2:2020 ABNT NBR IEC 60695- 11-5:2006 ABNT NBR IEC 60695- 11-5:2020 ABNT NBR 16641:2018 – item 6.7 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.2.7   Portaria 215 de 6 de junho de 2024   MOTORES EQUIPAMENTOS E MATERIAIS ELÉTRICOS  ENSAIO ACÚSTICO, DE VIBRAÇÃO E CHOQUE   LUMINÁRIAS </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUMINÁRIAS </t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Resistência à vibração ABNT NBR IEC 60598-1 / 2010 – Item 4.20 MOTORES EQUIPAMENTOS E MATERIAIS ELÉTRICOS  ENSAIOS ELÉTRICOS &amp; MAGNÉTICOS   BATERIA ESTACIONÁRIA ALCALINA, NÍQUEL-CÁDMIO E CHUMBO-ÁCIDA PARA USO FOTOVOLTAICO </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve">BATERIA ESTACIONÁRIA ALCALINA, NÍQUEL-CÁDMIO E CHUMBO-ÁCIDA PARA USO FOTOVOLTAICO </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Ensaio de capacidade Portaria INMETRO nº 004/2011 – ANEXO IV – ITEM 1  Ensaio de durabilidade Portaria INMETRO nº 004/2011 – ANEXO IV – ITEM 2  Ensaio de retenção de carga (Autodescarga) Portaria INMETRO nº 004/2011 – ANEXO IV – ITEM 3 Portaria Inmetro nº 140 de 21 de março de 2022 – Anexo B do anexo específico C, item 6  Ensaio de regeneração da capacidade Portaria INMETRO nº 004/2011 – ANEXO IV – ITEM 4 Portaria Inmetro nº 140 de 21 de março de 2022 – Anexo B do anexo específico C, item 7  Ensaio de eficiência de carga / descarga Portaria INMETRO nº 004/2011 – anexo IV – item 5 MÁQUINAS E EQUIPAMENTOS  ENSAIOS MECÂNICOS   INVÓLUCROS DE EQUIPAMENTOS</t>
+          <t xml:space="preserve"> Ensaio de carga  mecânica ABNT NBR 15747-2/2009 - item 5.9 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.8  ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024  Ensaio de resistência ao impacto ABNT NBR 15747-2/2009 - item 5.10 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.10 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Inspeção Final ABNT NBR 15747-2/2009 – item 5.11 ISO 9806:2013 – Item 18 ISO 9806:2017 – Item 17 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 5.2 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Ensaio de envelhecimento acelerado ASTM G155/2013 - item 9 ASTM G155:2021 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.11 Portaria 215 de 6 de junho de 2024  EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>INVÓLUCROS DE EQUIPAMENTOS</t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Grau de proteção ABNT NBR IEC 60529 / 2017 ABNT NBR IEC 60598-1 / 2010 – Seção 9  Proteção contra impactos mecânicos externos ABNT NBR IEC 62262 / 2015 EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t>– RESERVATÒRIO TÉRMICO</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t xml:space="preserve">– COLETOR SOLAR </t>
+          <t>EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr"/>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO </t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr"/>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO </t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ensaio de marcações e instruções Portaria Inmetro Nº 420:2021, d e 04 de outubro de 2021, item 4.2.12 e 5.4 Portaria 215 de 6 de junho de 2024   Ensaio de volume armazenado Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.2.1  Portaria 215 de 6 de junho de 2024      MÁQUINAS E EQUIPAMENTOS  ENSAIOS MECÂNICOS   EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensaio de pressão interna ABNT NBR 15747-2/2009 item 5.2-1 Portaria Inmetro Nº 420:2021 de 04 de outubro de 2021, ite ns 4.1.2 e 4.1.3 ABNT NBR 15747-1:2009  Ensaio de pressão interna para canais de fluidos ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Ensaio de penetração de chuva ABNT NBR 15747-2/2009 item 5.7 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.7  ABNT NBR 15747-1:2009 ABNT NBR 17003:2021  Portaria 215 de 6 de junho de 2024  MÁQUINAS E EQUIPAMENTOS  ENSAIOS MECÂNICOS   EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t>– RESERVATÒRIO TÉRMICO</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t xml:space="preserve">– COLETOR SOLAR </t>
+          <t>EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr"/>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO </t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr"/>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO </t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ensaio de pressão hidrostática Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.2.2  Portaria 215 de 6 de junho de 2024   Ensaio de resistência ao enferrujamento ABNT NBR NM 60335-1/2010 - item 31 ABNT NBR 16641:2018 – item 6.8 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.2.8  Portaria 215 de 6 de junho de 2024   Ensaio de envelhecimento acelerado ASTM G155/2013 - item 9 ASTM G155:2021 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021item 4.2.9 Portaria 215 de 6 de junho de 2024  EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ensaio de carga  mecânica ABNT NBR 15747-2/2009 - item 5.9 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.8  ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024  Ensaio de resistência ao impacto ABNT NBR 15747-2/2009 - item 5.10 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.10 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Inspeção Final ABNT NBR 15747-2/2009 – item 5.11 ISO 9806:2013 – Item 18 ISO 9806:2017 – Item 17 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 5.2 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Ensaio de envelhecimento acelerado ASTM G155/2013 - item 9 ASTM G155:2021 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.11 Portaria 215 de 6 de junho de 2024  EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t xml:space="preserve">– SISTEMA ACOPLADO </t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>– RESERVATÒRIO TÉRMICO</t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr"/>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO</t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">Ensaio de pressão interna ABNT NBR 15747-2/2009 - item 5.2 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.2 e 4.1.3 ABNT NBR 15747-1:2009  Ensaio de pressão interna para canais de fluidos ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Ensaio de penetração de chuva ABNT NBR 15747-2/2009 - item 5.7 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.7  ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024    Ensaio de carga mecânica ABNT NBR 15747-2/2009 - item 5.9 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.8  ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024      MÁQUINAS E EQUIPAMENTOS  ENSAIOS MECÂNICOS   EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO </t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr"/>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">– SISTEMA ACOPLADO </t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO </t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ensaio de marcações e instruções Portaria Inmetro Nº 420:2021, d e 04 de outubro de 2021, item 4.2.12 e 5.4 Portaria 215 de 6 de junho de 2024   Ensaio de volume armazenado Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.2.1  Portaria 215 de 6 de junho de 2024      MÁQUINAS E EQUIPAMENTOS  ENSAIOS MECÂNICOS   EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>– RESERVATÒRIO TÉRMICO</t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr"/>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ensaio de resistência ao impacto ABNT NBR 15747-2/2009 - item 5.10 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.10 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Ensaio de envelhecimento acelerado ASTM G155/2013 - item 9 ASTM G155:2021 Portaria 215 de 6 de junho de 2024   Ensaio de marcações e instruções Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 5.5 Portaria 215 de 6 de junho de 2024   Ensaio de volume armazenado Portaria Inmetro Nº 420:2021, de 04/10/2021, item 4.2.1 Portaria 215 de 6 de junho de 2024   Ensaio de pressão hidrostática Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.2 e 4.1.3 Portaria 215 de 6 de junho de 2024   Ensaio de resistência ao enferrujamento ABNT NBR NM 60335-1/2010 - item 31 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.2.8  Portaria 215 de 6 de junho de 2024                    MÁQUINAS E EQUIPAMENTOS  ENSAIOS TÉRMICOS   EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO</t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">– COLETOR SOLAR </t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO </t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr"/>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO </t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ensaio de pressão hidrostática Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.2.2  Portaria 215 de 6 de junho de 2024   Ensaio de resistência ao enferrujamento ABNT NBR NM 60335-1/2010 - item 31 ABNT NBR 16641:2018 – item 6.8 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.2.8  Portaria 215 de 6 de junho de 2024   Ensaio de envelhecimento acelerado ASTM G155/2013 - item 9 ASTM G155:2021 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021item 4.2.9 Portaria 215 de 6 de junho de 2024  EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t xml:space="preserve">– SISTEMA ACOPLADO </t>
+          <t xml:space="preserve">Ensaio de exposição ABNT NBR 15747-2/2009 - item 5.4  Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.2.8  ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024  Ensaio de resistência ao congelamento ABNT NBR 15747-2/2009 - item 5.8  Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.9  ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024  Ensaio de resistência à alta temperatura  ABNT NBR 15747-2/2009 - item 5.3  Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.4  ABNT NBR 15747-1:2009   Ensaio de temperatura de estagnação padrão ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024  EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr"/>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">– COLETOR SOLAR </t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr"/>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ensaio de pressão interna ABNT NBR 15747-2/2009 - item 5.2 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.2 e 4.1.3 ABNT NBR 15747-1:2009  Ensaio de pressão interna para canais de fluidos ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Ensaio de penetração de chuva ABNT NBR 15747-2/2009 - item 5.7 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.7  ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024    Ensaio de carga mecânica ABNT NBR 15747-2/2009 - item 5.9 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.8  ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024      MÁQUINAS E EQUIPAMENTOS  ENSAIOS MECÂNICOS   EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t xml:space="preserve">– SISTEMA ACOPLADO </t>
+          <t xml:space="preserve">Ensaio de choque térmico (interno) ABNT NBR 15747-2/2009 - item 5.6  Portaria Inmetro Nº 420:2021 item 4.1.6 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024  Ensaio de choque térmico (externo) ABNT NBR 15747-2/2009 - item 5.5 Portaria Inmetro Nº 420:2021 item 4.1.6 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024  Desempenho térmico ISO 9459-2/1995 - item 7 ABNT NBR 15747-2/2009 - item 6  Portaria Inmetro Nº 420:2021 item 4.1.1 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021  Portaria 215 de 6 de junho de 2024  MÁQUINAS E EQUIPAMENTOS  ENSAIOS TÉRMICOS   EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr"/>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>– RESERVATÒRIO TÉRMICO</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr"/>
+          <t>EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ensaio de resistência ao impacto ABNT NBR 15747-2/2009 - item 5.10 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.10 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Ensaio de envelhecimento acelerado ASTM G155/2013 - item 9 ASTM G155:2021 Portaria 215 de 6 de junho de 2024   Ensaio de marcações e instruções Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 5.5 Portaria 215 de 6 de junho de 2024   Ensaio de volume armazenado Portaria Inmetro Nº 420:2021, de 04/10/2021, item 4.2.1 Portaria 215 de 6 de junho de 2024   Ensaio de pressão hidrostática Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.2 e 4.1.3 Portaria 215 de 6 de junho de 2024   Ensaio de resistência ao enferrujamento ABNT NBR NM 60335-1/2010 - item 31 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.2.8  Portaria 215 de 6 de junho de 2024                    MÁQUINAS E EQUIPAMENTOS  ENSAIOS TÉRMICOS   EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO </t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO </t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t xml:space="preserve">– COLETOR SOLAR </t>
+          <t xml:space="preserve">Ensaio de perda específica de energia mensal PORTARIA INMETRO Nº  229/2018 – Item 26 e 34 Portaria Inmetro Nº 420:2021 item 4.2.3 ABNT NBR 10185:2018 Portaria 215 de 6 de junho de 2024  EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr"/>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">– SISTEMA ACOPLADO </t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr"/>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ensaio de exposição ABNT NBR 15747-2/2009 - item 5.4  Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.2.8  ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024  Ensaio de resistência ao congelamento ABNT NBR 15747-2/2009 - item 5.8  Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.9  ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024  Ensaio de resistência à alta temperatura  ABNT NBR 15747-2/2009 - item 5.3  Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.4  ABNT NBR 15747-1:2009   Ensaio de temperatura de estagnação padrão ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024  EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t xml:space="preserve">– COLETOR SOLAR </t>
+          <t xml:space="preserve">Ensaio de exposição ABNT NBR 15747-2/2009 - item 5.4  Portaria Inmetro Nº 420:2021 item 4.1.5 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Ensaio de resistência à alta temperatura ABNT NBR 15747-2/2009 – item  5.3  Portaria Inmetro Nº 420:2021 item 4.1.4 ABNT NBR 15747-1:2009  Ensaio de temperatura de estagnação padrão ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Ensaio de choque térmico (interno) ABNT NBR 15747-2/2009 - item 5.6  Portaria Inmetro Nº 420:2021 item 4.1.6 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Ensaio de choque térmico (externo) ABNT NBR 15747-2/2009 item 5.5 Portaria Inmetro Nº 420:2021, item 4.1.6 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Desempenho térmico ISO 9459-2/1995 - item 7  ABNT NBR 15747-2/2009 item 6  Portaria Inmetro Nº 420:2021, item 4.3.3 e 4.3.4 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   MÁQUINAS E EQUIPAMENTOS  ENSAIOS ELÉTRICOS &amp; MAGNÉTICOS   EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr"/>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>– RESERVATÒRIO TÉRMICO</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr"/>
+          <t>EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ensaio de choque térmico (interno) ABNT NBR 15747-2/2009 - item 5.6  Portaria Inmetro Nº 420:2021 item 4.1.6 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024  Ensaio de choque térmico (externo) ABNT NBR 15747-2/2009 - item 5.5 Portaria Inmetro Nº 420:2021 item 4.1.6 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024  Desempenho térmico ISO 9459-2/1995 - item 7 ABNT NBR 15747-2/2009 - item 6  Portaria Inmetro Nº 420:2021 item 4.1.1 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021  Portaria 215 de 6 de junho de 2024  MÁQUINAS E EQUIPAMENTOS  ENSAIOS TÉRMICOS   EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO </t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO </t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>– RESERVATÒRIO TÉRMICO</t>
+          <t xml:space="preserve"> Ensaio de corrente de fuga  ABNT NBR 16641:2018 - item 6.5  ABNT NBR 14016:2015 – Item 3 Portaria Inmetro Nº 420:2021 item 4.2.5 Portaria 215 de 6 de junho de 2024   Ensaio de potência absorvida ABNT NBR 16641:2018 - item 6.6  ABNT NBR 14013:2015 – Item 3 Portaria Inmetro Nº 420:2021, item 4.2.6 Portaria 215 de 6 de junho de 2024        MÁQUINAS E EQUIPAMENTOS  ENSAIOS ELÉTRICOS &amp; MAGNÉTICOS   EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr"/>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>– RESERVATÒRIO TÉRMICO</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -2039,11 +1991,6 @@
           <t>EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2051,7 +1998,6 @@
           <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO </t>
         </is>
       </c>
-      <c r="B144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2061,7 +2007,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensaio de perda específica de energia mensal PORTARIA INMETRO Nº  229/2018 – Item 26 e 34 Portaria Inmetro Nº 420:2021 item 4.2.3 ABNT NBR 10185:2018 Portaria 215 de 6 de junho de 2024  EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t xml:space="preserve">  Ensaio de tensão suportável ABNT NBR NM 60335-1/2010 - item 16 ABNT NBR 16641:2018 - item 6.4  Portaria Inmetro Nº 420:2021 item 4.2.4 Portaria 215 de 6 de junho de 2024  EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
     </row>
@@ -2083,7 +2029,6 @@
           <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
         </is>
       </c>
-      <c r="B147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -2091,7 +2036,6 @@
           <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
         </is>
       </c>
-      <c r="B148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -2101,213 +2045,189 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensaio de exposição ABNT NBR 15747-2/2009 - item 5.4  Portaria Inmetro Nº 420:2021 item 4.1.5 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Ensaio de resistência à alta temperatura ABNT NBR 15747-2/2009 – item  5.3  Portaria Inmetro Nº 420:2021 item 4.1.4 ABNT NBR 15747-1:2009  Ensaio de temperatura de estagnação padrão ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Ensaio de choque térmico (interno) ABNT NBR 15747-2/2009 - item 5.6  Portaria Inmetro Nº 420:2021 item 4.1.6 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Ensaio de choque térmico (externo) ABNT NBR 15747-2/2009 item 5.5 Portaria Inmetro Nº 420:2021, item 4.1.6 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Desempenho térmico ISO 9459-2/1995 - item 7  ABNT NBR 15747-2/2009 item 6  Portaria Inmetro Nº 420:2021, item 4.3.3 e 4.3.4 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   MÁQUINAS E EQUIPAMENTOS  ENSAIOS ELÉTRICOS &amp; MAGNÉTICOS   EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t xml:space="preserve">Ensaio de corrente de fuga ABNT NBR 16641:2018 item 6.5 ABNT NBR 14016:2015 Item 3 Portaria Inmetro Nº 420:2021 item 4.2.5 Portaria 215 de 6 de junho de 2024   Ensaio de potência absorvida ABNT NBR 16641:2018 item 6.6  ABNT NBR 14013:2015 Item 3 Portaria Inmetro Nº 420:2021 item 4.2.6 Portaria 215 de 6 de junho de 2024   Ensaio de tensão suportável ABNT NBR NM 60335-1/2010 item 16 ABNT NBR 16641:2018 item 6.4  Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.2.4 Portaria 215 de 6 de junho de 2024    MEIO AMBIENTE  ENSAIOS QUÍMICOS  ÁGUA BRUTA </t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t xml:space="preserve">ÁGUA BRUTA </t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>– RESERVATÒRIO TÉRMICO</t>
+          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr"/>
+          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ÁGUA RESIDUAL</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO </t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr"/>
+          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO </t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ensaio de corrente de fuga  ABNT NBR 16641:2018 - item 6.5  ABNT NBR 14016:2015 – Item 3 Portaria Inmetro Nº 420:2021 item 4.2.5 Portaria 215 de 6 de junho de 2024   Ensaio de potência absorvida ABNT NBR 16641:2018 - item 6.6  ABNT NBR 14013:2015 – Item 3 Portaria Inmetro Nº 420:2021, item 4.2.6 Portaria 215 de 6 de junho de 2024        MÁQUINAS E EQUIPAMENTOS  ENSAIOS ELÉTRICOS &amp; MAGNÉTICOS   EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>– RESERVATÒRIO TÉRMICO</t>
+          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr"/>
+          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO</t>
+          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Determinação da turbidez pelo método nefelométrico LQ: 1,0 NTU SMWW, 24ª Edição, Método 2130 B  Determinação da dureza pelo método titulométrico por EDTA  LQ: 2,00 mg SMWW, 24ª Edição, Método 2340 C  Determinação de surfactantes aniônicos pelo método colorimétrico para substâncias ativas ao azul de metileno (MBAS) LQ: 0,50 mg/L SMWW, 24ª Edição, Método 5540 C  Determinação de ferro pelo método colorimétrico com fenantrolina LQ: 0,20 mg/L SMWW, 24ª Edição, Método 3500 -Fe B  Determinação de cloreto pelo método argentométrico LQ: 2,00 mg/L SMWW, 24ª Edição, Método 4500 -Cl- B  Determinação de sulfato pelo método turbidimétrico LQ: 15,00 mg/L SMWW, 24ª Edição, Método 4500 -SO 42- E  Determinação de fluoreto pelo método de SPADNS. LQ: 0,20 mg SMWW, 24ª Edição, Método 4500 -F- D   MEIO AMBIENTE  ENSAIOS QUÍMICOS  ÁGUA BRUTA </t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO </t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr"/>
+          <t xml:space="preserve">ÁGUA BRUTA </t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO </t>
+          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Ensaio de tensão suportável ABNT NBR NM 60335-1/2010 - item 16 ABNT NBR 16641:2018 - item 6.4  Portaria Inmetro Nº 420:2021 item 4.2.4 Portaria 215 de 6 de junho de 2024  EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t xml:space="preserve"> ÁGUA RESIDUAL</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t xml:space="preserve">– SISTEMA ACOPLADO </t>
+          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr"/>
+          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr"/>
+          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ensaio de corrente de fuga ABNT NBR 16641:2018 item 6.5 ABNT NBR 14016:2015 Item 3 Portaria Inmetro Nº 420:2021 item 4.2.5 Portaria 215 de 6 de junho de 2024   Ensaio de potência absorvida ABNT NBR 16641:2018 item 6.6  ABNT NBR 14013:2015 Item 3 Portaria Inmetro Nº 420:2021 item 4.2.6 Portaria 215 de 6 de junho de 2024   Ensaio de tensão suportável ABNT NBR NM 60335-1/2010 item 16 ABNT NBR 16641:2018 item 6.4  Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.2.4 Portaria 215 de 6 de junho de 2024    MEIO AMBIENTE  ENSAIOS QUÍMICOS  ÁGUA BRUTA </t>
+          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA </t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
+          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
+          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁGUA RESIDUAL</t>
+          <t xml:space="preserve">Determinação de nitrato pelo método de redução com cádmio LQ: 2,2 mg NO 3-/L ou LQ: 0,5 mg NO 3- N/L SMWW, 24ª Edição, Método 4500 -NO 3- E  Determinação da condutividade Eletrolítica Faixa: 1,0 µS/cm a 12852 µS/cm SMWW, 24ª Edição, Método 2510 B  Determinação de óleos e graxas pelo método da partição gravimétrica líquido – líquido LQ: 10,00 mg/L SMWW, 24ª Edição, Método 5520 B   Determinação de hidrocarbonetos, óleos vegetais e gordura animal pelo método com sílica gel após a quantificação de óleos e graxas / óleo 15s e graxas minerais (hidrocarbonetos) LQ 10,00 mg/L SMWW, 24ª Edição, Método 5520 F  Determinação da cor verdadeira pelo método espectrofotométrico - comprimento de onda único LQ: 2 CU/L SMWW, 24ª Edição, Método 2120 C   MEIO AMBIENTE  ENSAIOS QUÍMICOS  ÁGUA BRUTA </t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr"/>
+          <t xml:space="preserve">ÁGUA BRUTA </t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr"/>
+          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ÁGUA RESIDUAL</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ÁGUA RESIDUAL</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr"/>
+          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -2315,7 +2235,6 @@
           <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
         </is>
       </c>
-      <c r="B170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -2323,7 +2242,6 @@
           <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
         </is>
       </c>
-      <c r="B171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -2331,43 +2249,42 @@
           <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Determinação da turbidez pelo método nefelométrico LQ: 1,0 NTU SMWW, 24ª Edição, Método 2130 B  Determinação da dureza pelo método titulométrico por EDTA  LQ: 2,00 mg SMWW, 24ª Edição, Método 2340 C  Determinação de surfactantes aniônicos pelo método colorimétrico para substâncias ativas ao azul de metileno (MBAS) LQ: 0,50 mg/L SMWW, 24ª Edição, Método 5540 C  Determinação de ferro pelo método colorimétrico com fenantrolina LQ: 0,20 mg/L SMWW, 24ª Edição, Método 3500 -Fe B  Determinação de cloreto pelo método argentométrico LQ: 2,00 mg/L SMWW, 24ª Edição, Método 4500 -Cl- B  Determinação de sulfato pelo método turbidimétrico LQ: 15,00 mg/L SMWW, 24ª Edição, Método 4500 -SO 42- E  Determinação de fluoreto pelo método de SPADNS. LQ: 0,20 mg SMWW, 24ª Edição, Método 4500 -F- D   MEIO AMBIENTE  ENSAIOS QUÍMICOS  ÁGUA BRUTA </t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA </t>
+          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
+          <t xml:space="preserve">Determinação da cor aparente pelo método da comparação visual LQ:5 UC/L SMWW, 24ª Edição, Método 2120 B  Determinação da demanda bioquímica de oxigênio através do ensaio em 05 dias  LQ: 2,0 mg/L SMWW, 24ª Edição, Método 5210 B   Determinação de nitrogênio amoniacal pelo método titulométrico.  LQ: 0,5 mg N/L e 0.1mg NH3/L SMWW, 24ª Edição, Método 4500 -NH3 C    Determinação de sólidos sedimentáveis  LQ: 0,1 mL/L SMWW, 24ª Edição, Método 2540 F   Determinação de cianeto livre pelo método ácido 1,3-dimetilbarbitúrico (com de piridina e livre de piridina) LQ: 0,005 mg/L SMWW, 24ª Edição, Método 4500 -CN- E;  USEPA Certificate No. 109701   Determinação de cromo pelo método colorimétrico  LQ: 0,01 mg SMWW, 24ª Edição, Método 3500 -Cr B   Determinação da demanda química de oxigênio pelo método do refluxo fechado seguido de espectrofotometria  LQ: 50,00 mg/L SMWW, 24ª Edição, Método 5220 D      Determinação de sólidos suspensos totais, fixos e voláteis por gravimetria LQ: 10,0 mg/L  SMWW, 24ª Edição, Método 2540 D, E    Determinação de sólidos dissolvidos totais, fixos e voláteis por gravimetria LQ: 10,0 mg/L SMWW, 24ª Edição , Método 2540 C, E    Determinação de sólidos totais, fixos e voláteis por gravimetria LQ: 10,0 mg/L  SMWW, 24ª Edição, Método 2540 B, E             MEIO AMBIENTE  ENSAIOS QUÍMICOS   ÁGUA BRUTA </t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
+          <t xml:space="preserve">ÁGUA BRUTA </t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
           <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ÁGUA RESIDUAL</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr"/>
+          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ÁGUA RESIDUAL</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -2375,17 +2292,11 @@
           <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ÁGUA RESIDUAL</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
         </is>
       </c>
     </row>
@@ -2395,7 +2306,6 @@
           <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
         </is>
       </c>
-      <c r="B178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -2403,7 +2313,6 @@
           <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
         </is>
       </c>
-      <c r="B179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -2411,7 +2320,6 @@
           <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
         </is>
       </c>
-      <c r="B180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -2421,7 +2329,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determinação de nitrato pelo método de redução com cádmio LQ: 2,2 mg NO 3-/L ou LQ: 0,5 mg NO 3- N/L SMWW, 24ª Edição, Método 4500 -NO 3- E  Determinação da condutividade Eletrolítica Faixa: 1,0 µS/cm a 12852 µS/cm SMWW, 24ª Edição, Método 2510 B  Determinação de óleos e graxas pelo método da partição gravimétrica líquido – líquido LQ: 10,00 mg/L SMWW, 24ª Edição, Método 5520 B   Determinação de hidrocarbonetos, óleos vegetais e gordura animal pelo método com sílica gel após a quantificação de óleos e graxas / óleo 15s e graxas minerais (hidrocarbonetos) LQ 10,00 mg/L SMWW, 24ª Edição, Método 5520 F  Determinação da cor verdadeira pelo método espectrofotométrico - comprimento de onda único LQ: 2 CU/L SMWW, 24ª Edição, Método 2120 C   MEIO AMBIENTE  ENSAIOS QUÍMICOS  ÁGUA BRUTA </t>
+          <t xml:space="preserve">Determinação de fósforo total pelo método espectrofotométrico (ácido ascórbico) LQ: 0,15 mg /L SMWW, 24ª Edição, Método 4500 -P E   Determinação de ortofosfato pelo método espectrofotométrico (ácido ascórbico) LQ: 0,10 mg P/L SMWW, 24ª Edição, Método 4500 -P E   Determinação de manganês pelo método colorimétrico com persulfato.  LQ: 2,00 mg/L SMWW, 24ª Edição, Método 3500Mn B    Determinação de cálcio por titulometria com EDTA  LQ: 2,00 mg/L SMWW, 24ª Edição, Método 3500 -Ca B     Determinação de magnésio por cálculo.  SMWW, 24ª Edição, Método 3500 -Mg B    Determinação da alcalinidade pelo método titulométrico (alcalinidade total, a carbonatos, a bicarbonatos e hidróxido) LQ: 2,00 mg /L SMWW, 24ª Edição, Método 2320 B    Determinação de alumínio total pelo método espectrofotométrico (Eriocromo Cianina R). LQ: 0,10 mg/L SMWW, 24ª Edição, Método 3500 -Al B   Determinação de óxido de silício pelo método colorimétrico com molibdosilicato LQ: 0,50 mg SiO2/L SMWW, 24ª Edição, Método 4500 -SiO 2 C   Determinação de nitrogênio total Kjeldahl pelo método titulométrico (macro Kjeldahl). LQ: 5,00 mg N/L SMWW, 24ª Edição, Métodos 4500 -Norg B (preparação); 4500- NH3 C (titulação)    Determinação de nitrito pelo método colorimétrico  LQ: 0,005 mg NO 2-N/L ou LQ: 0,010 mg NO 2/L SMWW, 24ª Edição, Método 4500 -NO2- B  Determinação de zinco total pelo métod o espectrofotométrico. LQ: 0,04 mg Zn/L SMWW, 24ª Edição, Método 3500 -Zn B  MEIO AMBIENTE  ENSAIOS QUÍMICOS   ÁGUA BRUTA </t>
         </is>
       </c>
     </row>
@@ -2455,7 +2363,6 @@
           <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -2463,17 +2370,11 @@
           <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ÁGUA RESIDUAL</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
         </is>
       </c>
     </row>
@@ -2483,7 +2384,6 @@
           <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
         </is>
       </c>
-      <c r="B187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -2491,7 +2391,6 @@
           <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
         </is>
       </c>
-      <c r="B188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -2499,709 +2398,668 @@
           <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
         </is>
       </c>
-      <c r="B189" t="inlineStr"/>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Determinação do Índice Volumétrico de Lodo (IVL) por cálculo. SMWW, 24ª Edição, Méto do 2710 D  Determinação de dióxido de carbono total por cálculo. SMWW, 24ª Edição, Método 4500 -CO 2 D  Determinação de dióxido de carbono livre pelo método titulométrico. LQ: 6,60 mg CO2/L SMWW, 24ª Edição, Método 4500 -CO 2 C  Determinação de fenóis pelo método espectrofotométrico direto  LQ: 0,1 mg/L SMWW, 24ª Edição, Método 5530 D  Determinação de sulfeto pelo método espectrofotométrico. LQ: 0,03 mg S- 2/L SMWW, 24ª Edição, Método 4500 -S2- D  Determinação de materiais flutuantes pelo método visual (Presença/Ausência). SMWW, 24ª Edição, Método 2110  PRODUTOS QUÍMICOS  ENSAIOS QUÍMICOS   ÁGUA PURIFICADA</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Determinação da cor aparente pelo método da comparação visual LQ:5 UC/L SMWW, 24ª Edição, Método 2120 B  Determinação da demanda bioquímica de oxigênio através do ensaio em 05 dias  LQ: 2,0 mg/L SMWW, 24ª Edição, Método 5210 B   Determinação de nitrogênio amoniacal pelo método titulométrico.  LQ: 0,5 mg N/L e 0.1mg NH3/L SMWW, 24ª Edição, Método 4500 -NH3 C    Determinação de sólidos sedimentáveis  LQ: 0,1 mL/L SMWW, 24ª Edição, Método 2540 F   Determinação de cianeto livre pelo método ácido 1,3-dimetilbarbitúrico (com de piridina e livre de piridina) LQ: 0,005 mg/L SMWW, 24ª Edição, Método 4500 -CN- E;  USEPA Certificate No. 109701   Determinação de cromo pelo método colorimétrico  LQ: 0,01 mg SMWW, 24ª Edição, Método 3500 -Cr B   Determinação da demanda química de oxigênio pelo método do refluxo fechado seguido de espectrofotometria  LQ: 50,00 mg/L SMWW, 24ª Edição, Método 5220 D      Determinação de sólidos suspensos totais, fixos e voláteis por gravimetria LQ: 10,0 mg/L  SMWW, 24ª Edição, Método 2540 D, E    Determinação de sólidos dissolvidos totais, fixos e voláteis por gravimetria LQ: 10,0 mg/L SMWW, 24ª Edição , Método 2540 C, E    Determinação de sólidos totais, fixos e voláteis por gravimetria LQ: 10,0 mg/L  SMWW, 24ª Edição, Método 2540 B, E             MEIO AMBIENTE  ENSAIOS QUÍMICOS   ÁGUA BRUTA </t>
+          <t xml:space="preserve">ÁGUA PURIFICADA </t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA </t>
+          <t xml:space="preserve">ÁGUA PURIFICADA </t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
+          <t>Determinação qualitativa de substâncias oxidáveis pelo método colorimétrico. Farmacopéia Brasileira,6ª Edição, IF032- 00  Determinação da condutividade pelo método eletrométrico. Faixa: 1,0 µS/cm a 12852 µS/cm Farmacopéia Brasileira,6ª Edição, IF032- 00  Determinação de acidez ou alcalinidade pelo método colorimétrico. Farmacopéia Brasileira,6ª Edição, IF032- 00  Determinação qualitativa de amônio pelo método colorimétrico. Farmacopéia Brasileira,6ª Edição, IF032- 00  Determinação qualitativa de cálcio e magnésio pelo método colorimétrico. Farmacopéia Brasileira,6ª Edição, IF032- 00  Determinação qualitativa de cloretos pelo método colorimétrico. Farmacopéia Brasileira,6ª Edição, IF032- 00     Determinação qualitativa de sulfatos pelo método colorimétrico. Farmacopéia Brasileira,6ª Edição, IF032- 00     PRODUTOS QUÍMICOS  ENSAIOS QUÍMICOS   ÁGUA PURIFICADA</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ÁGUA RESIDUAL</t>
+          <t xml:space="preserve">ÁGUA PURIFICADA </t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr"/>
+          <t xml:space="preserve">ÁGUA PURIFICADA </t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Determinação de características organolépticas  Aspecto – límpida Coloração – incolor Odor - inodora Farmacopéia Brasileira,6ª Edição, IF032- 00  Determinação de óxido de silício pelo método colorimétrico com molibdosilicato LQ: 0,20 mg SiO2/L SMWW, 24ª Edição, Método 4500 -SiO 2 C  ALIMENTOS E BEBIDAS  ENSAIOS QUÍMICOS   ALIMENTOS DE ORIGEM ANIMAL CARNES E PRODUTOS CÁRNEOS </t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr"/>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES E PRODUTOS CÁRNEOS </t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ÁGUA RESIDUAL</t>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES E PRODUTOS CÁRNEOS </t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">Determinação de carboidratos totais por espectrofotometria LQ:0,75 g/100g  MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022 – Método 1.6   Determinação de amido por espectrofotometria LQ:0,67 g/100g  MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022 – Método 1.6   Determinação de pH por método eletrométrico. Faixa: 2,00 a 12,00. MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 1.23 ISO 2917:1999   Determinação de cálcio por titulometria  LQ: 0,30 g/100 g AOAC Intl. - OMA, método 983.19, 22 th ed. MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, método 1.9   Determinação de cálcio por titulometria em base seca LQ: 0,30 g/100 g AOAC Intl. - OMA, método 983.19, 22 th ed  MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, método 1.9              ALIMENTOS E BEBIDAS  ENSAIOS QUÍMICOS   ALIMENTOS DE ORIGEM ANIMAL CARNES E PRODUTOS CÁRNEOS </t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr"/>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES E PRODUTOS CÁRNEOS </t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr"/>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES E PRODUTOS CÁRNEOS </t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Determinação de cloreto de sódio por titulometria  LQ: 0,1 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 1.10 e Método 5.6   Determinação do índice de peróxidos por titulometria  LQ: 0,50 mEq de O2/kg de gordura MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 1.18  ISO 3960:2017   Determinação de nitratos por espectrofotometria UV-Vis  LQ:0,001g/100g  NMKL 194:2013   Determinação de nitritos por espectrofotometria UV-Vis  LQ:0,001g/100g  NMKL 194:2013   Determinação de lipídios/gordura por gravimetria  LQ: 1,20 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 1.19 ISO 1443:1973   Determinação de cinzas/resíduo mineral fixo/resíduo mineral por gravimetria  LQ: 0,16 g/100g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 1.26 ISO 936:1998   Determinação de nitrogênio por titulometria e digestão por Kjeldahl e proteína (N x fator) por cálculo LQ: 1,00 g/100g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 1.24 ISO 1871:2009   Determinação de umidade por gravimetria  LQ: 4,40 g/100g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 1.29; ISO 1442:2023  ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr"/>
+          <t>ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Determinação de fósforo total pelo método espectrofotométrico (ácido ascórbico) LQ: 0,15 mg /L SMWW, 24ª Edição, Método 4500 -P E   Determinação de ortofosfato pelo método espectrofotométrico (ácido ascórbico) LQ: 0,10 mg P/L SMWW, 24ª Edição, Método 4500 -P E   Determinação de manganês pelo método colorimétrico com persulfato.  LQ: 2,00 mg/L SMWW, 24ª Edição, Método 3500Mn B    Determinação de cálcio por titulometria com EDTA  LQ: 2,00 mg/L SMWW, 24ª Edição, Método 3500 -Ca B     Determinação de magnésio por cálculo.  SMWW, 24ª Edição, Método 3500 -Mg B    Determinação da alcalinidade pelo método titulométrico (alcalinidade total, a carbonatos, a bicarbonatos e hidróxido) LQ: 2,00 mg /L SMWW, 24ª Edição, Método 2320 B    Determinação de alumínio total pelo método espectrofotométrico (Eriocromo Cianina R). LQ: 0,10 mg/L SMWW, 24ª Edição, Método 3500 -Al B   Determinação de óxido de silício pelo método colorimétrico com molibdosilicato LQ: 0,50 mg SiO2/L SMWW, 24ª Edição, Método 4500 -SiO 2 C   Determinação de nitrogênio total Kjeldahl pelo método titulométrico (macro Kjeldahl). LQ: 5,00 mg N/L SMWW, 24ª Edição, Métodos 4500 -Norg B (preparação); 4500- NH3 C (titulação)    Determinação de nitrito pelo método colorimétrico  LQ: 0,005 mg NO 2-N/L ou LQ: 0,010 mg NO 2/L SMWW, 24ª Edição, Método 4500 -NO2- B  Determinação de zinco total pelo métod o espectrofotométrico. LQ: 0,04 mg Zn/L SMWW, 24ª Edição, Método 3500 -Zn B  MEIO AMBIENTE  ENSAIOS QUÍMICOS   ÁGUA BRUTA </t>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS </t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA </t>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS </t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
+          <t xml:space="preserve">Determinação qualitativa de amido com lugol MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 2.6   Determinação qualitativa de formaldeído por colorimetria AOAC Intl. - OMA, método 931.08, 22 th ed.        ALIMENTOS E BEBIDAS  ENSAIOS QUÍMICOS   Soro de leite, soro de leite em pó </t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
+          <t xml:space="preserve">Soro de leite, soro de leite em pó </t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁGUA RESIDUAL</t>
+          <t>Determinação de pH por método eletrométrico  Faixa: 2,00 a 12,00 MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 2.36   Determinação de extrato seco total (EST) e sólidos totais por gravimetria LQ: 1,56 g/100 g ISO 6731:2010 [IDF 21:2010]  Determinação de umidade/perda por dessecação por gravimetria e extrato seco por cálculo MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 2.40.5  ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr"/>
+          <t>ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr"/>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS </t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ÁGUA RESIDUAL</t>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS </t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">   Leite </t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr"/>
+          <t xml:space="preserve">Leite </t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Determinação de extrato seco total (EST) e sólidos totais por gravimetria LQ: 1,56 g/100 g ISO 6731:2010 [IDF 21:2010]  Determinação de acidez por titulometria  LQ: 0,09 g/100 mL MAPA, Manual de métodos oficiais para análise de alimentos de origem animal – 2019, Método 2.2   Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria  LQ:0,2g/100g ISO 1211:2010 [IDF 1:2010]  Determinação qualitativa de cloretos – reação de cor MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 2.9   Determinação de extrato seco desengordurado (ESD) e sólidos não gordurosos (SNG) por cálculo MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022 – Método 2.19.1              ALIMENTOS E BEBIDAS  ENSAIOS QUÍMICOS   ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr"/>
+          <t>ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr"/>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS </t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS </t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Determinação do Índice Volumétrico de Lodo (IVL) por cálculo. SMWW, 24ª Edição, Méto do 2710 D  Determinação de dióxido de carbono total por cálculo. SMWW, 24ª Edição, Método 4500 -CO 2 D  Determinação de dióxido de carbono livre pelo método titulométrico. LQ: 6,60 mg CO2/L SMWW, 24ª Edição, Método 4500 -CO 2 C  Determinação de fenóis pelo método espectrofotométrico direto  LQ: 0,1 mg/L SMWW, 24ª Edição, Método 5530 D  Determinação de sulfeto pelo método espectrofotométrico. LQ: 0,03 mg S- 2/L SMWW, 24ª Edição, Método 4500 -S2- D  Determinação de materiais flutuantes pelo método visual (Presença/Ausência). SMWW, 24ª Edição, Método 2110  PRODUTOS QUÍMICOS  ENSAIOS QUÍMICOS   ÁGUA PURIFICADA</t>
+          <t xml:space="preserve">  Margarina, gordura anidra (butter oil) </t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ÁGUA PURIFICADA</t>
+          <t xml:space="preserve">Margarina, gordura anidra (butter oil) </t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">  Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria ISO 17189:2003 [IDF 194:2003] Leite </t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA PURIFICADA </t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr"/>
+          <t xml:space="preserve">Leite </t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">em pó </t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA PURIFICADA </t>
+          <t xml:space="preserve">Leite em pó </t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Determinação qualitativa de substâncias oxidáveis pelo método colorimétrico. Farmacopéia Brasileira,6ª Edição, IF032- 00  Determinação da condutividade pelo método eletrométrico. Faixa: 1,0 µS/cm a 12852 µS/cm Farmacopéia Brasileira,6ª Edição, IF032- 00  Determinação de acidez ou alcalinidade pelo método colorimétrico. Farmacopéia Brasileira,6ª Edição, IF032- 00  Determinação qualitativa de amônio pelo método colorimétrico. Farmacopéia Brasileira,6ª Edição, IF032- 00  Determinação qualitativa de cálcio e magnésio pelo método colorimétrico. Farmacopéia Brasileira,6ª Edição, IF032- 00  Determinação qualitativa de cloretos pelo método colorimétrico. Farmacopéia Brasileira,6ª Edição, IF032- 00     Determinação qualitativa de sulfatos pelo método colorimétrico. Farmacopéia Brasileira,6ª Edição, IF032- 00     PRODUTOS QUÍMICOS  ENSAIOS QUÍMICOS   ÁGUA PURIFICADA</t>
+          <t xml:space="preserve"> Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,2g/100g ISO 1736:2008 [IDF 9:2008] Caseínas e caseinatos </t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ÁGUA PURIFICADA</t>
+          <t xml:space="preserve">Caseínas e caseinatos </t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,2g/100g ISO 5543:2004 [IDF 127:2004]/ ISO 23319:2022 – IDF 250 Creme de leite e nata </t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA PURIFICADA </t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr"/>
+          <t xml:space="preserve">Creme de leite e nata </t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,2g/100g ISO 2450:2008 [IDF 16:2008] Bebida láctea</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA PURIFICADA </t>
+          <t>Bebida láctea</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determinação de características organolépticas  Aspecto – límpida Coloração – incolor Odor - inodora Farmacopéia Brasileira,6ª Edição, IF032- 00  Determinação de óxido de silício pelo método colorimétrico com molibdosilicato LQ: 0,20 mg SiO2/L SMWW, 24ª Edição, Método 4500 -SiO 2 C  ALIMENTOS E BEBIDAS  ENSAIOS QUÍMICOS   ALIMENTOS DE ORIGEM ANIMAL CARNES E PRODUTOS CÁRNEOS </t>
+          <t xml:space="preserve">  Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,2g/100g ISO 1211:2010 [IDF 1:2010] Queijos </t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES E PRODUTOS CÁRNEOS </t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr"/>
+          <t xml:space="preserve">Queijos </t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Determinação de umidade/perda por dessecação por gravimetria e extrato seco por cálculo LQ: 2,00 g/100g ISO 5534:2004 [IDF 4:2004] e MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 2.40.6  Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,2g/100g ISO 1735:2004 [IDF 5]/ ISO 23319:2022 [IDF 250] Manteiga</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES E PRODUTOS CÁRNEOS </t>
+          <t>Manteiga</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determinação de carboidratos totais por espectrofotometria LQ:0,75 g/100g  MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022 – Método 1.6   Determinação de amido por espectrofotometria LQ:0,67 g/100g  MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022 – Método 1.6   Determinação de pH por método eletrométrico. Faixa: 2,00 a 12,00. MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 1.23 ISO 2917:1999   Determinação de cálcio por titulometria  LQ: 0,30 g/100 g AOAC Intl. - OMA, método 983.19, 22 th ed. MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, método 1.9   Determinação de cálcio por titulometria em base seca LQ: 0,30 g/100 g AOAC Intl. - OMA, método 983.19, 22 th ed  MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, método 1.9              ALIMENTOS E BEBIDAS  ENSAIOS QUÍMICOS   ALIMENTOS DE ORIGEM ANIMAL CARNES E PRODUTOS CÁRNEOS </t>
+          <t xml:space="preserve"> Determinação de umidade pelo método gravimétrico. LQ: 1,16 g/100g ISO 3727-1:2001 - IDF 80-1  Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,2g/100g ISO 17189:2003 – IDF 194   Determinação de cloretos por volumetria. LQ: 0,20 g/100g ISO 1738:2004 – IDF 12  Determinação de extrato seco total desengordurado (sólidos não gordurosos) por gravimetria. LQ: 0,30 g/100g ISO 3727-2:2001 – IDF 80-2  ALIMENTOS E BEBIDAS  ENSAIOS QUÍMICOS   ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES E PRODUTOS CÁRNEOS </t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr"/>
+          <t>ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES E PRODUTOS CÁRNEOS </t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>Determinação de cloreto de sódio por titulometria  LQ: 0,1 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 1.10 e Método 5.6   Determinação do índice de peróxidos por titulometria  LQ: 0,50 mEq de O2/kg de gordura MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 1.18  ISO 3960:2017   Determinação de nitratos por espectrofotometria UV-Vis  LQ:0,001g/100g  NMKL 194:2013   Determinação de nitritos por espectrofotometria UV-Vis  LQ:0,001g/100g  NMKL 194:2013   Determinação de lipídios/gordura por gravimetria  LQ: 1,20 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 1.19 ISO 1443:1973   Determinação de cinzas/resíduo mineral fixo/resíduo mineral por gravimetria  LQ: 0,16 g/100g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 1.26 ISO 936:1998   Determinação de nitrogênio por titulometria e digestão por Kjeldahl e proteína (N x fator) por cálculo LQ: 1,00 g/100g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 1.24 ISO 1871:2009   Determinação de umidade por gravimetria  LQ: 4,40 g/100g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 1.29; ISO 1442:2023  ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS </t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr"/>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS </t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Concentrado Proteico </t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
+          <t xml:space="preserve">Concentrado Proteico </t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">Determinação de extrato seco total (EST) e sólidos totais por Gravimetria LQ: 5,00 g/100g ISO 2920:2004 [IDF 58:2004]  Determinação de umidade/perda por dessecação por gravimetria e extrato seco por cálculo MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022- Método 2.40.5  Doce de Leite </t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS </t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr"/>
+          <t xml:space="preserve">Leite </t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS </t>
+          <t xml:space="preserve">Doce de Leite </t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determinação qualitativa de amido com lugol MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 2.6   Determinação qualitativa de formaldeído por colorimetria AOAC Intl. - OMA, método 931.08, 22 th ed.        ALIMENTOS E BEBIDAS  ENSAIOS QUÍMICOS   Soro de leite, soro de leite em pó </t>
+          <t xml:space="preserve"> Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,20 g/100g ISO 1737:2008 [IDF 13]  Determinação de umidade por gravimetria LQ: 1,16 g/100g ISO 6734:2010 [IDF 15] Leite </t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t xml:space="preserve">Soro de leite, soro de leite em pó </t>
+          <t xml:space="preserve">Leite </t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Determinação de pH por método eletrométrico  Faixa: 2,00 a 12,00 MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 2.36   Determinação de extrato seco total (EST) e sólidos totais por gravimetria LQ: 1,56 g/100 g ISO 6731:2010 [IDF 21:2010]  Determinação de umidade/perda por dessecação por gravimetria e extrato seco por cálculo MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 2.40.5  ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
+          <t xml:space="preserve">Condensado </t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr"/>
+          <t xml:space="preserve">Leite Condensado </t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,2 g/100g ISO 1737:2008 [IDF 13]  Determinação de umidade/perda por dessecação por gravimetria e extrato seco por cálculo ISO 6734:2010 [IDF15] Ricota</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
+          <t>Ricota</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">   Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,2 g/100g ISO 1854:2008 [IDF 59]  ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS </t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr"/>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA </t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS </t>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA </t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Leite </t>
+          <t>Determinação de nitrogênio por titulometria e digestão por Kjeldahl e proteína (N x fator) por cálculo  LQ: 1,00 g/100 g ISO 1871: 2009 MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 5.21   Determinação de cinzas/resíduo mineral fixo/resíduo mineral por gravimetria LQ: 0,16 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 5.23 ISO 936:1998   Determinação de pH por método eletrométrico  Faixa: 2,00 a 12,00. MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 5.19 ISO 2917:1999     ALIMENTOS E BEBIDAS  ENSAIOS QUÍMICOS   ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leite </t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Determinação de extrato seco total (EST) e sólidos totais por gravimetria LQ: 1,56 g/100 g ISO 6731:2010 [IDF 21:2010]  Determinação de acidez por titulometria  LQ: 0,09 g/100 mL MAPA, Manual de métodos oficiais para análise de alimentos de origem animal – 2019, Método 2.2   Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria  LQ:0,2g/100g ISO 1211:2010 [IDF 1:2010]  Determinação qualitativa de cloretos – reação de cor MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 2.9   Determinação de extrato seco desengordurado (ESD) e sólidos não gordurosos (SNG) por cálculo MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022 – Método 2.19.1              ALIMENTOS E BEBIDAS  ENSAIOS QUÍMICOS   ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA </t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr"/>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA </t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Determinação do índice de peróxidos por titulometria LQ: 0,50 mEq de O2/kg MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 5.16 ISO 3960:2017   Determinação de umidade pelo método gravimétrico. LQ: 4,40 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal – 2022, Método 5.25;  ISO 1442: 2023   Determinação de carboidratos totais por espectrofotometria LQ: 0,75 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Métodos 5.3 e 1.6  Determinação de amido por espectrofotometria LQ:0,67 g/100g  MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Métodos 5.3 e 1.6   Determinação de lipídios/gordura por gravimetria  LQ: 1,20 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 5.17 ISO 1443:1973  OVOS E DERIVADOS </t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
+          <t xml:space="preserve">OVOS E DERIVADOS </t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">Determinação de pH por método eletrométrico Faixa: 2,00 a 12,00. MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 4.2   Determinação de nitrogênio por titulometria e digestão por Kjeldahl e proteína (N x fator) por cálculo LQ: 1,00 g/100g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 4.3 ISO 1871:2009.   Determinação de cinzas/resíduo mineral fixo/resíduo mineral por gravimetria  LQ: 0,02 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 4.4 MEL PRODUTOS DA COLMÉIA </t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS </t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr"/>
+          <t xml:space="preserve">MEL PRODUTOS DA COLMÉIA </t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS </t>
+          <t xml:space="preserve">MEL PRODUTOS DA COLMÉIA </t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Margarina, gordura anidra (butter oil) </t>
+          <t>Determinação de acidez por titulometria LQ: 0,25 m Eq/kg MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 3.2 AOAC Intl. - OMA, método 962.19, 22 th ed.   Determinação de sólidos insolúveis pelo método Mohr. LQ: 0,02 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 3.11 ABNT NBR 15714-5:2009     ALIMENTOS E BEBIDAS  ENSAIOS QUÍMICOS   ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t xml:space="preserve">Margarina, gordura anidra (butter oil) </t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria ISO 17189:2003 [IDF 194:2003] Leite </t>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA </t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leite </t>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA </t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t xml:space="preserve">em pó </t>
+          <t xml:space="preserve"> Determinação de cinzas/resíduo mineral fixo/resíduo mineral por gravimetria  LQ: 0,02 g/100 g  MAPA - Métodos Oficiais para Análise de Produtos de Origem Animal, 2022 - Método 1.26; Método 5.23  ISO 936:1998 LEITE E DERIVADOS OVOS E DERIVADOS </t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leite em pó </t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,2g/100g ISO 1736:2008 [IDF 9:2008] Caseínas e caseinatos </t>
+          <t xml:space="preserve">OVOS E DERIVADOS </t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caseínas e caseinatos </t>
+          <t xml:space="preserve">LEITE E DERIVADOS OVOS E DERIVADOS </t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,2g/100g ISO 5543:2004 [IDF 127:2004]/ ISO 23319:2022 – IDF 250 Creme de leite e nata </t>
+          <t xml:space="preserve"> Determinação de cinzas/resíduo mineral fixo/resíduo mineral por gravimetria  LQ: 0,02 g/100 g MAPA - Métodos Oficiais para Análise de Produtos de Origem Animal, 2022, Método 4.4  MEL PRODUTOS DA COLMÉIA </t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t xml:space="preserve">Creme de leite e nata </t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,2g/100g ISO 2450:2008 [IDF 16:2008] Bebida láctea</t>
+          <t xml:space="preserve">MEL PRODUTOS DA COLMÉIA </t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Bebida láctea</t>
+          <t xml:space="preserve">MEL PRODUTOS DA COLMÉIA </t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,2g/100g ISO 1211:2010 [IDF 1:2010] Queijos </t>
+          <t xml:space="preserve"> Determinação de cinzas/resíduo mineral fixo/resíduo mineral por gravimetria  LQ: 0,02 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 3.17 - ABNT NBR 15714-3:2009 MEIO AMBIENTE  ENSAIOS BIOLÓGICOS   ÁGUA BRUTA </t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t xml:space="preserve">Queijos </t>
+          <t xml:space="preserve">ÁGUA BRUTA </t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Determinação de umidade/perda por dessecação por gravimetria e extrato seco por cálculo LQ: 2,00 g/100g ISO 5534:2004 [IDF 4:2004] e MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 2.40.6  Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,2g/100g ISO 1735:2004 [IDF 5]/ ISO 23319:2022 [IDF 250] Manteiga</t>
+          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Manteiga</t>
+          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Determinação de umidade pelo método gravimétrico. LQ: 1,16 g/100g ISO 3727-1:2001 - IDF 80-1  Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,2g/100g ISO 17189:2003 – IDF 194   Determinação de cloretos por volumetria. LQ: 0,20 g/100g ISO 1738:2004 – IDF 12  Determinação de extrato seco total desengordurado (sólidos não gordurosos) por gravimetria. LQ: 0,30 g/100g ISO 3727-2:2001 – IDF 80-2  ALIMENTOS E BEBIDAS  ENSAIOS QUÍMICOS   ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
+          <t xml:space="preserve"> ÁGUA RESIDUAL</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr"/>
+          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS </t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr"/>
+          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS </t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Concentrado Proteico </t>
+          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t xml:space="preserve">Concentrado Proteico </t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Determinação de extrato seco total (EST) e sólidos totais por Gravimetria LQ: 5,00 g/100g ISO 2920:2004 [IDF 58:2004]  Determinação de umidade/perda por dessecação por gravimetria e extrato seco por cálculo MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022- Método 2.40.5  Doce de Leite </t>
+          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leite </t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr"/>
+          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Coliformes totais – Determinação quantitativa pela técnica de membrana filtrante. LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9222  B   Coliformes termotolerantes (fecais) – Determinação quantitativa pela técnica de membrana filtrante LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9222  D   Enterococos / Estreptococos fecais – Determinação quantitativa pela técnica de membrana filtrante. LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9230 C    Pseudomona aeruginosa  – determinação quantitativa pela técnica de membrana filtrante. LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9213 E    Bactérias Heterotróficas – determinação quantitativa pela técnica de membrana filtrante. LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9215  A e D    Coliformes totais e Escherichia coli – Determinação qualitativa pela técnica de presença/ausência (substrato enzimático)    SMWW, 24ª Edição, Método 9223 B    PRODUTOS QUÍMICOS  ENSAIOS BIOLÓGICOS   ÁGUA PURIFICADA</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t xml:space="preserve">Doce de Leite </t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,20 g/100g ISO 1737:2008 [IDF 13]  Determinação de umidade por gravimetria LQ: 1,16 g/100g ISO 6734:2010 [IDF 15] Leite </t>
+          <t xml:space="preserve">ÁGUA PURIFICADA </t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leite </t>
+          <t xml:space="preserve">ÁGUA PURIFICADA </t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t xml:space="preserve">Condensado </t>
+          <t xml:space="preserve">Coliformes termotolerantes (fecais) – determinação quantitativa pela técnica de membrana filtrante. LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9222  D   Coliforme totais – determinação quantitativa pela técnica de membra filtrante. LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9222  B   Pseudomona aeruginosa – determinação quantitativa pela técnica de membrana filtrante. LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9213 E    Bactérias Heterotróficas – determinação quantitativa pela técnica de membrana filtrante. LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9215 A e D   ALIMENTOS E BEBIDAS  ENSAIOS BIOLÓGICOS   ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS </t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leite Condensado </t>
+          <t xml:space="preserve">OVOS E DERIVADOS </t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,2 g/100g ISO 1737:2008 [IDF 13]  Determinação de umidade/perda por dessecação por gravimetria e extrato seco por cálculo ISO 6734:2010 [IDF15] Ricota</t>
+          <t xml:space="preserve">LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Ricota</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,2 g/100g ISO 1854:2008 [IDF 59]  ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA</t>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA </t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr"/>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Coliformes Totais e Termotolerantes - Determinação quantitativa pela técnica de inoculação em profundidade LQ: 10 UFC/g LQ: 1 UFC/mL MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 7  Coliformes totais e Escherichia coli  – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g LQ: 1 UFC/mL AOAC Intl. - OMA, método 991.14, 22 th ed.   Salmonella  spp – determinação pela técnica de presença/ausência. ABNT NBR ISO 6579-1:2021.  Clostridium perfringens  – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g LQ: 1 UFC/mL ABNT NBR ISO 7937:2020.  ALIMENTOS E BEBIDAS  ENSAIOS BIOLÓGICOS   ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS </t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA </t>
+          <t xml:space="preserve">OVOS E DERIVADOS </t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Determinação de nitrogênio por titulometria e digestão por Kjeldahl e proteína (N x fator) por cálculo  LQ: 1,00 g/100 g ISO 1871: 2009 MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 5.21   Determinação de cinzas/resíduo mineral fixo/resíduo mineral por gravimetria LQ: 0,16 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 5.23 ISO 936:1998   Determinação de pH por método eletrométrico  Faixa: 2,00 a 12,00. MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 5.19 ISO 2917:1999     ALIMENTOS E BEBIDAS  ENSAIOS QUÍMICOS   ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA</t>
+          <t xml:space="preserve">LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA </t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr"/>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA </t>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determinação do índice de peróxidos por titulometria LQ: 0,50 mEq de O2/kg MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 5.16 ISO 3960:2017   Determinação de umidade pelo método gravimétrico. LQ: 4,40 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal – 2022, Método 5.25;  ISO 1442: 2023   Determinação de carboidratos totais por espectrofotometria LQ: 0,75 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Métodos 5.3 e 1.6  Determinação de amido por espectrofotometria LQ:0,67 g/100g  MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Métodos 5.3 e 1.6   Determinação de lipídios/gordura por gravimetria  LQ: 1,20 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 5.17 ISO 1443:1973  OVOS E DERIVADOS </t>
+          <t xml:space="preserve"> Bolores e leveduras – determinação quantitativa pela técnica de contagem em superfície. LQ: 10 UFC/g LQ: 1 UFC/mL ABNT NBR ISO 21527-1:2021.ABNT NBR ISO 21527-2:2021.   Estafilococos coagulase positiva – determinação quantitativa pela técnica de contagem em superfície. LQ: 10 UFC/g LQ: 1 UFC/mL ABNT NBR ISO 6888- 1:2023  Bactérias mesófilas aeróbias e anaeróbias facultativas – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g LQ: 1 UFC/mL ABNT NBR ISO 4833-1:2015 Versão Corrigida:2015   Listeria monocytogenes  – determinação qualitativa pela técnica de presença/ausência ABNT NBR ISO 11290-1:20 20  Bacillus cereus  – Determinação quantitativa pela técnica de contagem em superfície. LQ: 10 UFC/g LQ: 1 UFC/mL ABNT NBR ISO 7932:20 16/AMD 1:2020  Enterobacteriaceae – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g LQ: 1 UFC/mL ABNT NBR ISO 21528-2:2020  Staphylococcus aureus  – Determinação pela técnica de contagem em profundidade (Petrifilm Staph Express Count System/3M) LQ: 10 UFC/g  LQ: 1 UFC/mL   AOAC Intl. - OMA, 2003.11, 22th ed..  ALIMENTOS E BEBIDAS  ENSAIOS BIOLÓGICOS   ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS </t>
         </is>
       </c>
     </row>
@@ -3213,417 +3071,110 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determinação de pH por método eletrométrico Faixa: 2,00 a 12,00. MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 4.2   Determinação de nitrogênio por titulometria e digestão por Kjeldahl e proteína (N x fator) por cálculo LQ: 1,00 g/100g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 4.3 ISO 1871:2009.   Determinação de cinzas/resíduo mineral fixo/resíduo mineral por gravimetria  LQ: 0,02 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 4.4 MEL PRODUTOS DA COLMÉIA </t>
+          <t xml:space="preserve">LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t xml:space="preserve">MEL PRODUTOS DA COLMÉIA </t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr"/>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t xml:space="preserve">MEL PRODUTOS DA COLMÉIA </t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>Determinação de acidez por titulometria LQ: 0,25 m Eq/kg MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 3.2 AOAC Intl. - OMA, método 962.19, 22 th ed.   Determinação de sólidos insolúveis pelo método Mohr. LQ: 0,02 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 3.11 ABNT NBR 15714-5:2009     ALIMENTOS E BEBIDAS  ENSAIOS QUÍMICOS   ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA</t>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA</t>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Enterobacteriaceae  - Determinação quantitativa pela técnica de contagem em profundidade. (Petrifilm Enterobacteriaceae Count Plate method).  LQ: 10 UFC/g LQ: 1 UFC/mL  AOAC Intl. - OMA, 2003.01, 22 th ed.  Escherichia coli  - Determinação quantitativa pela técnica de contagem em profundidade. (Petrifilm Coliform Count Plate).  LQ: 10 UFC/g  LQ: 1 UFC/mL  AOAC Intl. - OMA, método 991.14, 22 th ed. e AOAC Intl. - OMA, 998.08, 22th ed.   Contagem de coliformes totais – Determinação quantitativa pela técnica de contagem em profundidade. (Petrifilm Coliform Count Plate).  LQ: 10 UFC/g  LQ: 1 UFC/mL  AOAC Intl. - OMA, método 991.14, 22 th ed.  Bactérias Mesófilas aeróbias e anaeróbias facultativas - Determinação quantitativa pela técnica de contagem em profundidade. (Petrifilm Aerobic Count Plate).  LQ: 10 UFC/g  LQ: 1 UFC/mL  AOAC Intl. - OMA, método 990.12, 986.33 e 989.10, 22 th ed.  Estafilococos coagulase positiva – determinação quantitativa pela técnica de contagem em superfície. LQ: 10 UFC/g ABNT NBR ISO 6888-1:2023  Bacillus cer eus – determinação quantitativa pela técnica de contagem em superfície. LQ: 10 UFC/g ISO 7932:2004/AMD 1:2020  Bolores e leveduras – determinação quantitativa pela técnica de contagem em superfície. LQ: 10 UFC/g  ABNT NBR ISO 21527-1:2021 ABNT NBR ISO 215 27-2:2021   ALIMENTOS E BEBIDAS  ENSAIOS BIOLÓGICOS   ALIMENTOS DE ORIGEM VEGETAL VEGETAIS IN NATURA FARINHAS; FARELOS ESPECIARIAS ÍNTEGRAS E MOÍDAS</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA </t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr"/>
+          <t>ALIMENTOS DE ORIGEM VEGETAL VEGETAIS IN NATURA FARINHAS; FARELOS ESPECIARIAS ÍNTEGRAS E MOÍDAS</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clostridium perfringens  – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g ABNT NBR ISO 7937:2020  Enterobacteriaceae  – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g ABNT NBR ISO 21528-2:2020  Listeria monocytogenes  – determinação qualitativa pela técnica de presença/ausência  ABNT NBR ISO 11290-1:20 20   Salmonella  spp – determinação pela técnica de presença/ausência. ABNT NBR ISO 6579-1:20 21  Bactérias mesófilas aeróbias e anaeróbias facultativas – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g ABNT NBR ISO 4833-1:2015 Versão Corrigida:2015  Coliformes totais e coliformes termotolerantes – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 7  Coliformes totais e Escherichia coli  – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g AOAC Intel. OMA, 22ª Edição, 991.14 ESCOPO DA ACREDITAÇÃO – ABNT NBR ISO/IEC 17025 - ENSAIO  Norma de Origem: NIT-DICLA-016 Folha: 46   FOR-CGCRE- 003 – Rev. 12 – Publicado Set/19 – Pg. 0 46/06   ACREDITAÇÃO N  TIPO DE INSTALAÇÃO CRL 0495  INSTALAÇÃO DE CLIENTE ÁREA DE ATIVIDADE / PRODUTO CLASSE DE ENSAIO / DESCRIÇÃO DO ENSAIO NORMA E /OU PROCEDIMENTO MEIO AMBIENTE  ENSAIOS QUÍMICOS   ÁGUA BRUTA, ÁGUA TRATADA, ÁGUA PARA CONSUMO HUMANO, ÁGUA SALINA, ÁGUA SALOBRA, ÁGUA RESIDUAL</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA </t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Determinação de cinzas/resíduo mineral fixo/resíduo mineral por gravimetria  LQ: 0,02 g/100 g  MAPA - Métodos Oficiais para Análise de Produtos de Origem Animal, 2022 - Método 1.26; Método 5.23  ISO 936:1998 LEITE E DERIVADOS OVOS E DERIVADOS </t>
+          <t>ÁGUA BRUTA, ÁGUA TRATADA, ÁGUA PARA CONSUMO HUMANO, ÁGUA SALINA, ÁGUA SALOBRA, ÁGUA RESIDUAL</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t xml:space="preserve">OVOS E DERIVADOS </t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr"/>
+          <t>ÁGUA RESIDUAL</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Determinação de pH pelo método potenciométrico.  Faixa: 2,00 a 12,00 SMWW, 24ª Edição, Método 4500 -H+ B  Determinação de condutividade pelo método eletrométrico  Faixa: 1,0 µS/cm a 12852 µS/cm SMWW, 24ª Edição, Método 2510 B    Determinação de cloro residual livre e total pelo método colorimétrico (DPD).  LQ: 0,10 mg Cl 2/L SMWW, 24ª Edição, Método 4500 -Cl G  Determinação de oxigênio dissolvido pelo método do eletrodo de membrana.  LQ: 0,89 mg O 2/L SMWW, 24ª Edição, Método 4500 -O G   Determinação da temperatura pelo método termométrico. Faixa: 0 ºC até 70 ºC SMWW, 24ª Edição , Método 2550 B   Determinação de potencial de oxirredução (ORP).  Faixa: -1999 mV a 1999 mV SMWW, 24ª Edição, Método 2580 B  Determinação da turbidez pelo método nefelométrico. LQ: 1 NTU SMWW, 24ª Edição, Método 2130 B MEIO AMBIENTE  AMOSTRAGEM   ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t xml:space="preserve">LEITE E DERIVADOS OVOS E DERIVADOS </t>
+          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Determinação de cinzas/resíduo mineral fixo/resíduo mineral por gravimetria  LQ: 0,02 g/100 g MAPA - Métodos Oficiais para Análise de Produtos de Origem Animal, 2022, Método 4.4  MEL PRODUTOS DA COLMÉIA </t>
+          <t xml:space="preserve"> Amostragem em estação de tratamento de Águas (ETA), sistema de reservatórios, redes de distribuição, sistema alternativos de abastecimento público, bebedouros, caixas d’água, torneiras e saídas de filtro.  SMWW, 24ª Edição, Método 1060 A, B, C e Método 9060 A, B. ÁGUA BRUTA </t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t xml:space="preserve">MEL PRODUTOS DA COLMÉIA </t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr"/>
+          <t xml:space="preserve">ÁGUA BRUTA </t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amostragem em rios, lagos, represas, reservatórios, sistemas alternativos de abastecimento público, poços freáticos e profundos, nascentes, minas e água doce. SMWW, 24ª Edição, Método 1060 A, B, C e Método 9060 A, B. ÁGUA SALINA, ÁGUA SALOBRA </t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t xml:space="preserve">MEL PRODUTOS DA COLMÉIA </t>
+          <t xml:space="preserve">ÁGUA SALINA, ÁGUA SALOBRA </t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Determinação de cinzas/resíduo mineral fixo/resíduo mineral por gravimetria  LQ: 0,02 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 3.17 - ABNT NBR 15714-3:2009 MEIO AMBIENTE  ENSAIOS BIOLÓGICOS   ÁGUA BRUTA </t>
+          <t>Amostragem em mar, água para fins de balneabilidade SMWW, 24ª Edição, Método 1060 A, B, C e Método 9060 A, B. ÁGUA RESIDUAL</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA </t>
+          <t>ÁGUA RESIDUAL</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
-        <is>
-          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ÁGUA RESIDUAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>ÁGUA RESIDUAL</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Coliformes totais – Determinação quantitativa pela técnica de membrana filtrante. LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9222  B   Coliformes termotolerantes (fecais) – Determinação quantitativa pela técnica de membrana filtrante LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9222  D   Enterococos / Estreptococos fecais – Determinação quantitativa pela técnica de membrana filtrante. LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9230 C    Pseudomona aeruginosa  – determinação quantitativa pela técnica de membrana filtrante. LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9213 E    Bactérias Heterotróficas – determinação quantitativa pela técnica de membrana filtrante. LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9215  A e D    Coliformes totais e Escherichia coli – Determinação qualitativa pela técnica de presença/ausência (substrato enzimático)    SMWW, 24ª Edição, Método 9223 B    PRODUTOS QUÍMICOS  ENSAIOS BIOLÓGICOS   ÁGUA PURIFICADA</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>ÁGUA PURIFICADA</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ÁGUA PURIFICADA </t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ÁGUA PURIFICADA </t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coliformes termotolerantes (fecais) – determinação quantitativa pela técnica de membrana filtrante. LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9222  D   Coliforme totais – determinação quantitativa pela técnica de membra filtrante. LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9222  B   Pseudomona aeruginosa – determinação quantitativa pela técnica de membrana filtrante. LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9213 E    Bactérias Heterotróficas – determinação quantitativa pela técnica de membrana filtrante. LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9215 A e D   ALIMENTOS E BEBIDAS  ENSAIOS BIOLÓGICOS   ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS </t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t xml:space="preserve">OVOS E DERIVADOS </t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Coliformes Totais e Termotolerantes - Determinação quantitativa pela técnica de inoculação em profundidade LQ: 10 UFC/g LQ: 1 UFC/mL MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 7  Coliformes totais e Escherichia coli  – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g LQ: 1 UFC/mL AOAC Intl. - OMA, método 991.14, 22 th ed.   Salmonella  spp – determinação pela técnica de presença/ausência. ABNT NBR ISO 6579-1:2021.  Clostridium perfringens  – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g LQ: 1 UFC/mL ABNT NBR ISO 7937:2020.  ALIMENTOS E BEBIDAS  ENSAIOS BIOLÓGICOS   ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS </t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t xml:space="preserve">OVOS E DERIVADOS </t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Bolores e leveduras – determinação quantitativa pela técnica de contagem em superfície. LQ: 10 UFC/g LQ: 1 UFC/mL ABNT NBR ISO 21527-1:2021.ABNT NBR ISO 21527-2:2021.   Estafilococos coagulase positiva – determinação quantitativa pela técnica de contagem em superfície. LQ: 10 UFC/g LQ: 1 UFC/mL ABNT NBR ISO 6888- 1:2023  Bactérias mesófilas aeróbias e anaeróbias facultativas – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g LQ: 1 UFC/mL ABNT NBR ISO 4833-1:2015 Versão Corrigida:2015   Listeria monocytogenes  – determinação qualitativa pela técnica de presença/ausência ABNT NBR ISO 11290-1:20 20  Bacillus cereus  – Determinação quantitativa pela técnica de contagem em superfície. LQ: 10 UFC/g LQ: 1 UFC/mL ABNT NBR ISO 7932:20 16/AMD 1:2020  Enterobacteriaceae – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g LQ: 1 UFC/mL ABNT NBR ISO 21528-2:2020  Staphylococcus aureus  – Determinação pela técnica de contagem em profundidade (Petrifilm Staph Express Count System/3M) LQ: 10 UFC/g  LQ: 1 UFC/mL   AOAC Intl. - OMA, 2003.11, 22th ed..  ALIMENTOS E BEBIDAS  ENSAIOS BIOLÓGICOS   ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS </t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t xml:space="preserve">OVOS E DERIVADOS </t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>Enterobacteriaceae  - Determinação quantitativa pela técnica de contagem em profundidade. (Petrifilm Enterobacteriaceae Count Plate method).  LQ: 10 UFC/g LQ: 1 UFC/mL  AOAC Intl. - OMA, 2003.01, 22 th ed.  Escherichia coli  - Determinação quantitativa pela técnica de contagem em profundidade. (Petrifilm Coliform Count Plate).  LQ: 10 UFC/g  LQ: 1 UFC/mL  AOAC Intl. - OMA, método 991.14, 22 th ed. e AOAC Intl. - OMA, 998.08, 22th ed.   Contagem de coliformes totais – Determinação quantitativa pela técnica de contagem em profundidade. (Petrifilm Coliform Count Plate).  LQ: 10 UFC/g  LQ: 1 UFC/mL  AOAC Intl. - OMA, método 991.14, 22 th ed.  Bactérias Mesófilas aeróbias e anaeróbias facultativas - Determinação quantitativa pela técnica de contagem em profundidade. (Petrifilm Aerobic Count Plate).  LQ: 10 UFC/g  LQ: 1 UFC/mL  AOAC Intl. - OMA, método 990.12, 986.33 e 989.10, 22 th ed.  Estafilococos coagulase positiva – determinação quantitativa pela técnica de contagem em superfície. LQ: 10 UFC/g ABNT NBR ISO 6888-1:2023  Bacillus cer eus – determinação quantitativa pela técnica de contagem em superfície. LQ: 10 UFC/g ISO 7932:2004/AMD 1:2020  Bolores e leveduras – determinação quantitativa pela técnica de contagem em superfície. LQ: 10 UFC/g  ABNT NBR ISO 21527-1:2021 ABNT NBR ISO 215 27-2:2021   ALIMENTOS E BEBIDAS  ENSAIOS BIOLÓGICOS   ALIMENTOS DE ORIGEM VEGETAL VEGETAIS IN NATURA FARINHAS; FARELOS ESPECIARIAS ÍNTEGRAS E MOÍDAS</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>ALIMENTOS DE ORIGEM VEGETAL VEGETAIS IN NATURA FARINHAS; FARELOS ESPECIARIAS ÍNTEGRAS E MOÍDAS</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Clostridium perfringens  – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g ABNT NBR ISO 7937:2020  Enterobacteriaceae  – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g ABNT NBR ISO 21528-2:2020  Listeria monocytogenes  – determinação qualitativa pela técnica de presença/ausência  ABNT NBR ISO 11290-1:20 20   Salmonella  spp – determinação pela técnica de presença/ausência. ABNT NBR ISO 6579-1:20 21  Bactérias mesófilas aeróbias e anaeróbias facultativas – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g ABNT NBR ISO 4833-1:2015 Versão Corrigida:2015  Coliformes totais e coliformes termotolerantes – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 7  Coliformes totais e Escherichia coli  – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g AOAC Intel. OMA, 22ª Edição, 991.14 ESCOPO DA ACREDITAÇÃO – ABNT NBR ISO/IEC 17025 - ENSAIO  Norma de Origem: NIT-DICLA-016 Folha: 46   FOR-CGCRE- 003 – Rev. 12 – Publicado Set/19 – Pg. 0 46/06   ACREDITAÇÃO N  TIPO DE INSTALAÇÃO CRL 0495  INSTALAÇÃO DE CLIENTE ÁREA DE ATIVIDADE / PRODUTO CLASSE DE ENSAIO / DESCRIÇÃO DO ENSAIO NORMA E /OU PROCEDIMENTO MEIO AMBIENTE  ENSAIOS QUÍMICOS   ÁGUA BRUTA, ÁGUA TRATADA, ÁGUA PARA CONSUMO HUMANO, ÁGUA SALINA, ÁGUA SALOBRA, ÁGUA RESIDUAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>ÁGUA BRUTA, ÁGUA TRATADA, ÁGUA PARA CONSUMO HUMANO, ÁGUA SALINA, ÁGUA SALOBRA, ÁGUA RESIDUAL</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>ÁGUA RESIDUAL</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Determinação de pH pelo método potenciométrico.  Faixa: 2,00 a 12,00 SMWW, 24ª Edição, Método 4500 -H+ B  Determinação de condutividade pelo método eletrométrico  Faixa: 1,0 µS/cm a 12852 µS/cm SMWW, 24ª Edição, Método 2510 B    Determinação de cloro residual livre e total pelo método colorimétrico (DPD).  LQ: 0,10 mg Cl 2/L SMWW, 24ª Edição, Método 4500 -Cl G  Determinação de oxigênio dissolvido pelo método do eletrodo de membrana.  LQ: 0,89 mg O 2/L SMWW, 24ª Edição, Método 4500 -O G   Determinação da temperatura pelo método termométrico. Faixa: 0 ºC até 70 ºC SMWW, 24ª Edição , Método 2550 B   Determinação de potencial de oxirredução (ORP).  Faixa: -1999 mV a 1999 mV SMWW, 24ª Edição, Método 2580 B  Determinação da turbidez pelo método nefelométrico. LQ: 1 NTU SMWW, 24ª Edição, Método 2130 B MEIO AMBIENTE  AMOSTRAGEM   ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Amostragem em estação de tratamento de Águas (ETA), sistema de reservatórios, redes de distribuição, sistema alternativos de abastecimento público, bebedouros, caixas d’água, torneiras e saídas de filtro.  SMWW, 24ª Edição, Método 1060 A, B, C e Método 9060 A, B. ÁGUA BRUTA </t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ÁGUA BRUTA </t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amostragem em rios, lagos, represas, reservatórios, sistemas alternativos de abastecimento público, poços freáticos e profundos, nascentes, minas e água doce. SMWW, 24ª Edição, Método 1060 A, B, C e Método 9060 A, B. ÁGUA SALINA, ÁGUA SALOBRA </t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ÁGUA SALINA, ÁGUA SALOBRA </t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>Amostragem em mar, água para fins de balneabilidade SMWW, 24ª Edição, Método 1060 A, B, C e Método 9060 A, B. ÁGUA RESIDUAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>ÁGUA RESIDUAL</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
         <is>
           <t xml:space="preserve"> Amostragem em sistemas de tratamento de efluentes (ETE), esgoto e fontes geradoras de efluent es SMWW, 24ª Edição, Método 1060 A, B, C e Método 9060 A, B. </t>
         </is>

--- a/app/tabela_ensaio.xlsx
+++ b/app/tabela_ensaio.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B267"/>
+  <dimension ref="A1:C297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,6 +432,11 @@
           <t>Ensaio</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Norma</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -827,12 +832,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">BUZINAS </t>
+          <t>BUZINAS</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ensaios para determinação do consumo ABNT NBR 7014/2017 - item 3.3.1   Ensaios de isolação elétrica ABNT NBR 7014/2017 - item 3.3.3   AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS ELÉTRICOS &amp; MAGNÉTICOS   BUZINAS</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -844,62 +849,67 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ensaio de impermeabilidade ABNT NBR 7014/2017 - item 3.3.8   Ensaios de operação contínua ABNT NBR 7014/2017 - item 3.3.7  PEÇAS AUTOMOTIVAS</t>
+          <t>Ensaios para determinação do consumo ABNT NBR 7014/2017 - item 3.3.1   Ensaios de isolação elétrica ABNT NBR 7014/2017 - item 3.3.3   AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS ELÉTRICOS &amp; MAGNÉTICOS   BUZINAS</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PEÇAS AUTOMOTIVAS</t>
+          <t>BUZINAS</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Emissão de perturbação eletromagnética conduzida ABNT NBR 15754 / 2017 – Item 4.5.1  CISPR 25:2016 – Item 6.3 CISPR 25:2021 - Item 6.3  ABNT NBR IEC/CISPR 25:2010 – Item 6.2  CISPR 16-2-1:2014 ADM1 – Item 7.3.3    Emissão de perturbação eletromagnética radiada ABNT NBR 15754 / 2017 – Item 4.5.1  CISPR 25:2016 – Item 6.6 CISPR 25:2021 - Item 6.2 ABNT NBR IEC/CISPR 25:2010 – Item 6.5  IEC 61000-4-20:2010  BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
+          <t xml:space="preserve">BUZINAS </t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Capacidade real no regime de 20h, Cr,20 ABNT NBR 15940/2019 – item 8.2  Reserva de capacidade real, RCr ABNT NBR 15940/2019 – item 8.3  Corrente de partida à frio, CCA ABNT NBR 15940/2019 – item 8.4  Consumo de água ABNT NBR 15940/2019 – item 8.5  BATERIA CHUMBO-ÁCIDO PARA MOTOCICLETAS  TRICICLOS E QUADRICICLOS</t>
+          <t>Ensaio de impermeabilidade ABNT NBR 7014/2017 - item 3.3.8   Ensaios de operação contínua ABNT NBR 7014/2017 - item 3.3.7  PEÇAS AUTOMOTIVAS</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BATERIA CHUMBO-ÁCIDO PARA MOTOCICLETAS  TRICICLOS E QUADRICICLOS</t>
+          <t>PEÇAS AUTOMOTIVAS</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Capacidade real em regime de 10 h (C10) ABNT NBR 15941/2019 – item 7.3  Corrente de Partida a frio (CCA)   ABNT NBR 15941/2019 – item 7.4  AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS ELÉTRICOS &amp; MAGNÉTICOS E ENSAIOS MECÂNICOS  BOMBAS ELÉTRICAS DE COMBUSTÍVEIS PARA MOTORES DO CICLO OTTO</t>
+          <t xml:space="preserve"> Emissão de perturbação eletromagnética conduzida ABNT NBR 15754 / 2017 – Item 4.5.1  CISPR 25:2016 – Item 6.3 CISPR 25:2021 - Item 6.3  ABNT NBR IEC/CISPR 25:2010 – Item 6.2  CISPR 16-2-1:2014 ADM1 – Item 7.3.3    Emissão de perturbação eletromagnética radiada ABNT NBR 15754 / 2017 – Item 4.5.1  CISPR 25:2016 – Item 6.6 CISPR 25:2021 - Item 6.2 ABNT NBR IEC/CISPR 25:2010 – Item 6.5  IEC 61000-4-20:2010  BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BOMBAS ELÉTRICAS DE COMBUSTÍVEIS PARA MOTORES DO CICLO OTTO</t>
+          <t>BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Capacidade real no regime de 20h, Cr,20 ABNT NBR 15940/2019 – item 8.2  Reserva de capacidade real, RCr ABNT NBR 15940/2019 – item 8.3  Corrente de partida à frio, CCA ABNT NBR 15940/2019 – item 8.4  Consumo de água ABNT NBR 15940/2019 – item 8.5  BATERIA CHUMBO-ÁCIDO PARA MOTOCICLETAS  TRICICLOS E QUADRICICLOS</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BOMBAS ELÉTRICAS DE COMBUSTÍVEIS PARA MOTORES DO CICLO OTTO</t>
+          <t>BATERIA CHUMBO-ÁCIDO PARA MOTOCICLETAS  TRICICLOS E QUADRICICLOS</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Operação a Seco ABNT NBR 15754 / 2017 – item 4.3.2   Processo de amaciamento ABNT NBR 15754 / 2017 – item 4.2.2   Curva característica de fornecimento de combustível ABNT NBR 15754 / 2017 – item 4.2.3   Durabilidade de longa duração em combustível de aplicação ABNT NBR 15754 / 2017 – item 4.3.1.1  Durabilidade acelerado em combustível agressivo ABNT NBR 15754 / 2017 – item 4.3.1.2  Comportamento de reação da válvula de retenção ABNT NBR 15754 / 2017 – item 4.2.6.2  Estanqueidade da válvula de retenção ABNT NBR 15754 / 2017 – item 4.2.6.3  Proteção contra vazamento ABNT NBR 15754 / 2017 – item 4.2.6.4  Resistência ao desgaste (durabilidade com impurezas) ABNT NBR 15754 / 2017 – item 4.3.7   Ensaio de variação de temperatura ABNT NBR 15754 / 2017 – item 4.3.6.2  Ensaio de partida após inchamento ABNT NBR 15754 / 2017 – item 4.3.9  BOMBAS ELÉTRICAS DE COMBUSTÍVEIS PARA MOTORES DO CICLO OTTO</t>
+          <t xml:space="preserve">  Capacidade real em regime de 10 h (C10) ABNT NBR 15941/2019 – item 7.3  Corrente de Partida a frio (CCA)   ABNT NBR 15941/2019 – item 7.4  AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS ELÉTRICOS &amp; MAGNÉTICOS E ENSAIOS MECÂNICOS  BOMBAS ELÉTRICAS DE COMBUSTÍVEIS PARA MOTORES DO CICLO OTTO</t>
         </is>
       </c>
     </row>
@@ -918,1070 +928,1090 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Resistência à vibração ABNT NBR 15754 / 2017 – item 4.4.1   Resistência ao impacto ABNT NBR 15754 / 2017 – item 4.4.2   Medição de vibração da bomba e pulsação da pressão do combustível ABNT NBR 15754 / 2017 – item 4.5.2  LÂMPADAS DE FILAMENTO PARA VEÍCULOS AUTOMOTIVOS </t>
+          <t xml:space="preserve"> Operação a Seco ABNT NBR 15754 / 2017 – item 4.3.2   Processo de amaciamento ABNT NBR 15754 / 2017 – item 4.2.2   Curva característica de fornecimento de combustível ABNT NBR 15754 / 2017 – item 4.2.3   Durabilidade de longa duração em combustível de aplicação ABNT NBR 15754 / 2017 – item 4.3.1.1  Durabilidade acelerado em combustível agressivo ABNT NBR 15754 / 2017 – item 4.3.1.2  Comportamento de reação da válvula de retenção ABNT NBR 15754 / 2017 – item 4.2.6.2  Estanqueidade da válvula de retenção ABNT NBR 15754 / 2017 – item 4.2.6.3  Proteção contra vazamento ABNT NBR 15754 / 2017 – item 4.2.6.4  Resistência ao desgaste (durabilidade com impurezas) ABNT NBR 15754 / 2017 – item 4.3.7   Ensaio de variação de temperatura ABNT NBR 15754 / 2017 – item 4.3.6.2  Ensaio de partida após inchamento ABNT NBR 15754 / 2017 – item 4.3.9  BOMBAS ELÉTRICAS DE COMBUSTÍVEIS PARA MOTORES DO CICLO OTTO</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">LÂMPADAS DE FILAMENTO PARA VEÍCULOS AUTOMOTIVOS </t>
+          <t>BOMBAS ELÉTRICAS DE COMBUSTÍVEIS PARA MOTORES DO CICLO OTTO</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">LÂMPADAS DE FILAMENTO PARA VEÍCULOS AUTOMOTIVOS </t>
+          <t>BOMBAS ELÉTRICAS DE COMBUSTÍVEIS PARA MOTORES DO CICLO OTTO</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Resistência à vibração e choque  IEC 60810 / 2017 – Item 4.6 e Anexo B IEC 60810:2022 - Item 4.6 e Anexo B BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
+          <t xml:space="preserve"> Resistência à vibração ABNT NBR 15754 / 2017 – item 4.4.1   Resistência ao impacto ABNT NBR 15754 / 2017 – item 4.4.2   Medição de vibração da bomba e pulsação da pressão do combustível ABNT NBR 15754 / 2017 – item 4.5.2  LÂMPADAS DE FILAMENTO PARA VEÍCULOS AUTOMOTIVOS </t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Ensaio de resistência à vibração  ABNT NBR 15940/2019 – item 8.6  AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS ELÉTRICOS &amp; MAGNÉTICOS E ENSAIO ACÚSTICO, DE VIBRAÇÃO &amp; CHOQUE   BATERIA CHUMBO-ÁCIDO PARA MOTOCICLETAS  TRICICLOS E QUADRICICLOS</t>
+          <t xml:space="preserve">LÂMPADAS DE FILAMENTO PARA VEÍCULOS AUTOMOTIVOS </t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BATERIA CHUMBO-ÁCIDO PARA MOTOCICLETAS  TRICICLOS E QUADRICICLOS</t>
+          <t xml:space="preserve">LÂMPADAS DE FILAMENTO PARA VEÍCULOS AUTOMOTIVOS </t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ensaio de resistência à vibração ABNT NBR 15941/2019 – item 7.5 AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    LÂMPADAS DE FILAMENTO PARA VEÍCULOS AUTOMOTIVOS </t>
+          <t>Resistência à vibração e choque  IEC 60810 / 2017 – Item 4.6 e Anexo B IEC 60810:2022 - Item 4.6 e Anexo B BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">LÂMPADAS DE FILAMENTO PARA VEÍCULOS AUTOMOTIVOS </t>
+          <t>BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Ensaio de resistência à vibração  ABNT NBR 15940/2019 – item 8.6  AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS ELÉTRICOS &amp; MAGNÉTICOS E ENSAIO ACÚSTICO, DE VIBRAÇÃO &amp; CHOQUE   BATERIA CHUMBO-ÁCIDO PARA MOTOCICLETAS  TRICICLOS E QUADRICICLOS</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">LÂMPADAS DE FILAMENTO PARA VEÍCULOS AUTOMOTIVOS </t>
+          <t>BATERIA CHUMBO-ÁCIDO PARA MOTOCICLETAS  TRICICLOS E QUADRICICLOS</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dimensional ABNT NBR IEC 60809 / 1997 – Item 2.5 e Seção 4 IEC 60809:2021 - Itens 4.5 e 8, Anexo D e Anexo E ABNT NBR IEC 60983 / 2002 – Item 2.5 IEC 60983 / 2005 – Item 2.5  Dimensional da base da lâmpada ABNT NBR IEC 60061 / 1998 - Parte1 IEC 60061 / 2005 – Parte1 IEC 60061 / 2019 – Parte1  Resistência à torção IEC 60810 / 2017 – Item 4.2 IEC 60810:2022, Item 4.2 ABNT NBR IEC 60983 / 2002 – Itens 2.4.4 e 2.5 IEC 60983 / 2005 – Itens 2.4.4 e 2.5  Resistência do Bulbo (Compressão) IEC 60810 / 2017 – Item 4.7 e Anexo C IEC 60810:2022 – Item 4.7 e Anexo C AMORTECEDORES DA SUSPENSÃO </t>
+          <t xml:space="preserve"> Ensaio de resistência à vibração ABNT NBR 15941/2019 – item 7.5 AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    LÂMPADAS DE FILAMENTO PARA VEÍCULOS AUTOMOTIVOS </t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMORTECEDORES DA SUSPENSÃO </t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ensaio de Durabilidade em Amortecedores ABNT NBR 13308 / 2014 - Item 4  Ensaio de Resistência à Tração do Conjunto Amortecedor ABNT NBR 13308 / 2014 – Item 5  Ensaio de Resistência da Fixação do Assento de Mola ABNT NBR 13308 / 2014 – Item 6  Ensaio de Resistência à Corrosão de Pintura ABNT NBR 13308 / 2014 – Item 7  Ensaio de Homologação de Haste de Amortecedor ABNT NBR 13308 / 2014 – Item 8  Ensaio de Verificação de Bloqueio Hidráulica ABNT NBR 13308 / 2014 – Item 9     AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    CINTOS DE SEGURANÇA PARA VEÍCULOS RODOVIÁRIOS </t>
+          <t xml:space="preserve">LÂMPADAS DE FILAMENTO PARA VEÍCULOS AUTOMOTIVOS </t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">CINTOS DE SEGURANÇA PARA VEÍCULOS RODOVIÁRIOS </t>
+          <t xml:space="preserve">LÂMPADAS DE FILAMENTO PARA VEÍCULOS AUTOMOTIVOS </t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensaio de tração da ancoragem de cintos de segurança para veículos rodoviários - até 50 kN ABNT NBR 6091 / 2015 - Item 7 Resolução Contran n.º 445 de 25 de junho de 2013 - Anexo V – Item 3.1.2 e Item 3.2.2 Resolução Contran n.º 416 de 09 de agosto de 2012 - Anexo V – Item 3.1.2 e Item 3.2.2 Resolução Contran 939 de 28 de março de 2022  Resolução Contran 959 de 25 de maio de 2022 SEGURANÇA PARA VEÍCULOS DE TRANSPORTE PÚBLICO COLETIVO DE PASSAGEIROS E TRANSPORTE DE PASSAGEIROS TIPOS MICRO-ÔNIBUS E ÔNIBUS, CATEGORIAS M2 e M3 </t>
+          <t xml:space="preserve">Dimensional ABNT NBR IEC 60809 / 1997 – Item 2.5 e Seção 4 IEC 60809:2021 - Itens 4.5 e 8, Anexo D e Anexo E ABNT NBR IEC 60983 / 2002 – Item 2.5 IEC 60983 / 2005 – Item 2.5  Dimensional da base da lâmpada ABNT NBR IEC 60061 / 1998 - Parte1 IEC 60061 / 2005 – Parte1 IEC 60061 / 2019 – Parte1  Resistência à torção IEC 60810 / 2017 – Item 4.2 IEC 60810:2022, Item 4.2 ABNT NBR IEC 60983 / 2002 – Itens 2.4.4 e 2.5 IEC 60983 / 2005 – Itens 2.4.4 e 2.5  Resistência do Bulbo (Compressão) IEC 60810 / 2017 – Item 4.7 e Anexo C IEC 60810:2022 – Item 4.7 e Anexo C AMORTECEDORES DA SUSPENSÃO </t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">SEGURANÇA PARA VEÍCULOS DE TRANSPORTE PÚBLICO COLETIVO DE PASSAGEIROS E TRANSPORTE DE PASSAGEIROS TIPOS MICRO-ÔNIBUS E ÔNIBUS, CATEGORIAS M2 e M3 </t>
+          <t xml:space="preserve">AMORTECEDORES DA SUSPENSÃO </t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ensaio de Resistência das Ancoragens de um Veículo – Até 50 kN Resolução Contran n.º 445 de 25 de junho de 2013 - Anexo IV – Apêndice 2 Resolução Contran n.º 416 de 09 de agosto de 2012 - Anexo IV – Apêndice 2 Resolução Contran 939 de 28 de março de 2022  Resolução Contran 959 de 25 de maio de 2022  Ensaio de Deformação do Encosto – Até 50kN Resolução Contran n.º 445 de 25 de junho de 2013 - Anexo IV – Apêndice 5  Resolução Contran n.º 416 de 09 de agosto de 2012 - Anexo IV – Apêndice 5 Resolução Contran 939 de 28 de março de 2022  Resolução Contran 959 de 25 de maio de 2022  Estabilidade e Sistema de Retenção da Cadeira de Rodas e Seu Usuário Resolução Contran n.º 445 de 25 de junho de 20 13 - Anexo VI  Resolução Contran n.º 416 de 09 de agosto de 2012 - Anexo VI  Resolução Contran 939 de 28 de março de 2022  Resolução Contran 959 de 25 de maio de 2022         AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS</t>
+          <t xml:space="preserve">Ensaio de Durabilidade em Amortecedores ABNT NBR 13308 / 2014 - Item 4  Ensaio de Resistência à Tração do Conjunto Amortecedor ABNT NBR 13308 / 2014 – Item 5  Ensaio de Resistência da Fixação do Assento de Mola ABNT NBR 13308 / 2014 – Item 6  Ensaio de Resistência à Corrosão de Pintura ABNT NBR 13308 / 2014 – Item 7  Ensaio de Homologação de Haste de Amortecedor ABNT NBR 13308 / 2014 – Item 8  Ensaio de Verificação de Bloqueio Hidráulica ABNT NBR 13308 / 2014 – Item 9     AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    CINTOS DE SEGURANÇA PARA VEÍCULOS RODOVIÁRIOS </t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS </t>
+          <t xml:space="preserve">CINTOS DE SEGURANÇA PARA VEÍCULOS RODOVIÁRIOS </t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Acoplamento cônico ABNT NBR 16130 / 2012 – Item 6.1.5  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.5  Carga de deformação do pino esférico do conjunto terminal de direção ABNT NBR 16130 / 2012 – Item 6.1.6  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.6  Ensaio de impacto do pino esférico do conjunto terminal de direção ABNT NBR 16130 / 2012 – Item 6.1.7  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.7  Integridade do material ABNT NBR 16130 / 2012 – Itens 6.1.1 e 6.2.1 ABNT NBR NM 334 / 2012 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.1 e 6.2.1  Ensaios estáticos ABNT NBR 16130 / 2012 – Item 6.3 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.3  Ensaio de Dureza Brinell ABNT NBR ISO 6506-1:2019 ABNT NBR ISO 6506-4:2019 ABNT NBR 16130:2012  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.2.3  Ensaio de Tamanho de Grão ABNT NBR 11568:2016 ABNT NBR 16130:2012  ASTM E3:2011 (REAPROVADA 2017)  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.2.3  Ensaio de Endurecimento Superficial da Pista de Deslizamento do Pino Esférico ABNT NBR ISO 6507-4:2019 ABNT NBR 16130:2012  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.2.3  Ensaio de Tempera por Indução da Carcaça ABNT NBR ISO 6507-4:2019  Ensaio de Profundidade de Dureza ABNT NBR ISO 6507-4:2019 ABNT NBR 16130:2012  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6 .2.3  Ensaio de Processo de Formação de Rosca externa  ABNT NBR 16130:2012  ASTM E3:2011 (Reaprovada 2017)  ASTM E407:2007 (Reaprovada  2015)e1 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.2.2 AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS</t>
+          <t xml:space="preserve">Ensaio de tração da ancoragem de cintos de segurança para veículos rodoviários - até 50 kN ABNT NBR 6091 / 2015 - Item 7 Resolução Contran n.º 445 de 25 de junho de 2013 - Anexo V – Item 3.1.2 e Item 3.2.2 Resolução Contran n.º 416 de 09 de agosto de 2012 - Anexo V – Item 3.1.2 e Item 3.2.2 Resolução Contran 939 de 28 de março de 2022  Resolução Contran 959 de 25 de maio de 2022 SEGURANÇA PARA VEÍCULOS DE TRANSPORTE PÚBLICO COLETIVO DE PASSAGEIROS E TRANSPORTE DE PASSAGEIROS TIPOS MICRO-ÔNIBUS E ÔNIBUS, CATEGORIAS M2 e M3 </t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS </t>
+          <t xml:space="preserve">SEGURANÇA PARA VEÍCULOS DE TRANSPORTE PÚBLICO COLETIVO DE PASSAGEIROS E TRANSPORTE DE PASSAGEIROS TIPOS MICRO-ÔNIBUS E ÔNIBUS, CATEGORIAS M2 e M3 </t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ensaio de Avaliação Metalográfica  ABNT NBR 16130:2012 ASTM E3:2011 (REAPROVADA 2017)  ASTM E407:2007 (Reaprovada 2015)e1 ABNT NBR 11568: 2016 ABNT NBR NM 136:2000 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.4.2  Ensaio de Dureza Superficial ABNT NBR ISO 6507-4:2019 ABNT NBR 16130:2012 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.4.2.1 TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS</t>
+          <t>Ensaio de Resistência das Ancoragens de um Veículo – Até 50 kN Resolução Contran n.º 445 de 25 de junho de 2013 - Anexo IV – Apêndice 2 Resolução Contran n.º 416 de 09 de agosto de 2012 - Anexo IV – Apêndice 2 Resolução Contran 939 de 28 de março de 2022  Resolução Contran 959 de 25 de maio de 2022  Ensaio de Deformação do Encosto – Até 50kN Resolução Contran n.º 445 de 25 de junho de 2013 - Anexo IV – Apêndice 5  Resolução Contran n.º 416 de 09 de agosto de 2012 - Anexo IV – Apêndice 5 Resolução Contran 939 de 28 de março de 2022  Resolução Contran 959 de 25 de maio de 2022  Estabilidade e Sistema de Retenção da Cadeira de Rodas e Seu Usuário Resolução Contran n.º 445 de 25 de junho de 20 13 - Anexo VI  Resolução Contran n.º 416 de 09 de agosto de 2012 - Anexo VI  Resolução Contran 939 de 28 de março de 2022  Resolução Contran 959 de 25 de maio de 2022         AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS </t>
+          <t>TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ensaio de Descarbonetação Superficial ABNT NBR 16130:2012 ABNT NBR 11299:2011 ASTM E3:2011 (Reaprovada 2017)  ASTM E407:2007 (Reaprovada  2015)e1 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.1  Rugosidade superficial ABNT NBR 16130:2012 ABNT NBR ISO 4288:2008 ABNT NBR ISO 4287:2002 ANSI/ASME B46.1:1985 ISO 21920-2:2021 ISO 13565-1: 1996 ISO 13565-2:1996/Cor 1:1998 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.2  Ensaios Dimensionais ISO 1101 / 2017 BS EN ISO 286-1 / 2010 ISO 286-2 / 2013 ABNT NBR 6409 / 1997  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.5        AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    ARRUELA DE ENCOSTO</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ARRUELA DE ENCOSTO</t>
+          <t xml:space="preserve">TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS </t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Ensaios Dimensionais  NBR ISO 6525: 1999 ABNT NBR ISO 6525:2021 NBR ISO 6526: 1999  ABNT NBR ISO 12301:2011 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F  Ensaios de Dureza  ABNT NBR ISO 12301:2011  ABNT NBR ISO 4384-2:2011 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F BRONZINAS PLANAS </t>
+          <t>Acoplamento cônico ABNT NBR 16130 / 2012 – Item 6.1.5  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.5  Carga de deformação do pino esférico do conjunto terminal de direção ABNT NBR 16130 / 2012 – Item 6.1.6  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.6  Ensaio de impacto do pino esférico do conjunto terminal de direção ABNT NBR 16130 / 2012 – Item 6.1.7  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.7  Integridade do material ABNT NBR 16130 / 2012 – Itens 6.1.1 e 6.2.1 ABNT NBR NM 334 / 2012 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.1 e 6.2.1  Ensaios estáticos ABNT NBR 16130 / 2012 – Item 6.3 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.3  Ensaio de Dureza Brinell ABNT NBR ISO 6506-1:2019 ABNT NBR ISO 6506-4:2019 ABNT NBR 16130:2012  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.2.3  Ensaio de Tamanho de Grão ABNT NBR 11568:2016 ABNT NBR 16130:2012  ASTM E3:2011 (REAPROVADA 2017)  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.2.3  Ensaio de Endurecimento Superficial da Pista de Deslizamento do Pino Esférico ABNT NBR ISO 6507-4:2019 ABNT NBR 16130:2012  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.2.3  Ensaio de Tempera por Indução da Carcaça ABNT NBR ISO 6507-4:2019  Ensaio de Profundidade de Dureza ABNT NBR ISO 6507-4:2019 ABNT NBR 16130:2012  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6 .2.3  Ensaio de Processo de Formação de Rosca externa  ABNT NBR 16130:2012  ASTM E3:2011 (Reaprovada 2017)  ASTM E407:2007 (Reaprovada  2015)e1 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.2.2 AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">BRONZINAS PLANAS </t>
+          <t>TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">FLANGEADAS </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">BRONZINAS PLANAS FLANGEADAS </t>
+          <t xml:space="preserve">TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS </t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ensaios Dimensionais  ABNT NBR ISO 12301:2011 ABNT NBR ISO 3548- 2:2022 ABNT NBR ISO 3548-3:2013 ABNT NBR 16127:2015 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F  Rugosidade Superficial  ABNT NBR ISO 12301:2011  ISO 1302: 2002 ISO 21920-1:2021 ABNT NBR ISO 4287: 2002 ABNT NBR ISO 4288: 2008 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F BRONZINAS PLANAS </t>
+          <t>Ensaio de Avaliação Metalográfica  ABNT NBR 16130:2012 ASTM E3:2011 (REAPROVADA 2017)  ASTM E407:2007 (Reaprovada 2015)e1 ABNT NBR 11568: 2016 ABNT NBR NM 136:2000 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.4.2  Ensaio de Dureza Superficial ABNT NBR ISO 6507-4:2019 ABNT NBR 16130:2012 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.4.2.1 TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">BRONZINAS PLANAS </t>
+          <t>TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ensaios Dimensionais  ABNT NBR ISO 12301:2011 ABNT NBR 16127: 2015 ABNT NBR ISO 3548-3:2013 ABNT NBR ISO 3548- 2:2022 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F  Rugosidade Superficial ABNT NBR ISO 12301:2011  ISO 1302: 2002 ISO 21920-1:2021 ABNT NBR ISO 4287: 2002 ABNT NBR ISO 4288: 2008 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F  Dureza do Material das Costas – Material Metálico Multicamadas ABNT NBR ISO 12301:2011  ABNT NBR ISO 4384-2:2011  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F  AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE ENSAIOS MECÂNICOS    BUCHA</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BUCHA</t>
+          <t xml:space="preserve">TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS </t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ensaios Dimensionais ABNT NBR ISO 12301:2011  ABNT NBR ISO 3547- 7:2022 ABNT NBR ISO 3547- 5:2021 ABNT NBR ISO 3547-1:2021 ABNT NBR ISO 4379:2010 ABNT NBR ISO 4379:2021 ABNT NBR ISO 6506-1:2019 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F  Rugosidade Superficial  ABNT NBR ISO 12301:2011 ISO 1302:2002 ABNT NBR ISO 4287:2002 ABNT NBR ISO 4288:2008 ABNT NBR ISO 3547- 1:2021 ISO 21920-1:2021 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F  Ensaios de Dureza ABNT NBR ISO 12301:2011  ABNT NBR ISO 6506-1:2019 ABNT NBR ISO 4384-2:2011 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F ANÉIS DE PISTÃO </t>
+          <t>Ensaio de Descarbonetação Superficial ABNT NBR 16130:2012 ABNT NBR 11299:2011 ASTM E3:2011 (Reaprovada 2017)  ASTM E407:2007 (Reaprovada  2015)e1 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.1  Rugosidade superficial ABNT NBR 16130:2012 ABNT NBR ISO 4288:2008 ABNT NBR ISO 4287:2002 ANSI/ASME B46.1:1985 ISO 21920-2:2021 ISO 13565-1: 1996 ISO 13565-2:1996/Cor 1:1998 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.2  Ensaios Dimensionais ISO 1101 / 2017 BS EN ISO 286-1 / 2010 ISO 286-2 / 2013 ABNT NBR 6409 / 1997  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, item 6.1.5        AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    ARRUELA DE ENCOSTO</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANÉIS DE PISTÃO </t>
+          <t>ARRUELA DE ENCOSTO</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensaios Dimensionais ABNT NBR ISO 6621-2:2009 ABNT NBR ISO 6621-4:2016 ABNT NBR ISO 6621-5:2014 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico E  Rugosidade Superficial ABNT NBR ISO 6621:2:2009 ABNT NBR ISO 6621-4:2016 ABNT NBR ISO 4287:2002 ABNT NBR ISO 4288:2008 Portaria Inmetro Nº 145:2022, de 28/03/2022, Anexo Específico E  Perda de Força Tangencial sob Efeitos de Temperatura ABNT NBR ISO 6621-2:2009 ABNT NBR ISO 6621-5:2014 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico E  Ensaio de Inspeção Visual ABNT NBR ISO 6621-5:2014 ABNT NBR ISO 6621-2:2009 ABNT NBR ISO 6621-4:2016 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico E  AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE ENSAIOS MECÂNICOS    ANÉIS DE PISTÃO </t>
+          <t xml:space="preserve">  Ensaios Dimensionais  NBR ISO 6525: 1999 ABNT NBR ISO 6525:2021 NBR ISO 6526: 1999  ABNT NBR ISO 12301:2011 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F  Ensaios de Dureza  ABNT NBR ISO 12301:2011  ABNT NBR ISO 4384-2:2011 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F BRONZINAS PLANAS </t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">ANÉIS DE PISTÃO </t>
+          <t xml:space="preserve">BRONZINAS PLANAS </t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Profundidade da Camada Nitretada ABNT NBR ISO 6621-2:2009 ABNT NBR ISO 6621-4:2016 ABNT NBR NM ISO 6507-1:2008 ABNT NBR ISO 6507-1:2019 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico  PISTÕES DE LIGA LEVE DE ALUMÍNIO </t>
+          <t xml:space="preserve">FLANGEADAS </t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">PISTÕES DE LIGA LEVE DE ALUMÍNIO </t>
+          <t xml:space="preserve">BRONZINAS PLANAS FLANGEADAS </t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensaios Dimensionais ABNT NBR 15905:2017 ABNT NBR 15934:2017 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D   Ensaios de Inspeção Visual ABNT NBR 15905:2017 ABNT NBR 15934:2017 ABNT NBR ISO 6506- 1:2019 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D  Ensaio de Verificação da Rastreabilidade ABNT NBR 15934:2017 ABNT NBR 15905:2017  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D PISTÕES DE LIGA LEVE DE ALUMÍNIO </t>
+          <t xml:space="preserve"> Ensaios Dimensionais  ABNT NBR ISO 12301:2011 ABNT NBR ISO 3548- 2:2022 ABNT NBR ISO 3548-3:2013 ABNT NBR 16127:2015 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F  Rugosidade Superficial  ABNT NBR ISO 12301:2011  ISO 1302: 2002 ISO 21920-1:2021 ABNT NBR ISO 4287: 2002 ABNT NBR ISO 4288: 2008 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F BRONZINAS PLANAS </t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">PISTÕES DE LIGA LEVE DE ALUMÍNIO </t>
+          <t xml:space="preserve">BRONZINAS PLANAS </t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ensaios de Dureza ABNT NBR 15934:2017 ABNT NBR ISO 6506-1:2019  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D  Ligação Metalúrgica do Porta Anel   ABNT NBR 15934:2017  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D ANÉIS TRAVA</t>
+          <t xml:space="preserve"> Ensaios Dimensionais  ABNT NBR ISO 12301:2011 ABNT NBR 16127: 2015 ABNT NBR ISO 3548-3:2013 ABNT NBR ISO 3548- 2:2022 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F  Rugosidade Superficial ABNT NBR ISO 12301:2011  ISO 1302: 2002 ISO 21920-1:2021 ABNT NBR ISO 4287: 2002 ABNT NBR ISO 4288: 2008 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F  Dureza do Material das Costas – Material Metálico Multicamadas ABNT NBR ISO 12301:2011  ABNT NBR ISO 4384-2:2011  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F  AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE ENSAIOS MECÂNICOS    BUCHA</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ANÉIS TRAVA</t>
+          <t>BUCHA</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ensaios Dimensionais  ABNT NBR 16100:2013 ABNT NBR 15933: 2013 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D   Ensaio de Funcionalidade ABNT NBR 16100:2013 ABNT NBR 15933: 2013  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D  MÁQUINAS E EQUIPAMENTOS  ENSAIOS ELÉTRICOS &amp; MAGNÉTICOS   ANÉIS TRAVA</t>
+          <t xml:space="preserve"> Ensaios Dimensionais ABNT NBR ISO 12301:2011  ABNT NBR ISO 3547- 7:2022 ABNT NBR ISO 3547- 5:2021 ABNT NBR ISO 3547-1:2021 ABNT NBR ISO 4379:2010 ABNT NBR ISO 4379:2021 ABNT NBR ISO 6506-1:2019 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F  Rugosidade Superficial  ABNT NBR ISO 12301:2011 ISO 1302:2002 ABNT NBR ISO 4287:2002 ABNT NBR ISO 4288:2008 ABNT NBR ISO 3547- 1:2021 ISO 21920-1:2021 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F  Ensaios de Dureza ABNT NBR ISO 12301:2011  ABNT NBR ISO 6506-1:2019 ABNT NBR ISO 4384-2:2011 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico F ANÉIS DE PISTÃO </t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ANÉIS TRAVA</t>
+          <t xml:space="preserve">ANÉIS DE PISTÃO </t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tenacidade ABNT NBR 16100:2013 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D PINOS DE PISTÃO</t>
+          <t xml:space="preserve">Ensaios Dimensionais ABNT NBR ISO 6621-2:2009 ABNT NBR ISO 6621-4:2016 ABNT NBR ISO 6621-5:2014 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico E  Rugosidade Superficial ABNT NBR ISO 6621:2:2009 ABNT NBR ISO 6621-4:2016 ABNT NBR ISO 4287:2002 ABNT NBR ISO 4288:2008 Portaria Inmetro Nº 145:2022, de 28/03/2022, Anexo Específico E  Perda de Força Tangencial sob Efeitos de Temperatura ABNT NBR ISO 6621-2:2009 ABNT NBR ISO 6621-5:2014 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico E  Ensaio de Inspeção Visual ABNT NBR ISO 6621-5:2014 ABNT NBR ISO 6621-2:2009 ABNT NBR ISO 6621-4:2016 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico E  AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE ENSAIOS MECÂNICOS    ANÉIS DE PISTÃO </t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PINOS DE PISTÃO</t>
+          <t xml:space="preserve">ANÉIS DE PISTÃO </t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Profundidade de Camada Cimentada ou Nitretada ABNT NBR ISO 18669-1:2014 ABNT NBR ISO 18669-2:2010 (Versão corrigida 2012) ISO 2639:2002 ISO 18203:2016, exceto item 8.2 e Anexo B Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D  Ensaios Dimensionais ABNT NBR ISO 18669-1:2014 ABNT NBR ISO 18669-2:2010 (Versão corrigida 2012) ISO 1101:2017 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D  MÁQUINAS E EQUIPAMENTOS  ENSAIOS ELÉTRICOS &amp; MAGNÉTICOS   PINOS DE PISTÃO</t>
+          <t xml:space="preserve">Profundidade da Camada Nitretada ABNT NBR ISO 6621-2:2009 ABNT NBR ISO 6621-4:2016 ABNT NBR NM ISO 6507-1:2008 ABNT NBR ISO 6507-1:2019 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico  PISTÕES DE LIGA LEVE DE ALUMÍNIO </t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PINOS DE PISTÃO</t>
+          <t xml:space="preserve">PISTÕES DE LIGA LEVE DE ALUMÍNIO </t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ensaio de Dureza ABNT NBR ISO 6506-4:2019 ABNT NBR ISO 6506-1:2019 ABNT NBR NM ISO 6508-1:2008 ABNT NBR ISO 6508-1:2019 ABNT NBR ISO 18669-1:2014 ABNT NBR ISO 18669-2:2010 (Versão corrigida 2012) Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D  Defeitos do Material  ABNT NBR ISO 18669-1:2014 ABNT NBR ISO 18669-2:2010 (Versão corrigida 2012) ISO 9934-1:2016 ISO 9934-2:2015 ISO 16810:2012 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D  Ensaios de Inspeção Visual ABNT NBR ISO 18669-1:2014 ABNT NBR ISO 18669-2:2010 (Versão corrigida 2012) Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D   AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    PINOS DE PISTÃO</t>
+          <t xml:space="preserve">Ensaios Dimensionais ABNT NBR 15905:2017 ABNT NBR 15934:2017 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D   Ensaios de Inspeção Visual ABNT NBR 15905:2017 ABNT NBR 15934:2017 ABNT NBR ISO 6506- 1:2019 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D  Ensaio de Verificação da Rastreabilidade ABNT NBR 15934:2017 ABNT NBR 15905:2017  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D PISTÕES DE LIGA LEVE DE ALUMÍNIO </t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PINOS DE PISTÃO</t>
+          <t xml:space="preserve">PISTÕES DE LIGA LEVE DE ALUMÍNIO </t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rugosidade Superficial ABNT NBR ISO 18669-1:2014 ABNT NBR ISO 18669-2:2010 (Versão corrigida 2012) ABNT NBR ISO 4287:2002 ABNT NBR ISO 4288:2008 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D RAIOS E NIPLES DE BICICLETA</t>
+          <t>Ensaios de Dureza ABNT NBR 15934:2017 ABNT NBR ISO 6506-1:2019  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D  Ligação Metalúrgica do Porta Anel   ABNT NBR 15934:2017  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D ANÉIS TRAVA</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>RAIOS E NIPLES DE BICICLETA</t>
+          <t>ANÉIS TRAVA</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dimensões de raios de bicicleta ABNT NBR 8023 / 2013  Determinação da resistência à fadiga de raios de bicicleta - até 35 kN ABNT NBR 8024 / 2013  Dimensões de niple de bicicleta ABNT NBR 8691 / 2013  Determinação da resistência à tração de raio e niple de bicicleta - até 100 kN ABNT NBR 8692 / 2013 MATERIAL DE ATRITO PARA FREIO </t>
+          <t xml:space="preserve"> Ensaios Dimensionais  ABNT NBR 16100:2013 ABNT NBR 15933: 2013 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D   Ensaio de Funcionalidade ABNT NBR 16100:2013 ABNT NBR 15933: 2013  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D  MÁQUINAS E EQUIPAMENTOS  ENSAIOS ELÉTRICOS &amp; MAGNÉTICOS   ANÉIS TRAVA</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">MATERIAL DE ATRITO PARA FREIO </t>
+          <t>ANÉIS TRAVA</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Ensaio de compressibilidade – até 470 kN ABNT NBR ISO 6310 / 2016 ISO 6310 / 2009 ABNT NBR 9301 / 1986 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo III, Item 5.4 e 5.6 (Requisitos)  Ensaio de cisalhamento – até 470kN ISO 6312 / 2010 ABNT NBR 5537 / 2002 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo III, Item 5.3 e 5.6 (Requisitos)  Ensaio de verificação de estabilidade de raio, dilatação e o crescimento ABNT NBR 5505 / 2019  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo III, Item 5.5 e 5.6 (Requisitos) CORRENTE DE TRANSMISSÃO</t>
+          <t xml:space="preserve"> Tenacidade ABNT NBR 16100:2013 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D PINOS DE PISTÃO</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CORRENTE DE TRANSMISSÃO</t>
+          <t>PINOS DE PISTÃO</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ensaio dimensional ISO 10190 / 2008 ABNT NBR 16427 / 2016 item 4.2 ABNT NBR 16427:2022 item 4.2  Ensaio de Proteção da corrente de transmissão ABNT NBR 16427:2016 - item 4.1.5  ABNT NBR 16427:2022 - item 4.1.5   Ensaio de resistência a tração - até 100 kN ISO 10190 / 2008 ABNT NBR 16427 / 2016 item 5.3.1  ABNT NBR 16427:2022 Item 5.3.1   AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    CORRENTE DE TRANSMISSÃO</t>
+          <t xml:space="preserve"> Profundidade de Camada Cimentada ou Nitretada ABNT NBR ISO 18669-1:2014 ABNT NBR ISO 18669-2:2010 (Versão corrigida 2012) ISO 2639:2002 ISO 18203:2016, exceto item 8.2 e Anexo B Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D  Ensaios Dimensionais ABNT NBR ISO 18669-1:2014 ABNT NBR ISO 18669-2:2010 (Versão corrigida 2012) ISO 1101:2017 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D  MÁQUINAS E EQUIPAMENTOS  ENSAIOS ELÉTRICOS &amp; MAGNÉTICOS   PINOS DE PISTÃO</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CORRENTE DE TRANSMISSÃO</t>
+          <t>PINOS DE PISTÃO</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ensaio de fadiga – Conformidade e caracterização ISO 15654 / 2015   Ensaio de Exatidão de Comprimento ISO 10190/2008   Ensaio de medição de comprimento ABNT NBR 16427 / 2016 item 5.2 ABNT NBR 16427:2022 Item 5.2  Ensaio de fadiga – Até 35 kN ABNT NBR 16427 / 2016 item 5.3.2  ABNT NBR 16427:2022 Item 5.3.2   Ensaio de durabilidade ABNT NBR 16427 / 2016 item 8.4 ABNT NBR 16427:2022 item 8.4 AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    COROA</t>
+          <t xml:space="preserve"> Ensaio de Dureza ABNT NBR ISO 6506-4:2019 ABNT NBR ISO 6506-1:2019 ABNT NBR NM ISO 6508-1:2008 ABNT NBR ISO 6508-1:2019 ABNT NBR ISO 18669-1:2014 ABNT NBR ISO 18669-2:2010 (Versão corrigida 2012) Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D  Defeitos do Material  ABNT NBR ISO 18669-1:2014 ABNT NBR ISO 18669-2:2010 (Versão corrigida 2012) ISO 9934-1:2016 ISO 9934-2:2015 ISO 16810:2012 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D  Ensaios de Inspeção Visual ABNT NBR ISO 18669-1:2014 ABNT NBR ISO 18669-2:2010 (Versão corrigida 2012) Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D   AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    PINOS DE PISTÃO</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>COROA</t>
+          <t>PINOS DE PISTÃO</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ensaio dimensional ISO 10190 / 2008 ABNT NBR 16427/2016 item 7.2 ABNT NBR 16427:2022 item 7.2  Ensaio de dimensões do perfil da lateral do dente ABNT NBR 16427 / 2016 item 7.3 ABNT NBR 16427:2022 item 7.3  Ensaio de medição do diâmetro do cubo e furos de fixação da coroa ABNT NBR 16427 / 2016 item 7.4 ABNT NBR 16427:2022 item 7.4  Ensaio de durabilidade ABNT NBR 16427 / 2016 item 8.4 ABNT NBR 16427:2022 item 8.4 PINHÃO </t>
+          <t xml:space="preserve"> Rugosidade Superficial ABNT NBR ISO 18669-1:2014 ABNT NBR ISO 18669-2:2010 (Versão corrigida 2012) ABNT NBR ISO 4287:2002 ABNT NBR ISO 4288:2008 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D RAIOS E NIPLES DE BICICLETA</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">PINHÃO </t>
+          <t>RAIOS E NIPLES DE BICICLETA</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensaio dimensional ISO 10190 / 2008 ABNT NBR 16427 / 2016 item 7.2 ABNT NBR 16427:2022 item 7.2  Ensaio de dimensões do perfil da lateral do dente ABNT NBR 16427 / 2016 item 7.3 ABNT NBR 16427:2022 item 7.3  Ensaio de medição de forma e tolerância para furo central do pinhão ABNT NBR 16427 / 2016 item 7.5 ABNT NBR 16427:2022 item 7.5  Ensaio de durabilidade ABNT NBR 16427 / 2016 item 8.4 ABNT NBR 16427:2022 item 8.4 ESCAPAMENTO </t>
+          <t xml:space="preserve"> Dimensões de raios de bicicleta ABNT NBR 8023 / 2013  Determinação da resistência à fadiga de raios de bicicleta - até 35 kN ABNT NBR 8024 / 2013  Dimensões de niple de bicicleta ABNT NBR 8691 / 2013  Determinação da resistência à tração de raio e niple de bicicleta - até 100 kN ABNT NBR 8692 / 2013 MATERIAL DE ATRITO PARA FREIO </t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve">ESCAPAMENTO </t>
+          <t xml:space="preserve">MATERIAL DE ATRITO PARA FREIO </t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ensaio Dimensional e condições de acabamento Portaria Inmetro nº 71:2022, de 22 de fevereiro de 2022, Anexo D   AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
+          <t>Ensaio de compressibilidade – até 470 kN ABNT NBR ISO 6310 / 2016 ISO 6310 / 2009 ABNT NBR 9301 / 1986 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo III, Item 5.4 e 5.6 (Requisitos)  Ensaio de cisalhamento – até 470kN ISO 6312 / 2010 ABNT NBR 5537 / 2002 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo III, Item 5.3 e 5.6 (Requisitos)  Ensaio de verificação de estabilidade de raio, dilatação e o crescimento ABNT NBR 5505 / 2019  Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo III, Item 5.5 e 5.6 (Requisitos) CORRENTE DE TRANSMISSÃO</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
+          <t>CORRENTE DE TRANSMISSÃO</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inspeção Visual Externa e Peso ABNT NBR 15940/2019 – item 8.1 ABNT NBR 15914/2018 Item 5 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo I – itens 5.1 e 5.2 ABNT NBR 15914:2018 Item 5   BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
+          <t xml:space="preserve"> Ensaio dimensional ISO 10190 / 2008 ABNT NBR 16427 / 2016 item 4.2 ABNT NBR 16427:2022 item 4.2  Ensaio de Proteção da corrente de transmissão ABNT NBR 16427:2016 - item 4.1.5  ABNT NBR 16427:2022 - item 4.1.5   Ensaio de resistência a tração - até 100 kN ISO 10190 / 2008 ABNT NBR 16427 / 2016 item 5.3.1  ABNT NBR 16427:2022 Item 5.3.1   AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    CORRENTE DE TRANSMISSÃO</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
+          <t>CORRENTE DE TRANSMISSÃO</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Retenção do Eletrólito ABNT NBR 15940/2019 – item 8.7  Estanqueidade  ABNT NBR 15940/2019 item 8.8   BATERIA CHUMBO-ÁCIDO PARA MOTOCICLETAS  TRICICLOS E QUADRICICLOS</t>
+          <t xml:space="preserve"> Ensaio de fadiga – Conformidade e caracterização ISO 15654 / 2015   Ensaio de Exatidão de Comprimento ISO 10190/2008   Ensaio de medição de comprimento ABNT NBR 16427 / 2016 item 5.2 ABNT NBR 16427:2022 Item 5.2  Ensaio de fadiga – Até 35 kN ABNT NBR 16427 / 2016 item 5.3.2  ABNT NBR 16427:2022 Item 5.3.2   Ensaio de durabilidade ABNT NBR 16427 / 2016 item 8.4 ABNT NBR 16427:2022 item 8.4 AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    COROA</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BATERIA CHUMBO-ÁCIDO PARA MOTOCICLETAS  TRICICLOS E QUADRICICLOS</t>
+          <t>COROA</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inspeção Visual Externa ABNT NBR 15941/2019 item 7.1 ABNT NBR 15916/2018  Inspeção de Peso  Anexo da Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo I, item 5.2     Estanqueidade (obrigatório somente baterias ventiladas) ABNT NBR 15941/2019 – item 6.3.2                 AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS QUÍMICOS   CORRENTES, COROA</t>
+          <t xml:space="preserve"> Ensaio dimensional ISO 10190 / 2008 ABNT NBR 16427/2016 item 7.2 ABNT NBR 16427:2022 item 7.2  Ensaio de dimensões do perfil da lateral do dente ABNT NBR 16427 / 2016 item 7.3 ABNT NBR 16427:2022 item 7.3  Ensaio de medição do diâmetro do cubo e furos de fixação da coroa ABNT NBR 16427 / 2016 item 7.4 ABNT NBR 16427:2022 item 7.4  Ensaio de durabilidade ABNT NBR 16427 / 2016 item 8.4 ABNT NBR 16427:2022 item 8.4 PINHÃO </t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>COROA</t>
+          <t xml:space="preserve">PINHÃO </t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve">S E PINHÃO </t>
+          <t xml:space="preserve">Ensaio dimensional ISO 10190 / 2008 ABNT NBR 16427 / 2016 item 7.2 ABNT NBR 16427:2022 item 7.2  Ensaio de dimensões do perfil da lateral do dente ABNT NBR 16427 / 2016 item 7.3 ABNT NBR 16427:2022 item 7.3  Ensaio de medição de forma e tolerância para furo central do pinhão ABNT NBR 16427 / 2016 item 7.5 ABNT NBR 16427:2022 item 7.5  Ensaio de durabilidade ABNT NBR 16427 / 2016 item 8.4 ABNT NBR 16427:2022 item 8.4 ESCAPAMENTO </t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve">PINHÃO </t>
+          <t xml:space="preserve">ESCAPAMENTO </t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve">DE MOTOCICLETAS MOTONETAS, CICLOMOTORES, TRICICLOS E QUADRICICLOS </t>
+          <t>Ensaio Dimensional e condições de acabamento Portaria Inmetro nº 71:2022, de 22 de fevereiro de 2022, Anexo D   AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS MECÂNICOS    BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORRENTES, COROAS E PINHÃO DE MOTOCICLETAS MOTONETAS, CICLOMOTORES, TRICICLOS E QUADRICICLOS </t>
+          <t>BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ensaio de corrosão por exposição à névoa salina  ABNT NBR 16427 / 2016 item 8.3 ABNT NBR 16427:2022 item 8.3 ABNT NBR 8094 / 1983 ABNT NBR 17088:2023 ARRUELA DE ENCOSTO</t>
+          <t xml:space="preserve"> Inspeção Visual Externa e Peso ABNT NBR 15940/2019 – item 8.1 ABNT NBR 15914/2018 Item 5 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo I – itens 5.1 e 5.2 ABNT NBR 15914:2018 Item 5   BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ARRUELA DE ENCOSTO</t>
+          <t>BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>/ BUCHA</t>
+          <t xml:space="preserve">   Retenção do Eletrólito ABNT NBR 15940/2019 – item 8.7  Estanqueidade  ABNT NBR 15940/2019 item 8.8   BATERIA CHUMBO-ÁCIDO PARA MOTOCICLETAS  TRICICLOS E QUADRICICLOS</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BUCHA</t>
+          <t>BATERIA CHUMBO-ÁCIDO PARA MOTOCICLETAS  TRICICLOS E QUADRICICLOS</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> / BRONZINA DE PAREDE FINA/ PISTÕES DE LIGA LEVE DE ALUMÍNIO </t>
+          <t xml:space="preserve"> Inspeção Visual Externa ABNT NBR 15941/2019 item 7.1 ABNT NBR 15916/2018  Inspeção de Peso  Anexo da Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo I, item 5.2     Estanqueidade (obrigatório somente baterias ventiladas) ABNT NBR 15941/2019 – item 6.3.2                 AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS QUÍMICOS   CORRENTES, COROA</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">PISTÕES DE LIGA LEVE DE ALUMÍNIO </t>
+          <t>COROA</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S E PINHÃO </t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve">ARRUELA DE ENCOSTO/ BUCHA / BRONZINA DE PAREDE FINA/ PISTÕES DE LIGA LEVE DE ALUMÍNIO </t>
+          <t xml:space="preserve">PINHÃO </t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Ensaio de Composição Química ABNT NBR ISO 12301:2011  ABNT NBR 15905:2017 ABNT NBR 15934:2017 ABNT NBR ISO 18669-1:2014 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D e Anexo Específico F TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS</t>
+          <t xml:space="preserve">DE MOTOCICLETAS MOTONETAS, CICLOMOTORES, TRICICLOS E QUADRICICLOS </t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve">TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS </t>
+          <t xml:space="preserve">CORRENTES, COROAS E PINHÃO DE MOTOCICLETAS MOTONETAS, CICLOMOTORES, TRICICLOS E QUADRICICLOS </t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ensaio de Composição Química  ABNT NBR 16130:2012 ABNT NBR NM 87:2000 Errata 2:2004 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico I BUZINAS</t>
+          <t xml:space="preserve"> Ensaio de corrosão por exposição à névoa salina  ABNT NBR 16427 / 2016 item 8.3 ABNT NBR 16427:2022 item 8.3 ABNT NBR 8094 / 1983 ABNT NBR 17088:2023 ARRUELA DE ENCOSTO</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">BUZINAS </t>
+          <t>ARRUELA DE ENCOSTO</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Ensaios de corrosão para verificar comportamento elétrico ABNT NBR 7014:2017 Item 3.3.9  Ensaios de corrosão para verificar acabamento externo ABNT NBR 7014:2017 Item 3.3.10 BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
+          <t>/ BUCHA</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
+          <t>BUCHA</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Teor de cádmio e mercúrio RES. CONAMA n° 401/2008  AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS QUÍMICOS   BATERIA CHUMBO-ÁCIDO PARA MOTOCICLETAS  TRICICLOS E QUADRICICLOS</t>
+          <t xml:space="preserve"> / BRONZINA DE PAREDE FINA/ PISTÕES DE LIGA LEVE DE ALUMÍNIO </t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BATERIA CHUMBO-ÁCIDO PARA MOTOCICLETAS  TRICICLOS E QUADRICICLOS</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Teor de cádmio e mercúrio RES. CONAMA n° 401/2008  RODA DE LIGA DE ALUMINIO PARA AUTOMÓVEIS COMERCIAIS LEVES E UTILITÁRIOS ESPORTIVOS </t>
+          <t xml:space="preserve">PISTÕES DE LIGA LEVE DE ALUMÍNIO </t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve">RODA DE LIGA DE ALUMINIO PARA AUTOMÓVEIS COMERCIAIS LEVES E UTILITÁRIOS ESPORTIVOS </t>
+          <t xml:space="preserve">ARRUELA DE ENCOSTO/ BUCHA / BRONZINA DE PAREDE FINA/ PISTÕES DE LIGA LEVE DE ALUMÍNIO </t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Ensaio de Composição Química ABNT NBR 6752:2020 Item – 4.1.4 e 4.2.4  AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS TÉRMICOS   BUZINAS</t>
+          <t>Ensaio de Composição Química ABNT NBR ISO 12301:2011  ABNT NBR 15905:2017 ABNT NBR 15934:2017 ABNT NBR ISO 18669-1:2014 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico D e Anexo Específico F TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve">BUZINAS </t>
+          <t>TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Faixa de temperatura de funcionamento ABNT NBR 7014:2017 Item 3.3.4  Ensaios de ciclos térmicos ABNT NBR 7014:2017 Item 3.3.5  Ensaios de exposição térmica ABNT NBR 7014:2017 Item 3.3.6 AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIO ACÚSTICO, DE VIBRAÇÃO &amp; CHOQUE   BUZINAS</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve">BUZINAS </t>
+          <t xml:space="preserve">TERMINAIS DE DIREÇÃO, BARRAS DE DIREÇÃO, BARRAS DE LIGAÇÃO E TERMINAIS AXIAIS </t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensaios para determinação da frequência  ABNT NBR 7014/2017 item 3.3.2  ABNT NBR 5536/2011 - item 5.1 a 5.5  Ensaio de Durabilidade ABNT NBR 5535/2011 ABNT NBR 5536/2011 - item 5.6 Ensaios de vibração  ABNT NBR 7014/2017 item 3.3.11 ABNT NBR 5536/2011 item 5.1 a 5.5       ELETRODOMÉSTICOS E SIMILARES  ENSAIOS TÉRMICOS   EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t>Ensaio de Composição Química  ABNT NBR 16130:2012 ABNT NBR NM 87:2000 Errata 2:2004 Portaria Inmetro Nº 145:2022, de 28 de março de 2022, Anexo Específico I BUZINAS</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t>BUZINAS</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensaio de resistência ao calor  ABNT NBR NM 60335-1:2010 ABNT NBR IEC 60695-2-10:2015 ABNT NBR IEC 60695-2-11:2016 ABNT NBR IEC 60695-2- 12:2022 ABNT NBR IEC 60695-2- 13:2022ABNT NBR IEC 60695-10-2:2020 ABNT NBR IEC 60695- 11-5:2006 ABNT NBR IEC 60695- 11-5:2020 ABNT NBR 16641:2018 – item 6.7 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.2.7   Portaria 215 de 6 de junho de 2024   MOTORES EQUIPAMENTOS E MATERIAIS ELÉTRICOS  ENSAIO ACÚSTICO, DE VIBRAÇÃO E CHOQUE   LUMINÁRIAS </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUMINÁRIAS </t>
+          <t xml:space="preserve">BUZINAS </t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Resistência à vibração ABNT NBR IEC 60598-1 / 2010 – Item 4.20 MOTORES EQUIPAMENTOS E MATERIAIS ELÉTRICOS  ENSAIOS ELÉTRICOS &amp; MAGNÉTICOS   BATERIA ESTACIONÁRIA ALCALINA, NÍQUEL-CÁDMIO E CHUMBO-ÁCIDA PARA USO FOTOVOLTAICO </t>
+          <t>Ensaios de corrosão para verificar comportamento elétrico ABNT NBR 7014:2017 Item 3.3.9  Ensaios de corrosão para verificar acabamento externo ABNT NBR 7014:2017 Item 3.3.10 BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve">BATERIA ESTACIONÁRIA ALCALINA, NÍQUEL-CÁDMIO E CHUMBO-ÁCIDA PARA USO FOTOVOLTAICO </t>
+          <t>BATERIA CHUMBO-ÁCIDO PARA USO EM VEÍCULOS RODOVIÁRIOS E AUTOMOTORES</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Ensaio de capacidade Portaria INMETRO nº 004/2011 – ANEXO IV – ITEM 1  Ensaio de durabilidade Portaria INMETRO nº 004/2011 – ANEXO IV – ITEM 2  Ensaio de retenção de carga (Autodescarga) Portaria INMETRO nº 004/2011 – ANEXO IV – ITEM 3 Portaria Inmetro nº 140 de 21 de março de 2022 – Anexo B do anexo específico C, item 6  Ensaio de regeneração da capacidade Portaria INMETRO nº 004/2011 – ANEXO IV – ITEM 4 Portaria Inmetro nº 140 de 21 de março de 2022 – Anexo B do anexo específico C, item 7  Ensaio de eficiência de carga / descarga Portaria INMETRO nº 004/2011 – anexo IV – item 5 MÁQUINAS E EQUIPAMENTOS  ENSAIOS MECÂNICOS   INVÓLUCROS DE EQUIPAMENTOS</t>
+          <t xml:space="preserve">  Teor de cádmio e mercúrio RES. CONAMA n° 401/2008  AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS QUÍMICOS   BATERIA CHUMBO-ÁCIDO PARA MOTOCICLETAS  TRICICLOS E QUADRICICLOS</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>INVÓLUCROS DE EQUIPAMENTOS</t>
+          <t>BATERIA CHUMBO-ÁCIDO PARA MOTOCICLETAS  TRICICLOS E QUADRICICLOS</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Grau de proteção ABNT NBR IEC 60529 / 2017 ABNT NBR IEC 60598-1 / 2010 – Seção 9  Proteção contra impactos mecânicos externos ABNT NBR IEC 62262 / 2015 EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t xml:space="preserve"> Teor de cádmio e mercúrio RES. CONAMA n° 401/2008  RODA DE LIGA DE ALUMINIO PARA AUTOMÓVEIS COMERCIAIS LEVES E UTILITÁRIOS ESPORTIVOS </t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t xml:space="preserve">RODA DE LIGA DE ALUMINIO PARA AUTOMÓVEIS COMERCIAIS LEVES E UTILITÁRIOS ESPORTIVOS </t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve">– COLETOR SOLAR </t>
+          <t xml:space="preserve">  Ensaio de Composição Química ABNT NBR 6752:2020 Item – 4.1.4 e 4.2.4  AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIOS TÉRMICOS   BUZINAS</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
+          <t>BUZINAS</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
+          <t xml:space="preserve">BUZINAS </t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Faixa de temperatura de funcionamento ABNT NBR 7014:2017 Item 3.3.4  Ensaios de ciclos térmicos ABNT NBR 7014:2017 Item 3.3.5  Ensaios de exposição térmica ABNT NBR 7014:2017 Item 3.3.6 AUTOMOTIVA E OUTROS EQUIPAMENTOS DE TRANSPORTE  ENSAIO ACÚSTICO, DE VIBRAÇÃO &amp; CHOQUE   BUZINAS</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
+          <t>BUZINAS</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensaio de pressão interna ABNT NBR 15747-2/2009 item 5.2-1 Portaria Inmetro Nº 420:2021 de 04 de outubro de 2021, ite ns 4.1.2 e 4.1.3 ABNT NBR 15747-1:2009  Ensaio de pressão interna para canais de fluidos ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Ensaio de penetração de chuva ABNT NBR 15747-2/2009 item 5.7 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.7  ABNT NBR 15747-1:2009 ABNT NBR 17003:2021  Portaria 215 de 6 de junho de 2024  MÁQUINAS E EQUIPAMENTOS  ENSAIOS MECÂNICOS   EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t xml:space="preserve">BUZINAS </t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve">– COLETOR SOLAR </t>
+          <t xml:space="preserve">Ensaios para determinação da frequência  ABNT NBR 7014/2017 item 3.3.2  ABNT NBR 5536/2011 - item 5.1 a 5.5  Ensaio de Durabilidade ABNT NBR 5535/2011 ABNT NBR 5536/2011 - item 5.6 Ensaios de vibração  ABNT NBR 7014/2017 item 3.3.11 ABNT NBR 5536/2011 item 5.1 a 5.5       ELETRODOMÉSTICOS E SIMILARES  ENSAIOS TÉRMICOS   EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ensaio de resistência ao calor  ABNT NBR NM 60335-1:2010 ABNT NBR IEC 60695-2-10:2015 ABNT NBR IEC 60695-2-11:2016 ABNT NBR IEC 60695-2- 12:2022 ABNT NBR IEC 60695-2- 13:2022ABNT NBR IEC 60695-10-2:2020 ABNT NBR IEC 60695- 11-5:2006 ABNT NBR IEC 60695- 11-5:2020 ABNT NBR 16641:2018 – item 6.7 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.2.7   Portaria 215 de 6 de junho de 2024   MOTORES EQUIPAMENTOS E MATERIAIS ELÉTRICOS  ENSAIO ACÚSTICO, DE VIBRAÇÃO E CHOQUE   LUMINÁRIAS </t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
+          <t xml:space="preserve">LUMINÁRIAS </t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Resistência à vibração ABNT NBR IEC 60598-1 / 2010 – Item 4.20 MOTORES EQUIPAMENTOS E MATERIAIS ELÉTRICOS  ENSAIOS ELÉTRICOS &amp; MAGNÉTICOS   BATERIA ESTACIONÁRIA ALCALINA, NÍQUEL-CÁDMIO E CHUMBO-ÁCIDA PARA USO FOTOVOLTAICO </t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
+          <t xml:space="preserve">BATERIA ESTACIONÁRIA ALCALINA, NÍQUEL-CÁDMIO E CHUMBO-ÁCIDA PARA USO FOTOVOLTAICO </t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ensaio de carga  mecânica ABNT NBR 15747-2/2009 - item 5.9 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.8  ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024  Ensaio de resistência ao impacto ABNT NBR 15747-2/2009 - item 5.10 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.10 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Inspeção Final ABNT NBR 15747-2/2009 – item 5.11 ISO 9806:2013 – Item 18 ISO 9806:2017 – Item 17 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 5.2 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Ensaio de envelhecimento acelerado ASTM G155/2013 - item 9 ASTM G155:2021 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.11 Portaria 215 de 6 de junho de 2024  EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t>Ensaio de capacidade Portaria INMETRO nº 004/2011 – ANEXO IV – ITEM 1  Ensaio de durabilidade Portaria INMETRO nº 004/2011 – ANEXO IV – ITEM 2  Ensaio de retenção de carga (Autodescarga) Portaria INMETRO nº 004/2011 – ANEXO IV – ITEM 3 Portaria Inmetro nº 140 de 21 de março de 2022 – Anexo B do anexo específico C, item 6  Ensaio de regeneração da capacidade Portaria INMETRO nº 004/2011 – ANEXO IV – ITEM 4 Portaria Inmetro nº 140 de 21 de março de 2022 – Anexo B do anexo específico C, item 7  Ensaio de eficiência de carga / descarga Portaria INMETRO nº 004/2011 – anexo IV – item 5 MÁQUINAS E EQUIPAMENTOS  ENSAIOS MECÂNICOS   INVÓLUCROS DE EQUIPAMENTOS</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t>INVÓLUCROS DE EQUIPAMENTOS</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>– RESERVATÒRIO TÉRMICO</t>
+          <t xml:space="preserve"> Grau de proteção ABNT NBR IEC 60529 / 2017 ABNT NBR IEC 60598-1 / 2010 – Seção 9  Proteção contra impactos mecânicos externos ABNT NBR IEC 62262 / 2015 EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO</t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">– COLETOR SOLAR </t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO </t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ensaio de marcações e instruções Portaria Inmetro Nº 420:2021, d e 04 de outubro de 2021, item 4.2.12 e 5.4 Portaria 215 de 6 de junho de 2024   Ensaio de volume armazenado Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.2.1  Portaria 215 de 6 de junho de 2024      MÁQUINAS E EQUIPAMENTOS  ENSAIOS MECÂNICOS   EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>– RESERVATÒRIO TÉRMICO</t>
+          <t xml:space="preserve">Ensaio de pressão interna ABNT NBR 15747-2/2009 item 5.2-1 Portaria Inmetro Nº 420:2021 de 04 de outubro de 2021, ite ns 4.1.2 e 4.1.3 ABNT NBR 15747-1:2009  Ensaio de pressão interna para canais de fluidos ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Ensaio de penetração de chuva ABNT NBR 15747-2/2009 item 5.7 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.7  ABNT NBR 15747-1:2009 ABNT NBR 17003:2021  Portaria 215 de 6 de junho de 2024  MÁQUINAS E EQUIPAMENTOS  ENSAIOS MECÂNICOS   EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO</t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">– COLETOR SOLAR </t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO </t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ensaio de pressão hidrostática Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.2.2  Portaria 215 de 6 de junho de 2024   Ensaio de resistência ao enferrujamento ABNT NBR NM 60335-1/2010 - item 31 ABNT NBR 16641:2018 – item 6.8 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.2.8  Portaria 215 de 6 de junho de 2024   Ensaio de envelhecimento acelerado ASTM G155/2013 - item 9 ASTM G155:2021 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021item 4.2.9 Portaria 215 de 6 de junho de 2024  EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve">– SISTEMA ACOPLADO </t>
+          <t xml:space="preserve"> Ensaio de carga  mecânica ABNT NBR 15747-2/2009 - item 5.9 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.8  ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024  Ensaio de resistência ao impacto ABNT NBR 15747-2/2009 - item 5.10 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.10 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Inspeção Final ABNT NBR 15747-2/2009 – item 5.11 ISO 9806:2013 – Item 18 ISO 9806:2017 – Item 17 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 5.2 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Ensaio de envelhecimento acelerado ASTM G155/2013 - item 9 ASTM G155:2021 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.11 Portaria 215 de 6 de junho de 2024  EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>– RESERVATÒRIO TÉRMICO</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
+          <t>EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
+          <t>EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensaio de pressão interna ABNT NBR 15747-2/2009 - item 5.2 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.2 e 4.1.3 ABNT NBR 15747-1:2009  Ensaio de pressão interna para canais de fluidos ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Ensaio de penetração de chuva ABNT NBR 15747-2/2009 - item 5.7 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.7  ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024    Ensaio de carga mecânica ABNT NBR 15747-2/2009 - item 5.9 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.8  ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024      MÁQUINAS E EQUIPAMENTOS  ENSAIOS MECÂNICOS   EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t xml:space="preserve">– SISTEMA ACOPLADO </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO </t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO </t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ensaio de marcações e instruções Portaria Inmetro Nº 420:2021, d e 04 de outubro de 2021, item 4.2.12 e 5.4 Portaria 215 de 6 de junho de 2024   Ensaio de volume armazenado Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.2.1  Portaria 215 de 6 de junho de 2024      MÁQUINAS E EQUIPAMENTOS  ENSAIOS MECÂNICOS   EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>– RESERVATÒRIO TÉRMICO</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ensaio de resistência ao impacto ABNT NBR 15747-2/2009 - item 5.10 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.10 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Ensaio de envelhecimento acelerado ASTM G155/2013 - item 9 ASTM G155:2021 Portaria 215 de 6 de junho de 2024   Ensaio de marcações e instruções Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 5.5 Portaria 215 de 6 de junho de 2024   Ensaio de volume armazenado Portaria Inmetro Nº 420:2021, de 04/10/2021, item 4.2.1 Portaria 215 de 6 de junho de 2024   Ensaio de pressão hidrostática Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.2 e 4.1.3 Portaria 215 de 6 de junho de 2024   Ensaio de resistência ao enferrujamento ABNT NBR NM 60335-1/2010 - item 31 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.2.8  Portaria 215 de 6 de junho de 2024                    MÁQUINAS E EQUIPAMENTOS  ENSAIOS TÉRMICOS   EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t>EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t>EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve">– COLETOR SOLAR </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO </t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO </t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ensaio de pressão hidrostática Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.2.2  Portaria 215 de 6 de junho de 2024   Ensaio de resistência ao enferrujamento ABNT NBR NM 60335-1/2010 - item 31 ABNT NBR 16641:2018 – item 6.8 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.2.8  Portaria 215 de 6 de junho de 2024   Ensaio de envelhecimento acelerado ASTM G155/2013 - item 9 ASTM G155:2021 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021item 4.2.9 Portaria 215 de 6 de junho de 2024  EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensaio de exposição ABNT NBR 15747-2/2009 - item 5.4  Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.2.8  ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024  Ensaio de resistência ao congelamento ABNT NBR 15747-2/2009 - item 5.8  Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.9  ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024  Ensaio de resistência à alta temperatura  ABNT NBR 15747-2/2009 - item 5.3  Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.4  ABNT NBR 15747-1:2009   Ensaio de temperatura de estagnação padrão ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024  EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t xml:space="preserve">– SISTEMA ACOPLADO </t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t xml:space="preserve">– COLETOR SOLAR </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ensaio de pressão interna ABNT NBR 15747-2/2009 - item 5.2 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.2 e 4.1.3 ABNT NBR 15747-1:2009  Ensaio de pressão interna para canais de fluidos ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Ensaio de penetração de chuva ABNT NBR 15747-2/2009 - item 5.7 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.7  ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024    Ensaio de carga mecânica ABNT NBR 15747-2/2009 - item 5.9 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.8  ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024      MÁQUINAS E EQUIPAMENTOS  ENSAIOS MECÂNICOS   EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensaio de choque térmico (interno) ABNT NBR 15747-2/2009 - item 5.6  Portaria Inmetro Nº 420:2021 item 4.1.6 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024  Ensaio de choque térmico (externo) ABNT NBR 15747-2/2009 - item 5.5 Portaria Inmetro Nº 420:2021 item 4.1.6 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024  Desempenho térmico ISO 9459-2/1995 - item 7 ABNT NBR 15747-2/2009 - item 6  Portaria Inmetro Nº 420:2021 item 4.1.1 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021  Portaria 215 de 6 de junho de 2024  MÁQUINAS E EQUIPAMENTOS  ENSAIOS TÉRMICOS   EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t xml:space="preserve">– SISTEMA ACOPLADO </t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>– RESERVATÒRIO TÉRMICO</t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO</t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ensaio de resistência ao impacto ABNT NBR 15747-2/2009 - item 5.10 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.10 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Ensaio de envelhecimento acelerado ASTM G155/2013 - item 9 ASTM G155:2021 Portaria 215 de 6 de junho de 2024   Ensaio de marcações e instruções Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 5.5 Portaria 215 de 6 de junho de 2024   Ensaio de volume armazenado Portaria Inmetro Nº 420:2021, de 04/10/2021, item 4.2.1 Portaria 215 de 6 de junho de 2024   Ensaio de pressão hidrostática Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.2 e 4.1.3 Portaria 215 de 6 de junho de 2024   Ensaio de resistência ao enferrujamento ABNT NBR NM 60335-1/2010 - item 31 Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.2.8  Portaria 215 de 6 de junho de 2024                    MÁQUINAS E EQUIPAMENTOS  ENSAIOS TÉRMICOS   EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensaio de perda específica de energia mensal PORTARIA INMETRO Nº  229/2018 – Item 26 e 34 Portaria Inmetro Nº 420:2021 item 4.2.3 ABNT NBR 10185:2018 Portaria 215 de 6 de junho de 2024  EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t xml:space="preserve">– COLETOR SOLAR </t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t xml:space="preserve">– SISTEMA ACOPLADO </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ensaio de exposição ABNT NBR 15747-2/2009 - item 5.4  Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.2.8  ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024  Ensaio de resistência ao congelamento ABNT NBR 15747-2/2009 - item 5.8  Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.9  ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024  Ensaio de resistência à alta temperatura  ABNT NBR 15747-2/2009 - item 5.3  Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.1.4  ABNT NBR 15747-1:2009   Ensaio de temperatura de estagnação padrão ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024  EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensaio de exposição ABNT NBR 15747-2/2009 - item 5.4  Portaria Inmetro Nº 420:2021 item 4.1.5 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Ensaio de resistência à alta temperatura ABNT NBR 15747-2/2009 – item  5.3  Portaria Inmetro Nº 420:2021 item 4.1.4 ABNT NBR 15747-1:2009  Ensaio de temperatura de estagnação padrão ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Ensaio de choque térmico (interno) ABNT NBR 15747-2/2009 - item 5.6  Portaria Inmetro Nº 420:2021 item 4.1.6 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Ensaio de choque térmico (externo) ABNT NBR 15747-2/2009 item 5.5 Portaria Inmetro Nº 420:2021, item 4.1.6 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Desempenho térmico ISO 9459-2/1995 - item 7  ABNT NBR 15747-2/2009 item 6  Portaria Inmetro Nº 420:2021, item 4.3.3 e 4.3.4 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   MÁQUINAS E EQUIPAMENTOS  ENSAIOS ELÉTRICOS &amp; MAGNÉTICOS   EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t xml:space="preserve">– COLETOR SOLAR </t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>– RESERVATÒRIO TÉRMICO</t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO</t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – COLETOR SOLAR </t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ensaio de choque térmico (interno) ABNT NBR 15747-2/2009 - item 5.6  Portaria Inmetro Nº 420:2021 item 4.1.6 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024  Ensaio de choque térmico (externo) ABNT NBR 15747-2/2009 - item 5.5 Portaria Inmetro Nº 420:2021 item 4.1.6 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024  Desempenho térmico ISO 9459-2/1995 - item 7 ABNT NBR 15747-2/2009 - item 6  Portaria Inmetro Nº 420:2021 item 4.1.1 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021  Portaria 215 de 6 de junho de 2024  MÁQUINAS E EQUIPAMENTOS  ENSAIOS TÉRMICOS   EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ensaio de corrente de fuga  ABNT NBR 16641:2018 - item 6.5  ABNT NBR 14016:2015 – Item 3 Portaria Inmetro Nº 420:2021 item 4.2.5 Portaria 215 de 6 de junho de 2024   Ensaio de potência absorvida ABNT NBR 16641:2018 - item 6.6  ABNT NBR 14013:2015 – Item 3 Portaria Inmetro Nº 420:2021, item 4.2.6 Portaria 215 de 6 de junho de 2024        MÁQUINAS E EQUIPAMENTOS  ENSAIOS ELÉTRICOS &amp; MAGNÉTICOS   EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t>– RESERVATÒRIO TÉRMICO</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>– RESERVATÒRIO TÉRMICO</t>
+          <t>EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO</t>
         </is>
       </c>
     </row>
@@ -1991,6 +2021,11 @@
           <t>EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO</t>
         </is>
       </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2007,7 +2042,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Ensaio de tensão suportável ABNT NBR NM 60335-1/2010 - item 16 ABNT NBR 16641:2018 - item 6.4  Portaria Inmetro Nº 420:2021 item 4.2.4 Portaria 215 de 6 de junho de 2024  EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+          <t xml:space="preserve">Ensaio de perda específica de energia mensal PORTARIA INMETRO Nº  229/2018 – Item 26 e 34 Portaria Inmetro Nº 420:2021 item 4.2.3 ABNT NBR 10185:2018 Portaria 215 de 6 de junho de 2024  EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
     </row>
@@ -2045,187 +2080,202 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensaio de corrente de fuga ABNT NBR 16641:2018 item 6.5 ABNT NBR 14016:2015 Item 3 Portaria Inmetro Nº 420:2021 item 4.2.5 Portaria 215 de 6 de junho de 2024   Ensaio de potência absorvida ABNT NBR 16641:2018 item 6.6  ABNT NBR 14013:2015 Item 3 Portaria Inmetro Nº 420:2021 item 4.2.6 Portaria 215 de 6 de junho de 2024   Ensaio de tensão suportável ABNT NBR NM 60335-1/2010 item 16 ABNT NBR 16641:2018 item 6.4  Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.2.4 Portaria 215 de 6 de junho de 2024    MEIO AMBIENTE  ENSAIOS QUÍMICOS  ÁGUA BRUTA </t>
+          <t xml:space="preserve">Ensaio de exposição ABNT NBR 15747-2/2009 - item 5.4  Portaria Inmetro Nº 420:2021 item 4.1.5 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Ensaio de resistência à alta temperatura ABNT NBR 15747-2/2009 – item  5.3  Portaria Inmetro Nº 420:2021 item 4.1.4 ABNT NBR 15747-1:2009  Ensaio de temperatura de estagnação padrão ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Ensaio de choque térmico (interno) ABNT NBR 15747-2/2009 - item 5.6  Portaria Inmetro Nº 420:2021 item 4.1.6 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Ensaio de choque térmico (externo) ABNT NBR 15747-2/2009 item 5.5 Portaria Inmetro Nº 420:2021, item 4.1.6 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   Desempenho térmico ISO 9459-2/1995 - item 7  ABNT NBR 15747-2/2009 item 6  Portaria Inmetro Nº 420:2021, item 4.3.3 e 4.3.4 ABNT NBR 15747-1:2009 ABNT NBR 17003:2021 Portaria 215 de 6 de junho de 2024   MÁQUINAS E EQUIPAMENTOS  ENSAIOS ELÉTRICOS &amp; MAGNÉTICOS   EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
+          <t>– RESERVATÒRIO TÉRMICO</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ÁGUA RESIDUAL</t>
+          <t>EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
+          <t>EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO </t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO </t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ensaio de corrente de fuga  ABNT NBR 16641:2018 - item 6.5  ABNT NBR 14016:2015 – Item 3 Portaria Inmetro Nº 420:2021 item 4.2.5 Portaria 215 de 6 de junho de 2024   Ensaio de potência absorvida ABNT NBR 16641:2018 - item 6.6  ABNT NBR 14013:2015 – Item 3 Portaria Inmetro Nº 420:2021, item 4.2.6 Portaria 215 de 6 de junho de 2024        MÁQUINAS E EQUIPAMENTOS  ENSAIOS ELÉTRICOS &amp; MAGNÉTICOS   EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>– RESERVATÒRIO TÉRMICO</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
+          <t>EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
+          <t>EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Determinação da turbidez pelo método nefelométrico LQ: 1,0 NTU SMWW, 24ª Edição, Método 2130 B  Determinação da dureza pelo método titulométrico por EDTA  LQ: 2,00 mg SMWW, 24ª Edição, Método 2340 C  Determinação de surfactantes aniônicos pelo método colorimétrico para substâncias ativas ao azul de metileno (MBAS) LQ: 0,50 mg/L SMWW, 24ª Edição, Método 5540 C  Determinação de ferro pelo método colorimétrico com fenantrolina LQ: 0,20 mg/L SMWW, 24ª Edição, Método 3500 -Fe B  Determinação de cloreto pelo método argentométrico LQ: 2,00 mg/L SMWW, 24ª Edição, Método 4500 -Cl- B  Determinação de sulfato pelo método turbidimétrico LQ: 15,00 mg/L SMWW, 24ª Edição, Método 4500 -SO 42- E  Determinação de fluoreto pelo método de SPADNS. LQ: 0,20 mg SMWW, 24ª Edição, Método 4500 -F- D   MEIO AMBIENTE  ENSAIOS QUÍMICOS  ÁGUA BRUTA </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA </t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO </t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – RESERVATÒRIO TÉRMICO </t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁGUA RESIDUAL</t>
+          <t xml:space="preserve">  Ensaio de tensão suportável ABNT NBR NM 60335-1/2010 - item 16 ABNT NBR 16641:2018 - item 6.4  Portaria Inmetro Nº 420:2021 item 4.2.4 Portaria 215 de 6 de junho de 2024  EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA </t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">– SISTEMA ACOPLADO </t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
+          <t xml:space="preserve">EQUIPAMENTOS DE AQUECIMENTO SOLAR DE ÁGUA – SISTEMA ACOPLADO </t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ensaio de corrente de fuga ABNT NBR 16641:2018 item 6.5 ABNT NBR 14016:2015 Item 3 Portaria Inmetro Nº 420:2021 item 4.2.5 Portaria 215 de 6 de junho de 2024   Ensaio de potência absorvida ABNT NBR 16641:2018 item 6.6  ABNT NBR 14013:2015 Item 3 Portaria Inmetro Nº 420:2021 item 4.2.6 Portaria 215 de 6 de junho de 2024   Ensaio de tensão suportável ABNT NBR NM 60335-1/2010 item 16 ABNT NBR 16641:2018 item 6.4  Portaria Inmetro Nº 420:2021, de 04 de outubro de 2021, item 4.2.4 Portaria 215 de 6 de junho de 2024    MEIO AMBIENTE  ENSAIOS QUÍMICOS  ÁGUA BRUTA </t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
+          <t xml:space="preserve">ÁGUA BRUTA </t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
+          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determinação de nitrato pelo método de redução com cádmio LQ: 2,2 mg NO 3-/L ou LQ: 0,5 mg NO 3- N/L SMWW, 24ª Edição, Método 4500 -NO 3- E  Determinação da condutividade Eletrolítica Faixa: 1,0 µS/cm a 12852 µS/cm SMWW, 24ª Edição, Método 2510 B  Determinação de óleos e graxas pelo método da partição gravimétrica líquido – líquido LQ: 10,00 mg/L SMWW, 24ª Edição, Método 5520 B   Determinação de hidrocarbonetos, óleos vegetais e gordura animal pelo método com sílica gel após a quantificação de óleos e graxas / óleo 15s e graxas minerais (hidrocarbonetos) LQ 10,00 mg/L SMWW, 24ª Edição, Método 5520 F  Determinação da cor verdadeira pelo método espectrofotométrico - comprimento de onda único LQ: 2 CU/L SMWW, 24ª Edição, Método 2120 C   MEIO AMBIENTE  ENSAIOS QUÍMICOS  ÁGUA BRUTA </t>
+          <t xml:space="preserve"> ÁGUA RESIDUAL</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA </t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
+          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ÁGUA RESIDUAL</t>
+          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
+          <t>ÁGUA RESIDUAL</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
+          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
         </is>
       </c>
     </row>
@@ -2249,40 +2299,40 @@
           <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
         </is>
       </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Determinação da turbidez pelo método nefelométrico LQ: 1,0 NTU SMWW, 24ª Edição, Método 2130 B  Determinação da dureza pelo método titulométrico por EDTA  LQ: 2,00 mg SMWW, 24ª Edição, Método 2340 C  Determinação de surfactantes aniônicos pelo método colorimétrico para substâncias ativas ao azul de metileno (MBAS) LQ: 0,50 mg/L SMWW, 24ª Edição, Método 5540 C  Determinação de ferro pelo método colorimétrico com fenantrolina LQ: 0,20 mg/L SMWW, 24ª Edição, Método 3500 -Fe B  Determinação de cloreto pelo método argentométrico LQ: 2,00 mg/L SMWW, 24ª Edição, Método 4500 -Cl- B  Determinação de sulfato pelo método turbidimétrico LQ: 15,00 mg/L SMWW, 24ª Edição, Método 4500 -SO 42- E  Determinação de fluoreto pelo método de SPADNS. LQ: 0,20 mg SMWW, 24ª Edição, Método 4500 -F- D   MEIO AMBIENTE  ENSAIOS QUÍMICOS  ÁGUA BRUTA </t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
+          <t xml:space="preserve">ÁGUA BRUTA </t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determinação da cor aparente pelo método da comparação visual LQ:5 UC/L SMWW, 24ª Edição, Método 2120 B  Determinação da demanda bioquímica de oxigênio através do ensaio em 05 dias  LQ: 2,0 mg/L SMWW, 24ª Edição, Método 5210 B   Determinação de nitrogênio amoniacal pelo método titulométrico.  LQ: 0,5 mg N/L e 0.1mg NH3/L SMWW, 24ª Edição, Método 4500 -NH3 C    Determinação de sólidos sedimentáveis  LQ: 0,1 mL/L SMWW, 24ª Edição, Método 2540 F   Determinação de cianeto livre pelo método ácido 1,3-dimetilbarbitúrico (com de piridina e livre de piridina) LQ: 0,005 mg/L SMWW, 24ª Edição, Método 4500 -CN- E;  USEPA Certificate No. 109701   Determinação de cromo pelo método colorimétrico  LQ: 0,01 mg SMWW, 24ª Edição, Método 3500 -Cr B   Determinação da demanda química de oxigênio pelo método do refluxo fechado seguido de espectrofotometria  LQ: 50,00 mg/L SMWW, 24ª Edição, Método 5220 D      Determinação de sólidos suspensos totais, fixos e voláteis por gravimetria LQ: 10,0 mg/L  SMWW, 24ª Edição, Método 2540 D, E    Determinação de sólidos dissolvidos totais, fixos e voláteis por gravimetria LQ: 10,0 mg/L SMWW, 24ª Edição , Método 2540 C, E    Determinação de sólidos totais, fixos e voláteis por gravimetria LQ: 10,0 mg/L  SMWW, 24ª Edição, Método 2540 B, E             MEIO AMBIENTE  ENSAIOS QUÍMICOS   ÁGUA BRUTA </t>
+          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA </t>
+          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
+          <t xml:space="preserve"> ÁGUA RESIDUAL</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ÁGUA RESIDUAL</t>
+          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
         </is>
       </c>
     </row>
@@ -2296,7 +2346,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
+          <t>ÁGUA RESIDUAL</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2329,7 +2384,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determinação de fósforo total pelo método espectrofotométrico (ácido ascórbico) LQ: 0,15 mg /L SMWW, 24ª Edição, Método 4500 -P E   Determinação de ortofosfato pelo método espectrofotométrico (ácido ascórbico) LQ: 0,10 mg P/L SMWW, 24ª Edição, Método 4500 -P E   Determinação de manganês pelo método colorimétrico com persulfato.  LQ: 2,00 mg/L SMWW, 24ª Edição, Método 3500Mn B    Determinação de cálcio por titulometria com EDTA  LQ: 2,00 mg/L SMWW, 24ª Edição, Método 3500 -Ca B     Determinação de magnésio por cálculo.  SMWW, 24ª Edição, Método 3500 -Mg B    Determinação da alcalinidade pelo método titulométrico (alcalinidade total, a carbonatos, a bicarbonatos e hidróxido) LQ: 2,00 mg /L SMWW, 24ª Edição, Método 2320 B    Determinação de alumínio total pelo método espectrofotométrico (Eriocromo Cianina R). LQ: 0,10 mg/L SMWW, 24ª Edição, Método 3500 -Al B   Determinação de óxido de silício pelo método colorimétrico com molibdosilicato LQ: 0,50 mg SiO2/L SMWW, 24ª Edição, Método 4500 -SiO 2 C   Determinação de nitrogênio total Kjeldahl pelo método titulométrico (macro Kjeldahl). LQ: 5,00 mg N/L SMWW, 24ª Edição, Métodos 4500 -Norg B (preparação); 4500- NH3 C (titulação)    Determinação de nitrito pelo método colorimétrico  LQ: 0,005 mg NO 2-N/L ou LQ: 0,010 mg NO 2/L SMWW, 24ª Edição, Método 4500 -NO2- B  Determinação de zinco total pelo métod o espectrofotométrico. LQ: 0,04 mg Zn/L SMWW, 24ª Edição, Método 3500 -Zn B  MEIO AMBIENTE  ENSAIOS QUÍMICOS   ÁGUA BRUTA </t>
+          <t xml:space="preserve">Determinação de nitrato pelo método de redução com cádmio LQ: 2,2 mg NO 3-/L ou LQ: 0,5 mg NO 3- N/L SMWW, 24ª Edição, Método 4500 -NO 3- E  Determinação da condutividade Eletrolítica Faixa: 1,0 µS/cm a 12852 µS/cm SMWW, 24ª Edição, Método 2510 B  Determinação de óleos e graxas pelo método da partição gravimétrica líquido – líquido LQ: 10,00 mg/L SMWW, 24ª Edição, Método 5520 B   Determinação de hidrocarbonetos, óleos vegetais e gordura animal pelo método com sílica gel após a quantificação de óleos e graxas / óleo 15s e graxas minerais (hidrocarbonetos) LQ 10,00 mg/L SMWW, 24ª Edição, Método 5520 F  Determinação da cor verdadeira pelo método espectrofotométrico - comprimento de onda único LQ: 2 CU/L SMWW, 24ª Edição, Método 2120 C   MEIO AMBIENTE  ENSAIOS QUÍMICOS  ÁGUA BRUTA </t>
         </is>
       </c>
     </row>
@@ -2374,7 +2429,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
+          <t>ÁGUA RESIDUAL</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2398,668 +2458,683 @@
           <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Determinação do Índice Volumétrico de Lodo (IVL) por cálculo. SMWW, 24ª Edição, Méto do 2710 D  Determinação de dióxido de carbono total por cálculo. SMWW, 24ª Edição, Método 4500 -CO 2 D  Determinação de dióxido de carbono livre pelo método titulométrico. LQ: 6,60 mg CO2/L SMWW, 24ª Edição, Método 4500 -CO 2 C  Determinação de fenóis pelo método espectrofotométrico direto  LQ: 0,1 mg/L SMWW, 24ª Edição, Método 5530 D  Determinação de sulfeto pelo método espectrofotométrico. LQ: 0,03 mg S- 2/L SMWW, 24ª Edição, Método 4500 -S2- D  Determinação de materiais flutuantes pelo método visual (Presença/Ausência). SMWW, 24ª Edição, Método 2110  PRODUTOS QUÍMICOS  ENSAIOS QUÍMICOS   ÁGUA PURIFICADA</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA PURIFICADA </t>
+          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Determinação da cor aparente pelo método da comparação visual LQ:5 UC/L SMWW, 24ª Edição, Método 2120 B  Determinação da demanda bioquímica de oxigênio através do ensaio em 05 dias  LQ: 2,0 mg/L SMWW, 24ª Edição, Método 5210 B   Determinação de nitrogênio amoniacal pelo método titulométrico.  LQ: 0,5 mg N/L e 0.1mg NH3/L SMWW, 24ª Edição, Método 4500 -NH3 C    Determinação de sólidos sedimentáveis  LQ: 0,1 mL/L SMWW, 24ª Edição, Método 2540 F   Determinação de cianeto livre pelo método ácido 1,3-dimetilbarbitúrico (com de piridina e livre de piridina) LQ: 0,005 mg/L SMWW, 24ª Edição, Método 4500 -CN- E;  USEPA Certificate No. 109701   Determinação de cromo pelo método colorimétrico  LQ: 0,01 mg SMWW, 24ª Edição, Método 3500 -Cr B   Determinação da demanda química de oxigênio pelo método do refluxo fechado seguido de espectrofotometria  LQ: 50,00 mg/L SMWW, 24ª Edição, Método 5220 D      Determinação de sólidos suspensos totais, fixos e voláteis por gravimetria LQ: 10,0 mg/L  SMWW, 24ª Edição, Método 2540 D, E    Determinação de sólidos dissolvidos totais, fixos e voláteis por gravimetria LQ: 10,0 mg/L SMWW, 24ª Edição , Método 2540 C, E    Determinação de sólidos totais, fixos e voláteis por gravimetria LQ: 10,0 mg/L  SMWW, 24ª Edição, Método 2540 B, E             MEIO AMBIENTE  ENSAIOS QUÍMICOS   ÁGUA BRUTA </t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA PURIFICADA </t>
+          <t xml:space="preserve">ÁGUA BRUTA </t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Determinação qualitativa de substâncias oxidáveis pelo método colorimétrico. Farmacopéia Brasileira,6ª Edição, IF032- 00  Determinação da condutividade pelo método eletrométrico. Faixa: 1,0 µS/cm a 12852 µS/cm Farmacopéia Brasileira,6ª Edição, IF032- 00  Determinação de acidez ou alcalinidade pelo método colorimétrico. Farmacopéia Brasileira,6ª Edição, IF032- 00  Determinação qualitativa de amônio pelo método colorimétrico. Farmacopéia Brasileira,6ª Edição, IF032- 00  Determinação qualitativa de cálcio e magnésio pelo método colorimétrico. Farmacopéia Brasileira,6ª Edição, IF032- 00  Determinação qualitativa de cloretos pelo método colorimétrico. Farmacopéia Brasileira,6ª Edição, IF032- 00     Determinação qualitativa de sulfatos pelo método colorimétrico. Farmacopéia Brasileira,6ª Edição, IF032- 00     PRODUTOS QUÍMICOS  ENSAIOS QUÍMICOS   ÁGUA PURIFICADA</t>
+          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA PURIFICADA </t>
+          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ÁGUA RESIDUAL</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA PURIFICADA </t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Determinação de características organolépticas  Aspecto – límpida Coloração – incolor Odor - inodora Farmacopéia Brasileira,6ª Edição, IF032- 00  Determinação de óxido de silício pelo método colorimétrico com molibdosilicato LQ: 0,20 mg SiO2/L SMWW, 24ª Edição, Método 4500 -SiO 2 C  ALIMENTOS E BEBIDAS  ENSAIOS QUÍMICOS   ALIMENTOS DE ORIGEM ANIMAL CARNES E PRODUTOS CÁRNEOS </t>
+          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES E PRODUTOS CÁRNEOS </t>
+          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES E PRODUTOS CÁRNEOS </t>
+          <t>ÁGUA RESIDUAL</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determinação de carboidratos totais por espectrofotometria LQ:0,75 g/100g  MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022 – Método 1.6   Determinação de amido por espectrofotometria LQ:0,67 g/100g  MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022 – Método 1.6   Determinação de pH por método eletrométrico. Faixa: 2,00 a 12,00. MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 1.23 ISO 2917:1999   Determinação de cálcio por titulometria  LQ: 0,30 g/100 g AOAC Intl. - OMA, método 983.19, 22 th ed. MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, método 1.9   Determinação de cálcio por titulometria em base seca LQ: 0,30 g/100 g AOAC Intl. - OMA, método 983.19, 22 th ed  MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, método 1.9              ALIMENTOS E BEBIDAS  ENSAIOS QUÍMICOS   ALIMENTOS DE ORIGEM ANIMAL CARNES E PRODUTOS CÁRNEOS </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES E PRODUTOS CÁRNEOS </t>
+          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES E PRODUTOS CÁRNEOS </t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Determinação de cloreto de sódio por titulometria  LQ: 0,1 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 1.10 e Método 5.6   Determinação do índice de peróxidos por titulometria  LQ: 0,50 mEq de O2/kg de gordura MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 1.18  ISO 3960:2017   Determinação de nitratos por espectrofotometria UV-Vis  LQ:0,001g/100g  NMKL 194:2013   Determinação de nitritos por espectrofotometria UV-Vis  LQ:0,001g/100g  NMKL 194:2013   Determinação de lipídios/gordura por gravimetria  LQ: 1,20 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 1.19 ISO 1443:1973   Determinação de cinzas/resíduo mineral fixo/resíduo mineral por gravimetria  LQ: 0,16 g/100g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 1.26 ISO 936:1998   Determinação de nitrogênio por titulometria e digestão por Kjeldahl e proteína (N x fator) por cálculo LQ: 1,00 g/100g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 1.24 ISO 1871:2009   Determinação de umidade por gravimetria  LQ: 4,40 g/100g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 1.29; ISO 1442:2023  ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
+          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
+          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS </t>
+          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Determinação de fósforo total pelo método espectrofotométrico (ácido ascórbico) LQ: 0,15 mg /L SMWW, 24ª Edição, Método 4500 -P E   Determinação de ortofosfato pelo método espectrofotométrico (ácido ascórbico) LQ: 0,10 mg P/L SMWW, 24ª Edição, Método 4500 -P E   Determinação de manganês pelo método colorimétrico com persulfato.  LQ: 2,00 mg/L SMWW, 24ª Edição, Método 3500Mn B    Determinação de cálcio por titulometria com EDTA  LQ: 2,00 mg/L SMWW, 24ª Edição, Método 3500 -Ca B     Determinação de magnésio por cálculo.  SMWW, 24ª Edição, Método 3500 -Mg B    Determinação da alcalinidade pelo método titulométrico (alcalinidade total, a carbonatos, a bicarbonatos e hidróxido) LQ: 2,00 mg /L SMWW, 24ª Edição, Método 2320 B    Determinação de alumínio total pelo método espectrofotométrico (Eriocromo Cianina R). LQ: 0,10 mg/L SMWW, 24ª Edição, Método 3500 -Al B   Determinação de óxido de silício pelo método colorimétrico com molibdosilicato LQ: 0,50 mg SiO2/L SMWW, 24ª Edição, Método 4500 -SiO 2 C   Determinação de nitrogênio total Kjeldahl pelo método titulométrico (macro Kjeldahl). LQ: 5,00 mg N/L SMWW, 24ª Edição, Métodos 4500 -Norg B (preparação); 4500- NH3 C (titulação)    Determinação de nitrito pelo método colorimétrico  LQ: 0,005 mg NO 2-N/L ou LQ: 0,010 mg NO 2/L SMWW, 24ª Edição, Método 4500 -NO2- B  Determinação de zinco total pelo métod o espectrofotométrico. LQ: 0,04 mg Zn/L SMWW, 24ª Edição, Método 3500 -Zn B  MEIO AMBIENTE  ENSAIOS QUÍMICOS   ÁGUA BRUTA </t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS </t>
+          <t xml:space="preserve">ÁGUA BRUTA </t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determinação qualitativa de amido com lugol MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 2.6   Determinação qualitativa de formaldeído por colorimetria AOAC Intl. - OMA, método 931.08, 22 th ed.        ALIMENTOS E BEBIDAS  ENSAIOS QUÍMICOS   Soro de leite, soro de leite em pó </t>
+          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t xml:space="preserve">Soro de leite, soro de leite em pó </t>
+          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Determinação de pH por método eletrométrico  Faixa: 2,00 a 12,00 MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 2.36   Determinação de extrato seco total (EST) e sólidos totais por gravimetria LQ: 1,56 g/100 g ISO 6731:2010 [IDF 21:2010]  Determinação de umidade/perda por dessecação por gravimetria e extrato seco por cálculo MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 2.40.5  ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
+          <t xml:space="preserve"> ÁGUA RESIDUAL</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
+          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS </t>
+          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS </t>
+          <t>ÁGUA RESIDUAL</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Leite </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leite </t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Determinação de extrato seco total (EST) e sólidos totais por gravimetria LQ: 1,56 g/100 g ISO 6731:2010 [IDF 21:2010]  Determinação de acidez por titulometria  LQ: 0,09 g/100 mL MAPA, Manual de métodos oficiais para análise de alimentos de origem animal – 2019, Método 2.2   Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria  LQ:0,2g/100g ISO 1211:2010 [IDF 1:2010]  Determinação qualitativa de cloretos – reação de cor MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 2.9   Determinação de extrato seco desengordurado (ESD) e sólidos não gordurosos (SNG) por cálculo MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022 – Método 2.19.1              ALIMENTOS E BEBIDAS  ENSAIOS QUÍMICOS   ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
+          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
+          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS </t>
+          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS </t>
+          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Margarina, gordura anidra (butter oil) </t>
+          <t>Determinação do Índice Volumétrico de Lodo (IVL) por cálculo. SMWW, 24ª Edição, Méto do 2710 D  Determinação de dióxido de carbono total por cálculo. SMWW, 24ª Edição, Método 4500 -CO 2 D  Determinação de dióxido de carbono livre pelo método titulométrico. LQ: 6,60 mg CO2/L SMWW, 24ª Edição, Método 4500 -CO 2 C  Determinação de fenóis pelo método espectrofotométrico direto  LQ: 0,1 mg/L SMWW, 24ª Edição, Método 5530 D  Determinação de sulfeto pelo método espectrofotométrico. LQ: 0,03 mg S- 2/L SMWW, 24ª Edição, Método 4500 -S2- D  Determinação de materiais flutuantes pelo método visual (Presença/Ausência). SMWW, 24ª Edição, Método 2110  PRODUTOS QUÍMICOS  ENSAIOS QUÍMICOS   ÁGUA PURIFICADA</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t xml:space="preserve">Margarina, gordura anidra (butter oil) </t>
+          <t>ÁGUA PURIFICADA</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria ISO 17189:2003 [IDF 194:2003] Leite </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leite </t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t xml:space="preserve">em pó </t>
+          <t xml:space="preserve">ÁGUA PURIFICADA </t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leite em pó </t>
+          <t xml:space="preserve">ÁGUA PURIFICADA </t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,2g/100g ISO 1736:2008 [IDF 9:2008] Caseínas e caseinatos </t>
+          <t>Determinação qualitativa de substâncias oxidáveis pelo método colorimétrico. Farmacopéia Brasileira,6ª Edição, IF032- 00  Determinação da condutividade pelo método eletrométrico. Faixa: 1,0 µS/cm a 12852 µS/cm Farmacopéia Brasileira,6ª Edição, IF032- 00  Determinação de acidez ou alcalinidade pelo método colorimétrico. Farmacopéia Brasileira,6ª Edição, IF032- 00  Determinação qualitativa de amônio pelo método colorimétrico. Farmacopéia Brasileira,6ª Edição, IF032- 00  Determinação qualitativa de cálcio e magnésio pelo método colorimétrico. Farmacopéia Brasileira,6ª Edição, IF032- 00  Determinação qualitativa de cloretos pelo método colorimétrico. Farmacopéia Brasileira,6ª Edição, IF032- 00     Determinação qualitativa de sulfatos pelo método colorimétrico. Farmacopéia Brasileira,6ª Edição, IF032- 00     PRODUTOS QUÍMICOS  ENSAIOS QUÍMICOS   ÁGUA PURIFICADA</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caseínas e caseinatos </t>
+          <t>ÁGUA PURIFICADA</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,2g/100g ISO 5543:2004 [IDF 127:2004]/ ISO 23319:2022 – IDF 250 Creme de leite e nata </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t xml:space="preserve">Creme de leite e nata </t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,2g/100g ISO 2450:2008 [IDF 16:2008] Bebida láctea</t>
+          <t xml:space="preserve">ÁGUA PURIFICADA </t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Bebida láctea</t>
+          <t xml:space="preserve">ÁGUA PURIFICADA </t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,2g/100g ISO 1211:2010 [IDF 1:2010] Queijos </t>
+          <t xml:space="preserve">Determinação de características organolépticas  Aspecto – límpida Coloração – incolor Odor - inodora Farmacopéia Brasileira,6ª Edição, IF032- 00  Determinação de óxido de silício pelo método colorimétrico com molibdosilicato LQ: 0,20 mg SiO2/L SMWW, 24ª Edição, Método 4500 -SiO 2 C  ALIMENTOS E BEBIDAS  ENSAIOS QUÍMICOS   ALIMENTOS DE ORIGEM ANIMAL CARNES E PRODUTOS CÁRNEOS </t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t xml:space="preserve">Queijos </t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>Determinação de umidade/perda por dessecação por gravimetria e extrato seco por cálculo LQ: 2,00 g/100g ISO 5534:2004 [IDF 4:2004] e MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 2.40.6  Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,2g/100g ISO 1735:2004 [IDF 5]/ ISO 23319:2022 [IDF 250] Manteiga</t>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES E PRODUTOS CÁRNEOS </t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Manteiga</t>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES E PRODUTOS CÁRNEOS </t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Determinação de umidade pelo método gravimétrico. LQ: 1,16 g/100g ISO 3727-1:2001 - IDF 80-1  Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,2g/100g ISO 17189:2003 – IDF 194   Determinação de cloretos por volumetria. LQ: 0,20 g/100g ISO 1738:2004 – IDF 12  Determinação de extrato seco total desengordurado (sólidos não gordurosos) por gravimetria. LQ: 0,30 g/100g ISO 3727-2:2001 – IDF 80-2  ALIMENTOS E BEBIDAS  ENSAIOS QUÍMICOS   ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
+          <t xml:space="preserve">Determinação de carboidratos totais por espectrofotometria LQ:0,75 g/100g  MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022 – Método 1.6   Determinação de amido por espectrofotometria LQ:0,67 g/100g  MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022 – Método 1.6   Determinação de pH por método eletrométrico. Faixa: 2,00 a 12,00. MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 1.23 ISO 2917:1999   Determinação de cálcio por titulometria  LQ: 0,30 g/100 g AOAC Intl. - OMA, método 983.19, 22 th ed. MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, método 1.9   Determinação de cálcio por titulometria em base seca LQ: 0,30 g/100 g AOAC Intl. - OMA, método 983.19, 22 th ed  MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, método 1.9              ALIMENTOS E BEBIDAS  ENSAIOS QUÍMICOS   ALIMENTOS DE ORIGEM ANIMAL CARNES E PRODUTOS CÁRNEOS </t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES E PRODUTOS CÁRNEOS </t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS </t>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES E PRODUTOS CÁRNEOS </t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Determinação de cloreto de sódio por titulometria  LQ: 0,1 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 1.10 e Método 5.6   Determinação do índice de peróxidos por titulometria  LQ: 0,50 mEq de O2/kg de gordura MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 1.18  ISO 3960:2017   Determinação de nitratos por espectrofotometria UV-Vis  LQ:0,001g/100g  NMKL 194:2013   Determinação de nitritos por espectrofotometria UV-Vis  LQ:0,001g/100g  NMKL 194:2013   Determinação de lipídios/gordura por gravimetria  LQ: 1,20 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 1.19 ISO 1443:1973   Determinação de cinzas/resíduo mineral fixo/resíduo mineral por gravimetria  LQ: 0,16 g/100g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 1.26 ISO 936:1998   Determinação de nitrogênio por titulometria e digestão por Kjeldahl e proteína (N x fator) por cálculo LQ: 1,00 g/100g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 1.24 ISO 1871:2009   Determinação de umidade por gravimetria  LQ: 4,40 g/100g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 1.29; ISO 1442:2023  ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS </t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Concentrado Proteico </t>
+          <t>ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t xml:space="preserve">Concentrado Proteico </t>
+          <t>ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determinação de extrato seco total (EST) e sólidos totais por Gravimetria LQ: 5,00 g/100g ISO 2920:2004 [IDF 58:2004]  Determinação de umidade/perda por dessecação por gravimetria e extrato seco por cálculo MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022- Método 2.40.5  Doce de Leite </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leite </t>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS </t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t xml:space="preserve">Doce de Leite </t>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS </t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,20 g/100g ISO 1737:2008 [IDF 13]  Determinação de umidade por gravimetria LQ: 1,16 g/100g ISO 6734:2010 [IDF 15] Leite </t>
+          <t xml:space="preserve">Determinação qualitativa de amido com lugol MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 2.6   Determinação qualitativa de formaldeído por colorimetria AOAC Intl. - OMA, método 931.08, 22 th ed.        ALIMENTOS E BEBIDAS  ENSAIOS QUÍMICOS   Soro de leite, soro de leite em pó </t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leite </t>
+          <t xml:space="preserve">Soro de leite, soro de leite em pó </t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t xml:space="preserve">Condensado </t>
+          <t>Determinação de pH por método eletrométrico  Faixa: 2,00 a 12,00 MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 2.36   Determinação de extrato seco total (EST) e sólidos totais por gravimetria LQ: 1,56 g/100 g ISO 6731:2010 [IDF 21:2010]  Determinação de umidade/perda por dessecação por gravimetria e extrato seco por cálculo MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 2.40.5  ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leite Condensado </t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,2 g/100g ISO 1737:2008 [IDF 13]  Determinação de umidade/perda por dessecação por gravimetria e extrato seco por cálculo ISO 6734:2010 [IDF15] Ricota</t>
+          <t>ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Ricota</t>
+          <t>ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,2 g/100g ISO 1854:2008 [IDF 59]  ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA </t>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS </t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA </t>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS </t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Determinação de nitrogênio por titulometria e digestão por Kjeldahl e proteína (N x fator) por cálculo  LQ: 1,00 g/100 g ISO 1871: 2009 MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 5.21   Determinação de cinzas/resíduo mineral fixo/resíduo mineral por gravimetria LQ: 0,16 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 5.23 ISO 936:1998   Determinação de pH por método eletrométrico  Faixa: 2,00 a 12,00. MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 5.19 ISO 2917:1999     ALIMENTOS E BEBIDAS  ENSAIOS QUÍMICOS   ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA</t>
+          <t xml:space="preserve">   Leite </t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA </t>
+          <t xml:space="preserve">Leite </t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Determinação de extrato seco total (EST) e sólidos totais por gravimetria LQ: 1,56 g/100 g ISO 6731:2010 [IDF 21:2010]  Determinação de acidez por titulometria  LQ: 0,09 g/100 mL MAPA, Manual de métodos oficiais para análise de alimentos de origem animal – 2019, Método 2.2   Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria  LQ:0,2g/100g ISO 1211:2010 [IDF 1:2010]  Determinação qualitativa de cloretos – reação de cor MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 2.9   Determinação de extrato seco desengordurado (ESD) e sólidos não gordurosos (SNG) por cálculo MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022 – Método 2.19.1              ALIMENTOS E BEBIDAS  ENSAIOS QUÍMICOS   ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA </t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Determinação do índice de peróxidos por titulometria LQ: 0,50 mEq de O2/kg MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 5.16 ISO 3960:2017   Determinação de umidade pelo método gravimétrico. LQ: 4,40 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal – 2022, Método 5.25;  ISO 1442: 2023   Determinação de carboidratos totais por espectrofotometria LQ: 0,75 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Métodos 5.3 e 1.6  Determinação de amido por espectrofotometria LQ:0,67 g/100g  MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Métodos 5.3 e 1.6   Determinação de lipídios/gordura por gravimetria  LQ: 1,20 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 5.17 ISO 1443:1973  OVOS E DERIVADOS </t>
+          <t>ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t xml:space="preserve">OVOS E DERIVADOS </t>
+          <t>ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determinação de pH por método eletrométrico Faixa: 2,00 a 12,00. MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 4.2   Determinação de nitrogênio por titulometria e digestão por Kjeldahl e proteína (N x fator) por cálculo LQ: 1,00 g/100g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 4.3 ISO 1871:2009.   Determinação de cinzas/resíduo mineral fixo/resíduo mineral por gravimetria  LQ: 0,02 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 4.4 MEL PRODUTOS DA COLMÉIA </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t xml:space="preserve">MEL PRODUTOS DA COLMÉIA </t>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS </t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t xml:space="preserve">MEL PRODUTOS DA COLMÉIA </t>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS </t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Determinação de acidez por titulometria LQ: 0,25 m Eq/kg MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 3.2 AOAC Intl. - OMA, método 962.19, 22 th ed.   Determinação de sólidos insolúveis pelo método Mohr. LQ: 0,02 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 3.11 ABNT NBR 15714-5:2009     ALIMENTOS E BEBIDAS  ENSAIOS QUÍMICOS   ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA</t>
+          <t xml:space="preserve">  Margarina, gordura anidra (butter oil) </t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA </t>
+          <t xml:space="preserve">Margarina, gordura anidra (butter oil) </t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria ISO 17189:2003 [IDF 194:2003] Leite </t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA </t>
+          <t xml:space="preserve">Leite </t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Determinação de cinzas/resíduo mineral fixo/resíduo mineral por gravimetria  LQ: 0,02 g/100 g  MAPA - Métodos Oficiais para Análise de Produtos de Origem Animal, 2022 - Método 1.26; Método 5.23  ISO 936:1998 LEITE E DERIVADOS OVOS E DERIVADOS </t>
+          <t xml:space="preserve">em pó </t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t xml:space="preserve">OVOS E DERIVADOS </t>
+          <t xml:space="preserve">Leite em pó </t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,2g/100g ISO 1736:2008 [IDF 9:2008] Caseínas e caseinatos </t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t xml:space="preserve">LEITE E DERIVADOS OVOS E DERIVADOS </t>
+          <t xml:space="preserve">Caseínas e caseinatos </t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Determinação de cinzas/resíduo mineral fixo/resíduo mineral por gravimetria  LQ: 0,02 g/100 g MAPA - Métodos Oficiais para Análise de Produtos de Origem Animal, 2022, Método 4.4  MEL PRODUTOS DA COLMÉIA </t>
+          <t xml:space="preserve">Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,2g/100g ISO 5543:2004 [IDF 127:2004]/ ISO 23319:2022 – IDF 250 Creme de leite e nata </t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t xml:space="preserve">MEL PRODUTOS DA COLMÉIA </t>
+          <t xml:space="preserve">Creme de leite e nata </t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,2g/100g ISO 2450:2008 [IDF 16:2008] Bebida láctea</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t xml:space="preserve">MEL PRODUTOS DA COLMÉIA </t>
+          <t>Bebida láctea</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Determinação de cinzas/resíduo mineral fixo/resíduo mineral por gravimetria  LQ: 0,02 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 3.17 - ABNT NBR 15714-3:2009 MEIO AMBIENTE  ENSAIOS BIOLÓGICOS   ÁGUA BRUTA </t>
+          <t xml:space="preserve">  Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,2g/100g ISO 1211:2010 [IDF 1:2010] Queijos </t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA </t>
+          <t xml:space="preserve">Queijos </t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
+          <t>Determinação de umidade/perda por dessecação por gravimetria e extrato seco por cálculo LQ: 2,00 g/100g ISO 5534:2004 [IDF 4:2004] e MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 2.40.6  Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,2g/100g ISO 1735:2004 [IDF 5]/ ISO 23319:2022 [IDF 250] Manteiga</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
+          <t>Manteiga</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁGUA RESIDUAL</t>
+          <t xml:space="preserve"> Determinação de umidade pelo método gravimétrico. LQ: 1,16 g/100g ISO 3727-1:2001 - IDF 80-1  Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,2g/100g ISO 17189:2003 – IDF 194   Determinação de cloretos por volumetria. LQ: 0,20 g/100g ISO 1738:2004 – IDF 12  Determinação de extrato seco total desengordurado (sólidos não gordurosos) por gravimetria. LQ: 0,30 g/100g ISO 3727-2:2001 – IDF 80-2  ALIMENTOS E BEBIDAS  ENSAIOS QUÍMICOS   ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
+          <t>ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
+          <t>ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS </t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL LEITE E DERIVADOS </t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Concentrado Proteico </t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
+          <t xml:space="preserve">Concentrado Proteico </t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Determinação de extrato seco total (EST) e sólidos totais por Gravimetria LQ: 5,00 g/100g ISO 2920:2004 [IDF 58:2004]  Determinação de umidade/perda por dessecação por gravimetria e extrato seco por cálculo MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022- Método 2.40.5  Doce de Leite </t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Coliformes totais – Determinação quantitativa pela técnica de membrana filtrante. LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9222  B   Coliformes termotolerantes (fecais) – Determinação quantitativa pela técnica de membrana filtrante LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9222  D   Enterococos / Estreptococos fecais – Determinação quantitativa pela técnica de membrana filtrante. LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9230 C    Pseudomona aeruginosa  – determinação quantitativa pela técnica de membrana filtrante. LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9213 E    Bactérias Heterotróficas – determinação quantitativa pela técnica de membrana filtrante. LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9215  A e D    Coliformes totais e Escherichia coli – Determinação qualitativa pela técnica de presença/ausência (substrato enzimático)    SMWW, 24ª Edição, Método 9223 B    PRODUTOS QUÍMICOS  ENSAIOS BIOLÓGICOS   ÁGUA PURIFICADA</t>
+          <t xml:space="preserve">Leite </t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA PURIFICADA </t>
+          <t xml:space="preserve">Doce de Leite </t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,20 g/100g ISO 1737:2008 [IDF 13]  Determinação de umidade por gravimetria LQ: 1,16 g/100g ISO 6734:2010 [IDF 15] Leite </t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA PURIFICADA </t>
+          <t xml:space="preserve">Leite </t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t xml:space="preserve">Coliformes termotolerantes (fecais) – determinação quantitativa pela técnica de membrana filtrante. LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9222  D   Coliforme totais – determinação quantitativa pela técnica de membra filtrante. LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9222  B   Pseudomona aeruginosa – determinação quantitativa pela técnica de membrana filtrante. LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9213 E    Bactérias Heterotróficas – determinação quantitativa pela técnica de membrana filtrante. LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9215 A e D   ALIMENTOS E BEBIDAS  ENSAIOS BIOLÓGICOS   ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS </t>
+          <t xml:space="preserve">Condensado </t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t xml:space="preserve">OVOS E DERIVADOS </t>
+          <t xml:space="preserve">Leite Condensado </t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t xml:space="preserve">LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
+          <t>Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,2 g/100g ISO 1737:2008 [IDF 13]  Determinação de umidade/perda por dessecação por gravimetria e extrato seco por cálculo ISO 6734:2010 [IDF15] Ricota</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
+          <t>Ricota</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Determinação de gordura, matéria gorda, matéria gorda no extrato seco e lipídios totais por gravimetria LQ:0,2 g/100g ISO 1854:2008 [IDF 59]  ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
+          <t>ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Coliformes Totais e Termotolerantes - Determinação quantitativa pela técnica de inoculação em profundidade LQ: 10 UFC/g LQ: 1 UFC/mL MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 7  Coliformes totais e Escherichia coli  – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g LQ: 1 UFC/mL AOAC Intl. - OMA, método 991.14, 22 th ed.   Salmonella  spp – determinação pela técnica de presença/ausência. ABNT NBR ISO 6579-1:2021.  Clostridium perfringens  – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g LQ: 1 UFC/mL ABNT NBR ISO 7937:2020.  ALIMENTOS E BEBIDAS  ENSAIOS BIOLÓGICOS   ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS </t>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA </t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t xml:space="preserve">OVOS E DERIVADOS </t>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA </t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t xml:space="preserve">LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
+          <t>Determinação de nitrogênio por titulometria e digestão por Kjeldahl e proteína (N x fator) por cálculo  LQ: 1,00 g/100 g ISO 1871: 2009 MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 5.21   Determinação de cinzas/resíduo mineral fixo/resíduo mineral por gravimetria LQ: 0,16 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 5.23 ISO 936:1998   Determinação de pH por método eletrométrico  Faixa: 2,00 a 12,00. MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 5.19 ISO 2917:1999     ALIMENTOS E BEBIDAS  ENSAIOS QUÍMICOS   ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
+          <t>ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA </t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA </t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bolores e leveduras – determinação quantitativa pela técnica de contagem em superfície. LQ: 10 UFC/g LQ: 1 UFC/mL ABNT NBR ISO 21527-1:2021.ABNT NBR ISO 21527-2:2021.   Estafilococos coagulase positiva – determinação quantitativa pela técnica de contagem em superfície. LQ: 10 UFC/g LQ: 1 UFC/mL ABNT NBR ISO 6888- 1:2023  Bactérias mesófilas aeróbias e anaeróbias facultativas – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g LQ: 1 UFC/mL ABNT NBR ISO 4833-1:2015 Versão Corrigida:2015   Listeria monocytogenes  – determinação qualitativa pela técnica de presença/ausência ABNT NBR ISO 11290-1:20 20  Bacillus cereus  – Determinação quantitativa pela técnica de contagem em superfície. LQ: 10 UFC/g LQ: 1 UFC/mL ABNT NBR ISO 7932:20 16/AMD 1:2020  Enterobacteriaceae – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g LQ: 1 UFC/mL ABNT NBR ISO 21528-2:2020  Staphylococcus aureus  – Determinação pela técnica de contagem em profundidade (Petrifilm Staph Express Count System/3M) LQ: 10 UFC/g  LQ: 1 UFC/mL   AOAC Intl. - OMA, 2003.11, 22th ed..  ALIMENTOS E BEBIDAS  ENSAIOS BIOLÓGICOS   ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS </t>
+          <t xml:space="preserve">Determinação do índice de peróxidos por titulometria LQ: 0,50 mEq de O2/kg MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 5.16 ISO 3960:2017   Determinação de umidade pelo método gravimétrico. LQ: 4,40 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal – 2022, Método 5.25;  ISO 1442: 2023   Determinação de carboidratos totais por espectrofotometria LQ: 0,75 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Métodos 5.3 e 1.6  Determinação de amido por espectrofotometria LQ:0,67 g/100g  MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Métodos 5.3 e 1.6   Determinação de lipídios/gordura por gravimetria  LQ: 1,20 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 5.17 ISO 1443:1973  OVOS E DERIVADOS </t>
         </is>
       </c>
     </row>
@@ -3071,110 +3146,400 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t xml:space="preserve">LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
+          <t xml:space="preserve">Determinação de pH por método eletrométrico Faixa: 2,00 a 12,00. MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 4.2   Determinação de nitrogênio por titulometria e digestão por Kjeldahl e proteína (N x fator) por cálculo LQ: 1,00 g/100g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 4.3 ISO 1871:2009.   Determinação de cinzas/resíduo mineral fixo/resíduo mineral por gravimetria  LQ: 0,02 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 4.4 MEL PRODUTOS DA COLMÉIA </t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
+          <t xml:space="preserve">MEL PRODUTOS DA COLMÉIA </t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
+          <t xml:space="preserve">MEL PRODUTOS DA COLMÉIA </t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Determinação de acidez por titulometria LQ: 0,25 m Eq/kg MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 3.2 AOAC Intl. - OMA, método 962.19, 22 th ed.   Determinação de sólidos insolúveis pelo método Mohr. LQ: 0,02 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 3.11 ABNT NBR 15714-5:2009     ALIMENTOS E BEBIDAS  ENSAIOS QUÍMICOS   ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
+          <t>ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Enterobacteriaceae  - Determinação quantitativa pela técnica de contagem em profundidade. (Petrifilm Enterobacteriaceae Count Plate method).  LQ: 10 UFC/g LQ: 1 UFC/mL  AOAC Intl. - OMA, 2003.01, 22 th ed.  Escherichia coli  - Determinação quantitativa pela técnica de contagem em profundidade. (Petrifilm Coliform Count Plate).  LQ: 10 UFC/g  LQ: 1 UFC/mL  AOAC Intl. - OMA, método 991.14, 22 th ed. e AOAC Intl. - OMA, 998.08, 22th ed.   Contagem de coliformes totais – Determinação quantitativa pela técnica de contagem em profundidade. (Petrifilm Coliform Count Plate).  LQ: 10 UFC/g  LQ: 1 UFC/mL  AOAC Intl. - OMA, método 991.14, 22 th ed.  Bactérias Mesófilas aeróbias e anaeróbias facultativas - Determinação quantitativa pela técnica de contagem em profundidade. (Petrifilm Aerobic Count Plate).  LQ: 10 UFC/g  LQ: 1 UFC/mL  AOAC Intl. - OMA, método 990.12, 986.33 e 989.10, 22 th ed.  Estafilococos coagulase positiva – determinação quantitativa pela técnica de contagem em superfície. LQ: 10 UFC/g ABNT NBR ISO 6888-1:2023  Bacillus cer eus – determinação quantitativa pela técnica de contagem em superfície. LQ: 10 UFC/g ISO 7932:2004/AMD 1:2020  Bolores e leveduras – determinação quantitativa pela técnica de contagem em superfície. LQ: 10 UFC/g  ABNT NBR ISO 21527-1:2021 ABNT NBR ISO 215 27-2:2021   ALIMENTOS E BEBIDAS  ENSAIOS BIOLÓGICOS   ALIMENTOS DE ORIGEM VEGETAL VEGETAIS IN NATURA FARINHAS; FARELOS ESPECIARIAS ÍNTEGRAS E MOÍDAS</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ALIMENTOS DE ORIGEM VEGETAL VEGETAIS IN NATURA FARINHAS; FARELOS ESPECIARIAS ÍNTEGRAS E MOÍDAS</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Clostridium perfringens  – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g ABNT NBR ISO 7937:2020  Enterobacteriaceae  – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g ABNT NBR ISO 21528-2:2020  Listeria monocytogenes  – determinação qualitativa pela técnica de presença/ausência  ABNT NBR ISO 11290-1:20 20   Salmonella  spp – determinação pela técnica de presença/ausência. ABNT NBR ISO 6579-1:20 21  Bactérias mesófilas aeróbias e anaeróbias facultativas – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g ABNT NBR ISO 4833-1:2015 Versão Corrigida:2015  Coliformes totais e coliformes termotolerantes – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 7  Coliformes totais e Escherichia coli  – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g AOAC Intel. OMA, 22ª Edição, 991.14 ESCOPO DA ACREDITAÇÃO – ABNT NBR ISO/IEC 17025 - ENSAIO  Norma de Origem: NIT-DICLA-016 Folha: 46   FOR-CGCRE- 003 – Rev. 12 – Publicado Set/19 – Pg. 0 46/06   ACREDITAÇÃO N  TIPO DE INSTALAÇÃO CRL 0495  INSTALAÇÃO DE CLIENTE ÁREA DE ATIVIDADE / PRODUTO CLASSE DE ENSAIO / DESCRIÇÃO DO ENSAIO NORMA E /OU PROCEDIMENTO MEIO AMBIENTE  ENSAIOS QUÍMICOS   ÁGUA BRUTA, ÁGUA TRATADA, ÁGUA PARA CONSUMO HUMANO, ÁGUA SALINA, ÁGUA SALOBRA, ÁGUA RESIDUAL</t>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA </t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ÁGUA BRUTA, ÁGUA TRATADA, ÁGUA PARA CONSUMO HUMANO, ÁGUA SALINA, ÁGUA SALOBRA, ÁGUA RESIDUAL</t>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL PESCADOS E PRODUTOS DE PESCA </t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Determinação de cinzas/resíduo mineral fixo/resíduo mineral por gravimetria  LQ: 0,02 g/100 g  MAPA - Métodos Oficiais para Análise de Produtos de Origem Animal, 2022 - Método 1.26; Método 5.23  ISO 936:1998 LEITE E DERIVADOS OVOS E DERIVADOS </t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ÁGUA RESIDUAL</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Determinação de pH pelo método potenciométrico.  Faixa: 2,00 a 12,00 SMWW, 24ª Edição, Método 4500 -H+ B  Determinação de condutividade pelo método eletrométrico  Faixa: 1,0 µS/cm a 12852 µS/cm SMWW, 24ª Edição, Método 2510 B    Determinação de cloro residual livre e total pelo método colorimétrico (DPD).  LQ: 0,10 mg Cl 2/L SMWW, 24ª Edição, Método 4500 -Cl G  Determinação de oxigênio dissolvido pelo método do eletrodo de membrana.  LQ: 0,89 mg O 2/L SMWW, 24ª Edição, Método 4500 -O G   Determinação da temperatura pelo método termométrico. Faixa: 0 ºC até 70 ºC SMWW, 24ª Edição , Método 2550 B   Determinação de potencial de oxirredução (ORP).  Faixa: -1999 mV a 1999 mV SMWW, 24ª Edição, Método 2580 B  Determinação da turbidez pelo método nefelométrico. LQ: 1 NTU SMWW, 24ª Edição, Método 2130 B MEIO AMBIENTE  AMOSTRAGEM   ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
+          <t xml:space="preserve">OVOS E DERIVADOS </t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
+          <t xml:space="preserve">LEITE E DERIVADOS OVOS E DERIVADOS </t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Amostragem em estação de tratamento de Águas (ETA), sistema de reservatórios, redes de distribuição, sistema alternativos de abastecimento público, bebedouros, caixas d’água, torneiras e saídas de filtro.  SMWW, 24ª Edição, Método 1060 A, B, C e Método 9060 A, B. ÁGUA BRUTA </t>
+          <t xml:space="preserve"> Determinação de cinzas/resíduo mineral fixo/resíduo mineral por gravimetria  LQ: 0,02 g/100 g MAPA - Métodos Oficiais para Análise de Produtos de Origem Animal, 2022, Método 4.4  MEL PRODUTOS DA COLMÉIA </t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA BRUTA </t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amostragem em rios, lagos, represas, reservatórios, sistemas alternativos de abastecimento público, poços freáticos e profundos, nascentes, minas e água doce. SMWW, 24ª Edição, Método 1060 A, B, C e Método 9060 A, B. ÁGUA SALINA, ÁGUA SALOBRA </t>
+          <t xml:space="preserve">MEL PRODUTOS DA COLMÉIA </t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t xml:space="preserve">ÁGUA SALINA, ÁGUA SALOBRA </t>
+          <t xml:space="preserve">MEL PRODUTOS DA COLMÉIA </t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Amostragem em mar, água para fins de balneabilidade SMWW, 24ª Edição, Método 1060 A, B, C e Método 9060 A, B. ÁGUA RESIDUAL</t>
+          <t xml:space="preserve"> Determinação de cinzas/resíduo mineral fixo/resíduo mineral por gravimetria  LQ: 0,02 g/100 g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 3.17 - ABNT NBR 15714-3:2009 MEIO AMBIENTE  ENSAIOS BIOLÓGICOS   ÁGUA BRUTA </t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
+          <t xml:space="preserve">ÁGUA BRUTA </t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ÁGUA RESIDUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
           <t>ÁGUA RESIDUAL</t>
         </is>
       </c>
-      <c r="B267" t="inlineStr">
+      <c r="B271" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ÁGUA BRUTA ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO ÁGUA RESIDUAL </t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Coliformes totais – Determinação quantitativa pela técnica de membrana filtrante. LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9222  B   Coliformes termotolerantes (fecais) – Determinação quantitativa pela técnica de membrana filtrante LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9222  D   Enterococos / Estreptococos fecais – Determinação quantitativa pela técnica de membrana filtrante. LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9230 C    Pseudomona aeruginosa  – determinação quantitativa pela técnica de membrana filtrante. LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9213 E    Bactérias Heterotróficas – determinação quantitativa pela técnica de membrana filtrante. LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9215  A e D    Coliformes totais e Escherichia coli – Determinação qualitativa pela técnica de presença/ausência (substrato enzimático)    SMWW, 24ª Edição, Método 9223 B    PRODUTOS QUÍMICOS  ENSAIOS BIOLÓGICOS   ÁGUA PURIFICADA</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>ÁGUA PURIFICADA</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ÁGUA PURIFICADA </t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ÁGUA PURIFICADA </t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coliformes termotolerantes (fecais) – determinação quantitativa pela técnica de membrana filtrante. LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9222  D   Coliforme totais – determinação quantitativa pela técnica de membra filtrante. LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9222  B   Pseudomona aeruginosa – determinação quantitativa pela técnica de membrana filtrante. LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9213 E    Bactérias Heterotróficas – determinação quantitativa pela técnica de membrana filtrante. LQ: 1 UFC/100 mL SMWW, 24ª Edição, Método 9215 A e D   ALIMENTOS E BEBIDAS  ENSAIOS BIOLÓGICOS   ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS </t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OVOS E DERIVADOS </t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Coliformes Totais e Termotolerantes - Determinação quantitativa pela técnica de inoculação em profundidade LQ: 10 UFC/g LQ: 1 UFC/mL MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 7  Coliformes totais e Escherichia coli  – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g LQ: 1 UFC/mL AOAC Intl. - OMA, método 991.14, 22 th ed.   Salmonella  spp – determinação pela técnica de presença/ausência. ABNT NBR ISO 6579-1:2021.  Clostridium perfringens  – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g LQ: 1 UFC/mL ABNT NBR ISO 7937:2020.  ALIMENTOS E BEBIDAS  ENSAIOS BIOLÓGICOS   ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS </t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OVOS E DERIVADOS </t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bolores e leveduras – determinação quantitativa pela técnica de contagem em superfície. LQ: 10 UFC/g LQ: 1 UFC/mL ABNT NBR ISO 21527-1:2021.ABNT NBR ISO 21527-2:2021.   Estafilococos coagulase positiva – determinação quantitativa pela técnica de contagem em superfície. LQ: 10 UFC/g LQ: 1 UFC/mL ABNT NBR ISO 6888- 1:2023  Bactérias mesófilas aeróbias e anaeróbias facultativas – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g LQ: 1 UFC/mL ABNT NBR ISO 4833-1:2015 Versão Corrigida:2015   Listeria monocytogenes  – determinação qualitativa pela técnica de presença/ausência ABNT NBR ISO 11290-1:20 20  Bacillus cereus  – Determinação quantitativa pela técnica de contagem em superfície. LQ: 10 UFC/g LQ: 1 UFC/mL ABNT NBR ISO 7932:20 16/AMD 1:2020  Enterobacteriaceae – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g LQ: 1 UFC/mL ABNT NBR ISO 21528-2:2020  Staphylococcus aureus  – Determinação pela técnica de contagem em profundidade (Petrifilm Staph Express Count System/3M) LQ: 10 UFC/g  LQ: 1 UFC/mL   AOAC Intl. - OMA, 2003.11, 22th ed..  ALIMENTOS E BEBIDAS  ENSAIOS BIOLÓGICOS   ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS </t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OVOS E DERIVADOS </t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ALIMENTOS DE ORIGEM ANIMAL CARNES PRODUTOS CÁRNEOS PRODUTOS DA COLMÉIA PESCADOS E PRODUTOS DA PESCA OVOS E DERIVADOS LEITE E PRODUTOS LÁCTEOS ALIMENTOS PARA ANIMAIS </t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Enterobacteriaceae  - Determinação quantitativa pela técnica de contagem em profundidade. (Petrifilm Enterobacteriaceae Count Plate method).  LQ: 10 UFC/g LQ: 1 UFC/mL  AOAC Intl. - OMA, 2003.01, 22 th ed.  Escherichia coli  - Determinação quantitativa pela técnica de contagem em profundidade. (Petrifilm Coliform Count Plate).  LQ: 10 UFC/g  LQ: 1 UFC/mL  AOAC Intl. - OMA, método 991.14, 22 th ed. e AOAC Intl. - OMA, 998.08, 22th ed.   Contagem de coliformes totais – Determinação quantitativa pela técnica de contagem em profundidade. (Petrifilm Coliform Count Plate).  LQ: 10 UFC/g  LQ: 1 UFC/mL  AOAC Intl. - OMA, método 991.14, 22 th ed.  Bactérias Mesófilas aeróbias e anaeróbias facultativas - Determinação quantitativa pela técnica de contagem em profundidade. (Petrifilm Aerobic Count Plate).  LQ: 10 UFC/g  LQ: 1 UFC/mL  AOAC Intl. - OMA, método 990.12, 986.33 e 989.10, 22 th ed.  Estafilococos coagulase positiva – determinação quantitativa pela técnica de contagem em superfície. LQ: 10 UFC/g ABNT NBR ISO 6888-1:2023  Bacillus cer eus – determinação quantitativa pela técnica de contagem em superfície. LQ: 10 UFC/g ISO 7932:2004/AMD 1:2020  Bolores e leveduras – determinação quantitativa pela técnica de contagem em superfície. LQ: 10 UFC/g  ABNT NBR ISO 21527-1:2021 ABNT NBR ISO 215 27-2:2021   ALIMENTOS E BEBIDAS  ENSAIOS BIOLÓGICOS   ALIMENTOS DE ORIGEM VEGETAL VEGETAIS IN NATURA FARINHAS; FARELOS ESPECIARIAS ÍNTEGRAS E MOÍDAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>ALIMENTOS DE ORIGEM VEGETAL VEGETAIS IN NATURA FARINHAS; FARELOS ESPECIARIAS ÍNTEGRAS E MOÍDAS</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clostridium perfringens  – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g ABNT NBR ISO 7937:2020  Enterobacteriaceae  – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g ABNT NBR ISO 21528-2:2020  Listeria monocytogenes  – determinação qualitativa pela técnica de presença/ausência  ABNT NBR ISO 11290-1:20 20   Salmonella  spp – determinação pela técnica de presença/ausência. ABNT NBR ISO 6579-1:20 21  Bactérias mesófilas aeróbias e anaeróbias facultativas – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g ABNT NBR ISO 4833-1:2015 Versão Corrigida:2015  Coliformes totais e coliformes termotolerantes – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g MAPA, Métodos Oficiais para Análise de Produtos de Origem Animal - 2022, Método 7  Coliformes totais e Escherichia coli  – determinação quantitativa pela técnica de contagem em profundidade. LQ: 10 UFC/g AOAC Intel. OMA, 22ª Edição, 991.14 ESCOPO DA ACREDITAÇÃO – ABNT NBR ISO/IEC 17025 - ENSAIO  Norma de Origem: NIT-DICLA-016 Folha: 46   FOR-CGCRE- 003 – Rev. 12 – Publicado Set/19 – Pg. 0 46/06   ACREDITAÇÃO N  TIPO DE INSTALAÇÃO CRL 0495  INSTALAÇÃO DE CLIENTE ÁREA DE ATIVIDADE / PRODUTO CLASSE DE ENSAIO / DESCRIÇÃO DO ENSAIO NORMA E /OU PROCEDIMENTO MEIO AMBIENTE  ENSAIOS QUÍMICOS   ÁGUA BRUTA, ÁGUA TRATADA, ÁGUA PARA CONSUMO HUMANO, ÁGUA SALINA, ÁGUA SALOBRA, ÁGUA RESIDUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>ÁGUA BRUTA, ÁGUA TRATADA, ÁGUA PARA CONSUMO HUMANO, ÁGUA SALINA, ÁGUA SALOBRA, ÁGUA RESIDUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>ÁGUA RESIDUAL</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Determinação de pH pelo método potenciométrico.  Faixa: 2,00 a 12,00 SMWW, 24ª Edição, Método 4500 -H+ B  Determinação de condutividade pelo método eletrométrico  Faixa: 1,0 µS/cm a 12852 µS/cm SMWW, 24ª Edição, Método 2510 B    Determinação de cloro residual livre e total pelo método colorimétrico (DPD).  LQ: 0,10 mg Cl 2/L SMWW, 24ª Edição, Método 4500 -Cl G  Determinação de oxigênio dissolvido pelo método do eletrodo de membrana.  LQ: 0,89 mg O 2/L SMWW, 24ª Edição, Método 4500 -O G   Determinação da temperatura pelo método termométrico. Faixa: 0 ºC até 70 ºC SMWW, 24ª Edição , Método 2550 B   Determinação de potencial de oxirredução (ORP).  Faixa: -1999 mV a 1999 mV SMWW, 24ª Edição, Método 2580 B  Determinação da turbidez pelo método nefelométrico. LQ: 1 NTU SMWW, 24ª Edição, Método 2130 B MEIO AMBIENTE  AMOSTRAGEM   ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>ÁGUA TRATADA ÁGUA PARA CONSUMO HUMANO</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Amostragem em estação de tratamento de Águas (ETA), sistema de reservatórios, redes de distribuição, sistema alternativos de abastecimento público, bebedouros, caixas d’água, torneiras e saídas de filtro.  SMWW, 24ª Edição, Método 1060 A, B, C e Método 9060 A, B. ÁGUA BRUTA </t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ÁGUA BRUTA </t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amostragem em rios, lagos, represas, reservatórios, sistemas alternativos de abastecimento público, poços freáticos e profundos, nascentes, minas e água doce. SMWW, 24ª Edição, Método 1060 A, B, C e Método 9060 A, B. ÁGUA SALINA, ÁGUA SALOBRA </t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ÁGUA SALINA, ÁGUA SALOBRA </t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Amostragem em mar, água para fins de balneabilidade SMWW, 24ª Edição, Método 1060 A, B, C e Método 9060 A, B. ÁGUA RESIDUAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>ÁGUA RESIDUAL</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
         <is>
           <t xml:space="preserve"> Amostragem em sistemas de tratamento de efluentes (ETE), esgoto e fontes geradoras de efluent es SMWW, 24ª Edição, Método 1060 A, B, C e Método 9060 A, B. </t>
         </is>
